--- a/output/experiments/thesis_track_p_grid/6h-bat-Oct-track-p-grid.xlsx
+++ b/output/experiments/thesis_track_p_grid/6h-bat-Oct-track-p-grid.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Energy_grid_new\output\experiments\thesis_track_p_grid\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C775C132-6593-403D-A843-583145D7AE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="116">
   <si>
     <t>status</t>
   </si>
@@ -211,22 +205,136 @@
     <t>unconscious</t>
   </si>
   <si>
+    <t>01-01</t>
+  </si>
+  <si>
+    <t>02-01</t>
+  </si>
+  <si>
+    <t>03-01</t>
+  </si>
+  <si>
+    <t>04-01</t>
+  </si>
+  <si>
+    <t>05-01</t>
+  </si>
+  <si>
+    <t>06-01</t>
+  </si>
+  <si>
+    <t>07-01</t>
+  </si>
+  <si>
+    <t>08-01</t>
+  </si>
+  <si>
+    <t>09-01</t>
+  </si>
+  <si>
     <t>10-01</t>
   </si>
   <si>
-    <t>09-01</t>
-  </si>
-  <si>
     <t>11-01</t>
   </si>
   <si>
+    <t>12-01</t>
+  </si>
+  <si>
+    <t>12-31</t>
+  </si>
+  <si>
     <t>flex</t>
   </si>
   <si>
+    <t>by_execution</t>
+  </si>
+  <si>
     <t>by_solution</t>
   </si>
   <si>
-    <t>by_execution</t>
+    <t>minimize_cap</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-by_solution-2023-09-07_006.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
@@ -235,65 +343,36 @@
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-by_solution-2023-09-07_014.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-by_solution-2023-09-07_006.xlsx</t>
-  </si>
-  <si>
-    <t>minimize_cap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>07-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>06-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -301,15 +380,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -348,30 +420,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -418,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,27 +509,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,24 +543,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -695,19 +718,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="13" width="8.88671875" style="3"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -741,10 +759,10 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -877,12 +895,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:56">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -911,11 +929,11 @@
       <c r="K2" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>80</v>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>64</v>
       </c>
       <c r="N2">
         <v>10</v>
@@ -930,18 +948,117 @@
         <v>0.6</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="V2">
+        <v>378.8848040257061</v>
+      </c>
+      <c r="W2">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X2">
+        <v>1340.0773592</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2">
+        <v>378.8848040257061</v>
+      </c>
+      <c r="AA2">
+        <v>360.8848040257061</v>
+      </c>
+      <c r="AB2">
+        <v>18</v>
+      </c>
+      <c r="AC2">
+        <v>18</v>
+      </c>
+      <c r="AD2">
+        <v>438</v>
+      </c>
+      <c r="AE2">
+        <v>5.763333323363991</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0.1588977000719198</v>
+      </c>
+      <c r="AI2">
+        <v>0.1588977000719198</v>
+      </c>
+      <c r="AJ2">
+        <v>0.1513488129935653</v>
+      </c>
+      <c r="AL2">
+        <v>110.8939531571033</v>
+      </c>
+      <c r="AM2">
+        <v>249.9908508686028</v>
+      </c>
+      <c r="AO2">
+        <v>62.56941176470588</v>
+      </c>
+      <c r="AP2">
+        <v>1823.944479731092</v>
+      </c>
+      <c r="AQ2">
+        <v>560.5129658720623</v>
+      </c>
+      <c r="AR2">
+        <v>2384.457445603154</v>
+      </c>
+      <c r="AS2">
+        <v>604.9537259916899</v>
+      </c>
+      <c r="AT2">
+        <v>1809.742158668202</v>
+      </c>
+      <c r="AU2">
+        <v>5.361661909895609</v>
+      </c>
+      <c r="AV2">
+        <v>250.6045633762328</v>
+      </c>
+      <c r="AW2">
+        <v>0.6137125076299809</v>
+      </c>
+      <c r="AX2">
+        <v>184.8232552618388</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>-11.32715959849124</v>
+      </c>
+      <c r="BB2">
+        <v>17.66044416152094</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:56">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -970,11 +1087,11 @@
       <c r="K3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>80</v>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
+        <v>64</v>
       </c>
       <c r="N3">
         <v>10</v>
@@ -989,18 +1106,117 @@
         <v>0.6</v>
       </c>
       <c r="R3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="V3">
+        <v>380.1385625160382</v>
+      </c>
+      <c r="W3">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X3">
+        <v>1350.5081993</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3">
+        <v>380.1385625160382</v>
+      </c>
+      <c r="AA3">
+        <v>362.1385625160382</v>
+      </c>
+      <c r="AB3">
+        <v>18</v>
+      </c>
+      <c r="AC3">
+        <v>18</v>
+      </c>
+      <c r="AD3">
+        <v>438</v>
+      </c>
+      <c r="AE3">
+        <v>5.763333323363991</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0.1594235045867556</v>
+      </c>
+      <c r="AI3">
+        <v>0.1594235045867556</v>
+      </c>
+      <c r="AJ3">
+        <v>0.1518746175084011</v>
+      </c>
+      <c r="AL3">
+        <v>107.1705136393504</v>
+      </c>
+      <c r="AM3">
+        <v>254.9680488766878</v>
+      </c>
+      <c r="AO3">
+        <v>62.56941176470588</v>
+      </c>
+      <c r="AP3">
+        <v>1823.944479731092</v>
+      </c>
+      <c r="AQ3">
+        <v>560.5129658720625</v>
+      </c>
+      <c r="AR3">
+        <v>2384.457445603155</v>
+      </c>
+      <c r="AS3">
+        <v>604.9537259916899</v>
+      </c>
+      <c r="AT3">
+        <v>1807.928779852499</v>
+      </c>
+      <c r="AU3">
+        <v>5.2663430830968</v>
+      </c>
+      <c r="AV3">
+        <v>255.5698674359862</v>
+      </c>
+      <c r="AW3">
+        <v>0.6018185592984107</v>
+      </c>
+      <c r="AX3">
+        <v>178.6175227322506</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>-11.32715959849124</v>
+      </c>
+      <c r="BB3">
+        <v>17.66044416152094</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:56">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
@@ -1029,11 +1245,11 @@
       <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>80</v>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
       </c>
       <c r="N4">
         <v>10</v>
@@ -1048,18 +1264,117 @@
         <v>0.6</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="V4">
+        <v>378.8318358541226</v>
+      </c>
+      <c r="W4">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X4">
+        <v>1350.4106248</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z4">
+        <v>378.8318358541226</v>
+      </c>
+      <c r="AA4">
+        <v>360.8318358541226</v>
+      </c>
+      <c r="AB4">
+        <v>18</v>
+      </c>
+      <c r="AC4">
+        <v>18</v>
+      </c>
+      <c r="AD4">
+        <v>438</v>
+      </c>
+      <c r="AE4">
+        <v>5.763333323363991</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0.1588754861415848</v>
+      </c>
+      <c r="AI4">
+        <v>0.1588754861415848</v>
+      </c>
+      <c r="AJ4">
+        <v>0.1513265990632302</v>
+      </c>
+      <c r="AL4">
+        <v>110.8939531571033</v>
+      </c>
+      <c r="AM4">
+        <v>249.9378826970193</v>
+      </c>
+      <c r="AO4">
+        <v>62.56941176470588</v>
+      </c>
+      <c r="AP4">
+        <v>1823.944479731092</v>
+      </c>
+      <c r="AQ4">
+        <v>560.5129658720628</v>
+      </c>
+      <c r="AR4">
+        <v>2384.457445603155</v>
+      </c>
+      <c r="AS4">
+        <v>604.9537259916899</v>
+      </c>
+      <c r="AT4">
+        <v>1809.73913161248</v>
+      </c>
+      <c r="AU4">
+        <v>5.353587442918837</v>
+      </c>
+      <c r="AV4">
+        <v>250.5498647811072</v>
+      </c>
+      <c r="AW4">
+        <v>0.6119820840879009</v>
+      </c>
+      <c r="AX4">
+        <v>184.8232552618388</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>-11.32715959849124</v>
+      </c>
+      <c r="BB4">
+        <v>17.66044416152094</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:56">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
@@ -1088,11 +1403,11 @@
       <c r="K5" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>79</v>
+      <c r="L5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" t="s">
+        <v>65</v>
       </c>
       <c r="N5">
         <v>10</v>
@@ -1107,18 +1422,117 @@
         <v>0.6</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="V5">
+        <v>371.3217567442086</v>
+      </c>
+      <c r="W5">
+        <v>27.98958333333333</v>
+      </c>
+      <c r="X5">
+        <v>1305.371785</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z5">
+        <v>371.3217567442086</v>
+      </c>
+      <c r="AA5">
+        <v>353.3217567442086</v>
+      </c>
+      <c r="AB5">
+        <v>18</v>
+      </c>
+      <c r="AC5">
+        <v>18</v>
+      </c>
+      <c r="AD5">
+        <v>438</v>
+      </c>
+      <c r="AE5">
+        <v>5.541145342273898</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0.1483240241992024</v>
+      </c>
+      <c r="AI5">
+        <v>0.1483240241992024</v>
+      </c>
+      <c r="AJ5">
+        <v>0.1411339460874455</v>
+      </c>
+      <c r="AL5">
+        <v>106.5589862281232</v>
+      </c>
+      <c r="AM5">
+        <v>246.7627705160854</v>
+      </c>
+      <c r="AO5">
+        <v>69.49013770003722</v>
+      </c>
+      <c r="AP5">
+        <v>1897.080720803875</v>
+      </c>
+      <c r="AQ5">
+        <v>606.3691333176362</v>
+      </c>
+      <c r="AR5">
+        <v>2503.449854121511</v>
+      </c>
+      <c r="AS5">
+        <v>747.2553716424334</v>
+      </c>
+      <c r="AT5">
+        <v>1790.179313326584</v>
+      </c>
+      <c r="AU5">
+        <v>9.077708814276608</v>
+      </c>
+      <c r="AV5">
+        <v>247.8953198374142</v>
+      </c>
+      <c r="AW5">
+        <v>1.132549321328782</v>
+      </c>
+      <c r="AX5">
+        <v>177.5983103802052</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>-12.19819991079334</v>
+      </c>
+      <c r="BB5">
+        <v>11.79139614264098</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:56">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
@@ -1147,11 +1561,11 @@
       <c r="K6" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>79</v>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" t="s">
+        <v>65</v>
       </c>
       <c r="N6">
         <v>10</v>
@@ -1166,18 +1580,117 @@
         <v>0.6</v>
       </c>
       <c r="R6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="V6">
+        <v>372.9301404585888</v>
+      </c>
+      <c r="W6">
+        <v>27.98958333333333</v>
+      </c>
+      <c r="X6">
+        <v>1302.8227923</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z6">
+        <v>372.9301404585888</v>
+      </c>
+      <c r="AA6">
+        <v>354.9301404585888</v>
+      </c>
+      <c r="AB6">
+        <v>18</v>
+      </c>
+      <c r="AC6">
+        <v>18</v>
+      </c>
+      <c r="AD6">
+        <v>438</v>
+      </c>
+      <c r="AE6">
+        <v>5.541145342273898</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0.1489664911180952</v>
+      </c>
+      <c r="AI6">
+        <v>0.1489664911180952</v>
+      </c>
+      <c r="AJ6">
+        <v>0.1417764130063383</v>
+      </c>
+      <c r="AL6">
+        <v>106.3983912243089</v>
+      </c>
+      <c r="AM6">
+        <v>248.5317492342799</v>
+      </c>
+      <c r="AO6">
+        <v>69.49013770003722</v>
+      </c>
+      <c r="AP6">
+        <v>1897.080720803875</v>
+      </c>
+      <c r="AQ6">
+        <v>606.3691333176374</v>
+      </c>
+      <c r="AR6">
+        <v>2503.449854121512</v>
+      </c>
+      <c r="AS6">
+        <v>747.2553716424334</v>
+      </c>
+      <c r="AT6">
+        <v>1789.659897909854</v>
+      </c>
+      <c r="AU6">
+        <v>9.055983323498218</v>
+      </c>
+      <c r="AV6">
+        <v>249.6624077151103</v>
+      </c>
+      <c r="AW6">
+        <v>1.130658480830419</v>
+      </c>
+      <c r="AX6">
+        <v>177.3306520405149</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>-12.19819991079334</v>
+      </c>
+      <c r="BB6">
+        <v>11.79139614264098</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:56">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -1206,11 +1719,11 @@
       <c r="K7" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>79</v>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" t="s">
+        <v>65</v>
       </c>
       <c r="N7">
         <v>10</v>
@@ -1225,18 +1738,117 @@
         <v>0.6</v>
       </c>
       <c r="R7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="V7">
+        <v>371.3081322459453</v>
+      </c>
+      <c r="W7">
+        <v>27.98958333333333</v>
+      </c>
+      <c r="X7">
+        <v>1295.9960972</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z7">
+        <v>371.3081322459453</v>
+      </c>
+      <c r="AA7">
+        <v>353.3081322459453</v>
+      </c>
+      <c r="AB7">
+        <v>18</v>
+      </c>
+      <c r="AC7">
+        <v>18</v>
+      </c>
+      <c r="AD7">
+        <v>438</v>
+      </c>
+      <c r="AE7">
+        <v>5.541145342273898</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0.1483185819099385</v>
+      </c>
+      <c r="AI7">
+        <v>0.1483185819099385</v>
+      </c>
+      <c r="AJ7">
+        <v>0.1411285037981817</v>
+      </c>
+      <c r="AL7">
+        <v>106.5589862281232</v>
+      </c>
+      <c r="AM7">
+        <v>246.7491460178221</v>
+      </c>
+      <c r="AO7">
+        <v>69.49013770003722</v>
+      </c>
+      <c r="AP7">
+        <v>1897.080720803875</v>
+      </c>
+      <c r="AQ7">
+        <v>606.3691333176376</v>
+      </c>
+      <c r="AR7">
+        <v>2503.449854121513</v>
+      </c>
+      <c r="AS7">
+        <v>747.2553716424334</v>
+      </c>
+      <c r="AT7">
+        <v>1790.140456522292</v>
+      </c>
+      <c r="AU7">
+        <v>9.030903313973955</v>
+      </c>
+      <c r="AV7">
+        <v>247.8780811967644</v>
+      </c>
+      <c r="AW7">
+        <v>1.128935178942237</v>
+      </c>
+      <c r="AX7">
+        <v>177.5983103802052</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>-12.19819991079334</v>
+      </c>
+      <c r="BB7">
+        <v>11.79139614264098</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:56">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
@@ -1265,11 +1877,11 @@
       <c r="K8" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>78</v>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" t="s">
+        <v>66</v>
       </c>
       <c r="N8">
         <v>10</v>
@@ -1284,18 +1896,117 @@
         <v>0.6</v>
       </c>
       <c r="R8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="V8">
+        <v>323.566793259675</v>
+      </c>
+      <c r="W8">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X8">
+        <v>1325.0476672</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z8">
+        <v>323.566793259675</v>
+      </c>
+      <c r="AA8">
+        <v>305.566793259675</v>
+      </c>
+      <c r="AB8">
+        <v>18</v>
+      </c>
+      <c r="AC8">
+        <v>18</v>
+      </c>
+      <c r="AD8">
+        <v>438</v>
+      </c>
+      <c r="AE8">
+        <v>5.753593577295262</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0.1365760804385003</v>
+      </c>
+      <c r="AI8">
+        <v>0.1365760804385003</v>
+      </c>
+      <c r="AJ8">
+        <v>0.1289783618248969</v>
+      </c>
+      <c r="AL8">
+        <v>108.6235597207575</v>
+      </c>
+      <c r="AM8">
+        <v>196.9432335389175</v>
+      </c>
+      <c r="AO8">
+        <v>61.60134453781513</v>
+      </c>
+      <c r="AP8">
+        <v>1827.032072873949</v>
+      </c>
+      <c r="AQ8">
+        <v>542.1001516034983</v>
+      </c>
+      <c r="AR8">
+        <v>2369.132224477447</v>
+      </c>
+      <c r="AS8">
+        <v>944.9298545577608</v>
+      </c>
+      <c r="AT8">
+        <v>1492.497229469794</v>
+      </c>
+      <c r="AU8">
+        <v>42.59440319934966</v>
+      </c>
+      <c r="AV8">
+        <v>202.5806244573266</v>
+      </c>
+      <c r="AW8">
+        <v>5.637390918409062</v>
+      </c>
+      <c r="AX8">
+        <v>181.0392662012625</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>-16.17920982126445</v>
+      </c>
+      <c r="BB8">
+        <v>12.8769068619023</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:56">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
@@ -1324,11 +2035,11 @@
       <c r="K9" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>78</v>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
       </c>
       <c r="N9">
         <v>10</v>
@@ -1343,18 +2054,117 @@
         <v>0.6</v>
       </c>
       <c r="R9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="V9">
+        <v>315.3531587068255</v>
+      </c>
+      <c r="W9">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X9">
+        <v>1333.3237262</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z9">
+        <v>315.3531587068255</v>
+      </c>
+      <c r="AA9">
+        <v>297.3531587068255</v>
+      </c>
+      <c r="AB9">
+        <v>18</v>
+      </c>
+      <c r="AC9">
+        <v>18</v>
+      </c>
+      <c r="AD9">
+        <v>438</v>
+      </c>
+      <c r="AE9">
+        <v>5.753593577295262</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0.1331091424314158</v>
+      </c>
+      <c r="AI9">
+        <v>0.1331091424314158</v>
+      </c>
+      <c r="AJ9">
+        <v>0.1255114238178124</v>
+      </c>
+      <c r="AL9">
+        <v>98.52452515183704</v>
+      </c>
+      <c r="AM9">
+        <v>198.8286335549884</v>
+      </c>
+      <c r="AO9">
+        <v>61.60134453781513</v>
+      </c>
+      <c r="AP9">
+        <v>1827.032072873949</v>
+      </c>
+      <c r="AQ9">
+        <v>542.100151603498</v>
+      </c>
+      <c r="AR9">
+        <v>2369.132224477446</v>
+      </c>
+      <c r="AS9">
+        <v>944.9298545577608</v>
+      </c>
+      <c r="AT9">
+        <v>1491.050187214372</v>
+      </c>
+      <c r="AU9">
+        <v>41.90087215341887</v>
+      </c>
+      <c r="AV9">
+        <v>204.3920790565302</v>
+      </c>
+      <c r="AW9">
+        <v>5.563445501541764</v>
+      </c>
+      <c r="AX9">
+        <v>164.2075419197284</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>-16.17920982126445</v>
+      </c>
+      <c r="BB9">
+        <v>12.8769068619023</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:56">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
@@ -1383,11 +2193,11 @@
       <c r="K10" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>78</v>
+      <c r="L10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" t="s">
+        <v>66</v>
       </c>
       <c r="N10">
         <v>10</v>
@@ -1402,18 +2212,117 @@
         <v>0.6</v>
       </c>
       <c r="R10" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="V10">
+        <v>323.5723865595441</v>
+      </c>
+      <c r="W10">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X10">
+        <v>1330.0328642</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z10">
+        <v>323.5723865595441</v>
+      </c>
+      <c r="AA10">
+        <v>305.5723865595441</v>
+      </c>
+      <c r="AB10">
+        <v>18</v>
+      </c>
+      <c r="AC10">
+        <v>18</v>
+      </c>
+      <c r="AD10">
+        <v>438</v>
+      </c>
+      <c r="AE10">
+        <v>5.753593577295262</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0.1365784413450851</v>
+      </c>
+      <c r="AI10">
+        <v>0.1365784413450851</v>
+      </c>
+      <c r="AJ10">
+        <v>0.1289807227314817</v>
+      </c>
+      <c r="AL10">
+        <v>108.6235597207575</v>
+      </c>
+      <c r="AM10">
+        <v>196.9488268387866</v>
+      </c>
+      <c r="AO10">
+        <v>61.60134453781513</v>
+      </c>
+      <c r="AP10">
+        <v>1827.032072873949</v>
+      </c>
+      <c r="AQ10">
+        <v>542.1001516034987</v>
+      </c>
+      <c r="AR10">
+        <v>2369.132224477447</v>
+      </c>
+      <c r="AS10">
+        <v>944.9298545577608</v>
+      </c>
+      <c r="AT10">
+        <v>1492.582067913237</v>
+      </c>
+      <c r="AU10">
+        <v>42.6822232898523</v>
+      </c>
+      <c r="AV10">
+        <v>202.5799944505576</v>
+      </c>
+      <c r="AW10">
+        <v>5.631167611771006</v>
+      </c>
+      <c r="AX10">
+        <v>181.0392662012625</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>-16.17920982126445</v>
+      </c>
+      <c r="BB10">
+        <v>12.8769068619023</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:56">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
@@ -1442,11 +2351,11 @@
       <c r="K11" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>77</v>
+      <c r="L11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -1461,18 +2370,117 @@
         <v>0.6</v>
       </c>
       <c r="R11" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="V11">
+        <v>331.1540776591472</v>
+      </c>
+      <c r="W11">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X11">
+        <v>1591.3940097</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z11">
+        <v>331.1540776591472</v>
+      </c>
+      <c r="AA11">
+        <v>313.1540776591472</v>
+      </c>
+      <c r="AB11">
+        <v>18</v>
+      </c>
+      <c r="AC11">
+        <v>18</v>
+      </c>
+      <c r="AD11">
+        <v>438</v>
+      </c>
+      <c r="AE11">
+        <v>5.527563236057068</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0.1276051691570453</v>
+      </c>
+      <c r="AI11">
+        <v>0.1276051691570453</v>
+      </c>
+      <c r="AJ11">
+        <v>0.1206691439054071</v>
+      </c>
+      <c r="AL11">
+        <v>108.7013935981012</v>
+      </c>
+      <c r="AM11">
+        <v>204.4526840610459</v>
+      </c>
+      <c r="AO11">
+        <v>79.39423410906565</v>
+      </c>
+      <c r="AP11">
+        <v>1901.742151302541</v>
+      </c>
+      <c r="AQ11">
+        <v>693.4041099871692</v>
+      </c>
+      <c r="AR11">
+        <v>2595.14626128971</v>
+      </c>
+      <c r="AS11">
+        <v>1094.388561628032</v>
+      </c>
+      <c r="AT11">
+        <v>1541.487274111396</v>
+      </c>
+      <c r="AU11">
+        <v>14.86485029346197</v>
+      </c>
+      <c r="AV11">
+        <v>206.6771380498297</v>
+      </c>
+      <c r="AW11">
+        <v>2.224453988783759</v>
+      </c>
+      <c r="AX11">
+        <v>181.1689893301687</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>-10.78135236821107</v>
+      </c>
+      <c r="BB11">
+        <v>12.28158933016869</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:56">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
@@ -1501,11 +2509,11 @@
       <c r="K12" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>77</v>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" t="s">
+        <v>67</v>
       </c>
       <c r="N12">
         <v>10</v>
@@ -1520,18 +2528,117 @@
         <v>0.6</v>
       </c>
       <c r="R12" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="V12">
+        <v>321.1768339487314</v>
+      </c>
+      <c r="W12">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X12">
+        <v>1594.6288246</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z12">
+        <v>321.1768339487314</v>
+      </c>
+      <c r="AA12">
+        <v>303.1768339487314</v>
+      </c>
+      <c r="AB12">
+        <v>18</v>
+      </c>
+      <c r="AC12">
+        <v>18</v>
+      </c>
+      <c r="AD12">
+        <v>438</v>
+      </c>
+      <c r="AE12">
+        <v>5.527563236057068</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0.123760590583868</v>
+      </c>
+      <c r="AI12">
+        <v>0.123760590583868</v>
+      </c>
+      <c r="AJ12">
+        <v>0.1168245653322297</v>
+      </c>
+      <c r="AL12">
+        <v>93.97376790025007</v>
+      </c>
+      <c r="AM12">
+        <v>209.2030660484813</v>
+      </c>
+      <c r="AO12">
+        <v>79.39423410906565</v>
+      </c>
+      <c r="AP12">
+        <v>1901.742151302541</v>
+      </c>
+      <c r="AQ12">
+        <v>693.4041099871688</v>
+      </c>
+      <c r="AR12">
+        <v>2595.146261289709</v>
+      </c>
+      <c r="AS12">
+        <v>1094.388561628032</v>
+      </c>
+      <c r="AT12">
+        <v>1540.015144782063</v>
+      </c>
+      <c r="AU12">
+        <v>14.57497309075062</v>
+      </c>
+      <c r="AV12">
+        <v>211.403602767715</v>
+      </c>
+      <c r="AW12">
+        <v>2.200536719233627</v>
+      </c>
+      <c r="AX12">
+        <v>156.6229465004168</v>
+      </c>
+      <c r="AY12">
+        <v>7.105427357601002E-15</v>
+      </c>
+      <c r="AZ12">
+        <v>4.017092456293666E-17</v>
+      </c>
+      <c r="BA12">
+        <v>-10.78135236821107</v>
+      </c>
+      <c r="BB12">
+        <v>12.28158933016869</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="13" spans="1:56">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>57</v>
@@ -1560,11 +2667,11 @@
       <c r="K13" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>77</v>
+      <c r="L13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
       </c>
       <c r="N13">
         <v>10</v>
@@ -1579,18 +2686,117 @@
         <v>0.6</v>
       </c>
       <c r="R13" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="V13">
+        <v>331.1741813942341</v>
+      </c>
+      <c r="W13">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X13">
+        <v>1584.2451851</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z13">
+        <v>331.1741813942341</v>
+      </c>
+      <c r="AA13">
+        <v>313.1741813942341</v>
+      </c>
+      <c r="AB13">
+        <v>18</v>
+      </c>
+      <c r="AC13">
+        <v>18</v>
+      </c>
+      <c r="AD13">
+        <v>438</v>
+      </c>
+      <c r="AE13">
+        <v>5.527563236057068</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0.1276129158245017</v>
+      </c>
+      <c r="AI13">
+        <v>0.1276129158245017</v>
+      </c>
+      <c r="AJ13">
+        <v>0.1206768905728635</v>
+      </c>
+      <c r="AL13">
+        <v>108.7013935981012</v>
+      </c>
+      <c r="AM13">
+        <v>204.4727877961329</v>
+      </c>
+      <c r="AO13">
+        <v>79.39423410906565</v>
+      </c>
+      <c r="AP13">
+        <v>1901.742151302541</v>
+      </c>
+      <c r="AQ13">
+        <v>693.404109987169</v>
+      </c>
+      <c r="AR13">
+        <v>2595.146261289709</v>
+      </c>
+      <c r="AS13">
+        <v>1094.388561628032</v>
+      </c>
+      <c r="AT13">
+        <v>1541.462857097989</v>
+      </c>
+      <c r="AU13">
+        <v>14.84169061580886</v>
+      </c>
+      <c r="AV13">
+        <v>206.6951118256528</v>
+      </c>
+      <c r="AW13">
+        <v>2.222324029519883</v>
+      </c>
+      <c r="AX13">
+        <v>181.1689893301687</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>-10.78135236821107</v>
+      </c>
+      <c r="BB13">
+        <v>12.28158933016869</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="14" spans="1:56">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
@@ -1619,11 +2825,11 @@
       <c r="K14" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>76</v>
+      <c r="L14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" t="s">
+        <v>68</v>
       </c>
       <c r="N14">
         <v>10</v>
@@ -1638,18 +2844,117 @@
         <v>0.6</v>
       </c>
       <c r="R14" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="V14">
+        <v>336.7325326111762</v>
+      </c>
+      <c r="W14">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X14">
+        <v>1575.4547864</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z14">
+        <v>336.7325326111762</v>
+      </c>
+      <c r="AA14">
+        <v>318.7325326111762</v>
+      </c>
+      <c r="AB14">
+        <v>18</v>
+      </c>
+      <c r="AC14">
+        <v>18</v>
+      </c>
+      <c r="AD14">
+        <v>438</v>
+      </c>
+      <c r="AE14">
+        <v>5.644521878133022</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0.1313963137226216</v>
+      </c>
+      <c r="AI14">
+        <v>0.1313963137226216</v>
+      </c>
+      <c r="AJ14">
+        <v>0.1243725384174354</v>
+      </c>
+      <c r="AL14">
+        <v>106.4060359165518</v>
+      </c>
+      <c r="AM14">
+        <v>212.3264966946244</v>
+      </c>
+      <c r="AO14">
+        <v>80.73680672268908</v>
+      </c>
+      <c r="AP14">
+        <v>1862.336656134451</v>
+      </c>
+      <c r="AQ14">
+        <v>700.3876933630595</v>
+      </c>
+      <c r="AR14">
+        <v>2562.72434949751</v>
+      </c>
+      <c r="AS14">
+        <v>998.2962822620709</v>
+      </c>
+      <c r="AT14">
+        <v>1618.666214925613</v>
+      </c>
+      <c r="AU14">
+        <v>28.46657679875941</v>
+      </c>
+      <c r="AV14">
+        <v>216.4629860111036</v>
+      </c>
+      <c r="AW14">
+        <v>4.136489316479166</v>
+      </c>
+      <c r="AX14">
+        <v>177.343393194253</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>-14.6629732887026</v>
+      </c>
+      <c r="BB14">
+        <v>9.90196787897365</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:56">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>57</v>
@@ -1678,11 +2983,11 @@
       <c r="K15" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>76</v>
+      <c r="L15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" t="s">
+        <v>68</v>
       </c>
       <c r="N15">
         <v>10</v>
@@ -1697,18 +3002,117 @@
         <v>0.6</v>
       </c>
       <c r="R15" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="V15">
+        <v>328.6933146572553</v>
+      </c>
+      <c r="W15">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X15">
+        <v>1581.8030673</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z15">
+        <v>328.6933146572553</v>
+      </c>
+      <c r="AA15">
+        <v>310.6933146572553</v>
+      </c>
+      <c r="AB15">
+        <v>18</v>
+      </c>
+      <c r="AC15">
+        <v>18</v>
+      </c>
+      <c r="AD15">
+        <v>438</v>
+      </c>
+      <c r="AE15">
+        <v>5.644521878133022</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0.1282593325816349</v>
+      </c>
+      <c r="AI15">
+        <v>0.1282593325816349</v>
+      </c>
+      <c r="AJ15">
+        <v>0.1212355572764487</v>
+      </c>
+      <c r="AL15">
+        <v>94.58618752844977</v>
+      </c>
+      <c r="AM15">
+        <v>216.1071271288055</v>
+      </c>
+      <c r="AO15">
+        <v>80.73680672268908</v>
+      </c>
+      <c r="AP15">
+        <v>1862.336656134451</v>
+      </c>
+      <c r="AQ15">
+        <v>700.3876933630606</v>
+      </c>
+      <c r="AR15">
+        <v>2562.724349497511</v>
+      </c>
+      <c r="AS15">
+        <v>998.2962822620709</v>
+      </c>
+      <c r="AT15">
+        <v>1617.392679993928</v>
+      </c>
+      <c r="AU15">
+        <v>28.29868389071159</v>
+      </c>
+      <c r="AV15">
+        <v>220.2276622114273</v>
+      </c>
+      <c r="AW15">
+        <v>4.120535082621827</v>
+      </c>
+      <c r="AX15">
+        <v>157.6436458807496</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>-14.6629732887026</v>
+      </c>
+      <c r="BB15">
+        <v>9.90196787897365</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="16" spans="1:56">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>57</v>
@@ -1737,11 +3141,11 @@
       <c r="K16" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>76</v>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" t="s">
+        <v>68</v>
       </c>
       <c r="N16">
         <v>10</v>
@@ -1756,18 +3160,117 @@
         <v>0.6</v>
       </c>
       <c r="R16" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="V16">
+        <v>336.7556753716689</v>
+      </c>
+      <c r="W16">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X16">
+        <v>1579.4276043</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z16">
+        <v>336.7556753716689</v>
+      </c>
+      <c r="AA16">
+        <v>318.7556753716689</v>
+      </c>
+      <c r="AB16">
+        <v>18</v>
+      </c>
+      <c r="AC16">
+        <v>18</v>
+      </c>
+      <c r="AD16">
+        <v>438</v>
+      </c>
+      <c r="AE16">
+        <v>5.644521878133022</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0.1314053442531573</v>
+      </c>
+      <c r="AI16">
+        <v>0.1314053442531573</v>
+      </c>
+      <c r="AJ16">
+        <v>0.1243815689479711</v>
+      </c>
+      <c r="AL16">
+        <v>106.4060359165518</v>
+      </c>
+      <c r="AM16">
+        <v>212.349639455117</v>
+      </c>
+      <c r="AO16">
+        <v>80.73680672268908</v>
+      </c>
+      <c r="AP16">
+        <v>1862.336656134451</v>
+      </c>
+      <c r="AQ16">
+        <v>700.3876933630587</v>
+      </c>
+      <c r="AR16">
+        <v>2562.724349497509</v>
+      </c>
+      <c r="AS16">
+        <v>998.2962822620709</v>
+      </c>
+      <c r="AT16">
+        <v>1618.787222142834</v>
+      </c>
+      <c r="AU16">
+        <v>28.60521592611861</v>
+      </c>
+      <c r="AV16">
+        <v>216.4964892214551</v>
+      </c>
+      <c r="AW16">
+        <v>4.146849766338057</v>
+      </c>
+      <c r="AX16">
+        <v>177.343393194253</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>-14.6629732887026</v>
+      </c>
+      <c r="BB16">
+        <v>9.90196787897365</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:56">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>57</v>
@@ -1796,11 +3299,11 @@
       <c r="K17" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>75</v>
+      <c r="L17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" t="s">
+        <v>69</v>
       </c>
       <c r="N17">
         <v>10</v>
@@ -1815,18 +3318,117 @@
         <v>0.6</v>
       </c>
       <c r="R17" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="V17">
+        <v>309.6004581652323</v>
+      </c>
+      <c r="W17">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X17">
+        <v>1246.0415368</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z17">
+        <v>309.6004581652323</v>
+      </c>
+      <c r="AA17">
+        <v>291.6004581652323</v>
+      </c>
+      <c r="AB17">
+        <v>18</v>
+      </c>
+      <c r="AC17">
+        <v>18</v>
+      </c>
+      <c r="AD17">
+        <v>438</v>
+      </c>
+      <c r="AE17">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0.1392422111884384</v>
+      </c>
+      <c r="AI17">
+        <v>0.1392422111884384</v>
+      </c>
+      <c r="AJ17">
+        <v>0.1311467457739323</v>
+      </c>
+      <c r="AL17">
+        <v>106.0479950548862</v>
+      </c>
+      <c r="AM17">
+        <v>185.5524631103461</v>
+      </c>
+      <c r="AO17">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AP17">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AQ17">
+        <v>545.3034230990067</v>
+      </c>
+      <c r="AR17">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AS17">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AT17">
+        <v>1461.527412501032</v>
+      </c>
+      <c r="AU17">
+        <v>53.00890427760935</v>
+      </c>
+      <c r="AV17">
+        <v>193.528972888767</v>
+      </c>
+      <c r="AW17">
+        <v>7.97650977842086</v>
+      </c>
+      <c r="AX17">
+        <v>176.7466584248103</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>-12.67179709055496</v>
+      </c>
+      <c r="BB17">
+        <v>9.873801456341027</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="18" spans="1:56">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
@@ -1855,11 +3457,11 @@
       <c r="K18" t="s">
         <v>62</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>75</v>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" t="s">
+        <v>69</v>
       </c>
       <c r="N18">
         <v>10</v>
@@ -1874,18 +3476,117 @@
         <v>0.6</v>
       </c>
       <c r="R18" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="V18">
+        <v>301.3201662396982</v>
+      </c>
+      <c r="W18">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X18">
+        <v>1251.5084781</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z18">
+        <v>301.3201662396982</v>
+      </c>
+      <c r="AA18">
+        <v>283.3201662396982</v>
+      </c>
+      <c r="AB18">
+        <v>18</v>
+      </c>
+      <c r="AC18">
+        <v>18</v>
+      </c>
+      <c r="AD18">
+        <v>438</v>
+      </c>
+      <c r="AE18">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0.1355181658048175</v>
+      </c>
+      <c r="AI18">
+        <v>0.1355181658048175</v>
+      </c>
+      <c r="AJ18">
+        <v>0.1274227003903113</v>
+      </c>
+      <c r="AL18">
+        <v>96.01918468037844</v>
+      </c>
+      <c r="AM18">
+        <v>187.3009815593198</v>
+      </c>
+      <c r="AO18">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AP18">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AQ18">
+        <v>545.3034230990072</v>
+      </c>
+      <c r="AR18">
+        <v>2223.466975443574</v>
+      </c>
+      <c r="AS18">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AT18">
+        <v>1459.535914816049</v>
+      </c>
+      <c r="AU18">
+        <v>51.86301790226877</v>
+      </c>
+      <c r="AV18">
+        <v>195.1718907743118</v>
+      </c>
+      <c r="AW18">
+        <v>7.870909214992063</v>
+      </c>
+      <c r="AX18">
+        <v>160.0319744672974</v>
+      </c>
+      <c r="AY18">
+        <v>8.881784197001252E-16</v>
+      </c>
+      <c r="AZ18">
+        <v>5.021365570367083E-18</v>
+      </c>
+      <c r="BA18">
+        <v>-12.67179709055496</v>
+      </c>
+      <c r="BB18">
+        <v>9.873801456341027</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+    <row r="19" spans="1:56">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>57</v>
@@ -1914,11 +3615,11 @@
       <c r="K19" t="s">
         <v>62</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>75</v>
+      <c r="L19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" t="s">
+        <v>69</v>
       </c>
       <c r="N19">
         <v>10</v>
@@ -1933,18 +3634,117 @@
         <v>0.6</v>
       </c>
       <c r="R19" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="V19">
+        <v>309.6168070412068</v>
+      </c>
+      <c r="W19">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X19">
+        <v>1242.084621399999</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z19">
+        <v>309.6168070412068</v>
+      </c>
+      <c r="AA19">
+        <v>291.6168070412068</v>
+      </c>
+      <c r="AB19">
+        <v>18</v>
+      </c>
+      <c r="AC19">
+        <v>18</v>
+      </c>
+      <c r="AD19">
+        <v>438</v>
+      </c>
+      <c r="AE19">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0.1392495640639949</v>
+      </c>
+      <c r="AI19">
+        <v>0.1392495640639949</v>
+      </c>
+      <c r="AJ19">
+        <v>0.1311540986494887</v>
+      </c>
+      <c r="AL19">
+        <v>106.0479950548862</v>
+      </c>
+      <c r="AM19">
+        <v>185.5688119863207</v>
+      </c>
+      <c r="AO19">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AP19">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AQ19">
+        <v>545.3034230990072</v>
+      </c>
+      <c r="AR19">
+        <v>2223.466975443574</v>
+      </c>
+      <c r="AS19">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AT19">
+        <v>1461.203479451276</v>
+      </c>
+      <c r="AU19">
+        <v>52.69095608971679</v>
+      </c>
+      <c r="AV19">
+        <v>193.4691873176189</v>
+      </c>
+      <c r="AW19">
+        <v>7.900375331298196</v>
+      </c>
+      <c r="AX19">
+        <v>176.7466584248103</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>-12.67179709055496</v>
+      </c>
+      <c r="BB19">
+        <v>9.873801456341027</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="1:56">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
@@ -1973,11 +3773,11 @@
       <c r="K20" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>74</v>
+      <c r="L20" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" t="s">
+        <v>70</v>
       </c>
       <c r="N20">
         <v>10</v>
@@ -1992,18 +3792,117 @@
         <v>0.6</v>
       </c>
       <c r="R20" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="V20">
+        <v>252.8398938939988</v>
+      </c>
+      <c r="W20">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X20">
+        <v>1233.145221199999</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z20">
+        <v>252.8398938939988</v>
+      </c>
+      <c r="AA20">
+        <v>234.8398938939988</v>
+      </c>
+      <c r="AB20">
+        <v>18</v>
+      </c>
+      <c r="AC20">
+        <v>18</v>
+      </c>
+      <c r="AD20">
+        <v>438</v>
+      </c>
+      <c r="AE20">
+        <v>6.617335512531104</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0.1177560180691288</v>
+      </c>
+      <c r="AI20">
+        <v>0.1177560180691288</v>
+      </c>
+      <c r="AJ20">
+        <v>0.1093728144037573</v>
+      </c>
+      <c r="AL20">
+        <v>105.8134854485876</v>
+      </c>
+      <c r="AM20">
+        <v>129.0264084454112</v>
+      </c>
+      <c r="AO20">
+        <v>58.69714285714286</v>
+      </c>
+      <c r="AP20">
+        <v>1588.554786151262</v>
+      </c>
+      <c r="AQ20">
+        <v>558.5957208026064</v>
+      </c>
+      <c r="AR20">
+        <v>2147.150506953868</v>
+      </c>
+      <c r="AS20">
+        <v>1167.710296098818</v>
+      </c>
+      <c r="AT20">
+        <v>1108.535388719132</v>
+      </c>
+      <c r="AU20">
+        <v>103.6846074582455</v>
+      </c>
+      <c r="AV20">
+        <v>144.7546272593362</v>
+      </c>
+      <c r="AW20">
+        <v>15.72821881392502</v>
+      </c>
+      <c r="AX20">
+        <v>176.3558090809794</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>-14.06128093638941</v>
+      </c>
+      <c r="BB20">
+        <v>10.83538828276266</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="21" spans="1:56">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>57</v>
@@ -2032,11 +3931,11 @@
       <c r="K21" t="s">
         <v>62</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>74</v>
+      <c r="L21" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" t="s">
+        <v>70</v>
       </c>
       <c r="N21">
         <v>10</v>
@@ -2051,18 +3950,117 @@
         <v>0.6</v>
       </c>
       <c r="R21" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="V21">
+        <v>219.9340797337188</v>
+      </c>
+      <c r="W21">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X21">
+        <v>1228.5403422</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z21">
+        <v>219.9340797337188</v>
+      </c>
+      <c r="AA21">
+        <v>201.9340797337188</v>
+      </c>
+      <c r="AB21">
+        <v>18</v>
+      </c>
+      <c r="AC21">
+        <v>18</v>
+      </c>
+      <c r="AD21">
+        <v>438</v>
+      </c>
+      <c r="AE21">
+        <v>6.617335512531104</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0.102420158692264</v>
+      </c>
+      <c r="AI21">
+        <v>0.102420158692264</v>
+      </c>
+      <c r="AJ21">
+        <v>0.09403781586166307</v>
+      </c>
+      <c r="AL21">
+        <v>69.15545727104163</v>
+      </c>
+      <c r="AM21">
+        <v>132.9733893624076</v>
+      </c>
+      <c r="AO21">
+        <v>58.69714285714286</v>
+      </c>
+      <c r="AP21">
+        <v>1588.554786151262</v>
+      </c>
+      <c r="AQ21">
+        <v>558.8162250042872</v>
+      </c>
+      <c r="AR21">
+        <v>2147.371011155549</v>
+      </c>
+      <c r="AS21">
+        <v>1167.710296098818</v>
+      </c>
+      <c r="AT21">
+        <v>1097.129154787617</v>
+      </c>
+      <c r="AU21">
+        <v>92.76525604411968</v>
+      </c>
+      <c r="AV21">
+        <v>146.9148218187926</v>
+      </c>
+      <c r="AW21">
+        <v>13.94143245638499</v>
+      </c>
+      <c r="AX21">
+        <v>115.259095451736</v>
+      </c>
+      <c r="AY21">
+        <v>35.59912606277937</v>
+      </c>
+      <c r="AZ21">
+        <v>0.1947668997304423</v>
+      </c>
+      <c r="BA21">
+        <v>-14.06128093638941</v>
+      </c>
+      <c r="BB21">
+        <v>10.83538828276266</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="22" spans="1:56">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
@@ -2091,11 +4089,11 @@
       <c r="K22" t="s">
         <v>62</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>74</v>
+      <c r="L22" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" t="s">
+        <v>70</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -2110,18 +4108,117 @@
         <v>0.6</v>
       </c>
       <c r="R22" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="V22">
+        <v>252.829854737865</v>
+      </c>
+      <c r="W22">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X22">
+        <v>1232.2678752</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z22">
+        <v>252.829854737865</v>
+      </c>
+      <c r="AA22">
+        <v>234.829854737865</v>
+      </c>
+      <c r="AB22">
+        <v>18</v>
+      </c>
+      <c r="AC22">
+        <v>18</v>
+      </c>
+      <c r="AD22">
+        <v>438</v>
+      </c>
+      <c r="AE22">
+        <v>6.617335512531104</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0.1177513424974344</v>
+      </c>
+      <c r="AI22">
+        <v>0.1177513424974344</v>
+      </c>
+      <c r="AJ22">
+        <v>0.1093681388320629</v>
+      </c>
+      <c r="AL22">
+        <v>105.8134854485876</v>
+      </c>
+      <c r="AM22">
+        <v>129.0163692892774</v>
+      </c>
+      <c r="AO22">
+        <v>58.69714285714286</v>
+      </c>
+      <c r="AP22">
+        <v>1588.554786151262</v>
+      </c>
+      <c r="AQ22">
+        <v>558.5957208026069</v>
+      </c>
+      <c r="AR22">
+        <v>2147.150506953869</v>
+      </c>
+      <c r="AS22">
+        <v>1167.710296098818</v>
+      </c>
+      <c r="AT22">
+        <v>1108.481389353206</v>
+      </c>
+      <c r="AU22">
+        <v>103.6238912631243</v>
+      </c>
+      <c r="AV22">
+        <v>144.7389549494254</v>
+      </c>
+      <c r="AW22">
+        <v>15.722585660148</v>
+      </c>
+      <c r="AX22">
+        <v>176.3558090809794</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>-14.06128093638941</v>
+      </c>
+      <c r="BB22">
+        <v>10.83538828276266</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="23" spans="1:56">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
@@ -2150,11 +4247,11 @@
       <c r="K23" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>64</v>
+      <c r="L23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" t="s">
+        <v>71</v>
       </c>
       <c r="N23">
         <v>10</v>
@@ -2169,18 +4266,117 @@
         <v>0.6</v>
       </c>
       <c r="R23" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="V23">
+        <v>258.4026106226393</v>
+      </c>
+      <c r="W23">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X23">
+        <v>1150.969615</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z23">
+        <v>258.4026106226393</v>
+      </c>
+      <c r="AA23">
+        <v>240.4026106226393</v>
+      </c>
+      <c r="AB23">
+        <v>18</v>
+      </c>
+      <c r="AC23">
+        <v>18</v>
+      </c>
+      <c r="AD23">
+        <v>438</v>
+      </c>
+      <c r="AE23">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0.1204112896715266</v>
+      </c>
+      <c r="AI23">
+        <v>0.1204112896715266</v>
+      </c>
+      <c r="AJ23">
+        <v>0.1120235910764352</v>
+      </c>
+      <c r="AL23">
+        <v>104.352103293657</v>
+      </c>
+      <c r="AM23">
+        <v>136.0505073289823</v>
+      </c>
+      <c r="AO23">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AP23">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AQ23">
+        <v>530.2951205625102</v>
+      </c>
+      <c r="AR23">
+        <v>2145.999858713772</v>
+      </c>
+      <c r="AS23">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AT23">
+        <v>1141.125348064973</v>
+      </c>
+      <c r="AU23">
+        <v>79.81814842490468</v>
+      </c>
+      <c r="AV23">
+        <v>148.8025825356445</v>
+      </c>
+      <c r="AW23">
+        <v>12.75207520666219</v>
+      </c>
+      <c r="AX23">
+        <v>173.920172156095</v>
+      </c>
+      <c r="AY23">
+        <v>1.4210854715202E-14</v>
+      </c>
+      <c r="AZ23">
+        <v>7.774921526215518E-17</v>
+      </c>
+      <c r="BA23">
+        <v>-9.013058559235162</v>
+      </c>
+      <c r="BB23">
+        <v>11.60523589830271</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="24" spans="1:56">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>57</v>
@@ -2209,11 +4405,11 @@
       <c r="K24" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>64</v>
+      <c r="L24" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" t="s">
+        <v>71</v>
       </c>
       <c r="N24">
         <v>10</v>
@@ -2228,18 +4424,117 @@
         <v>0.6</v>
       </c>
       <c r="R24" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="V24">
+        <v>226.3805313679387</v>
+      </c>
+      <c r="W24">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X24">
+        <v>1149.667300100001</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z24">
+        <v>226.3805313679387</v>
+      </c>
+      <c r="AA24">
+        <v>208.3805313679387</v>
+      </c>
+      <c r="AB24">
+        <v>18</v>
+      </c>
+      <c r="AC24">
+        <v>18</v>
+      </c>
+      <c r="AD24">
+        <v>438</v>
+      </c>
+      <c r="AE24">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0.1054895369394954</v>
+      </c>
+      <c r="AI24">
+        <v>0.1054895369394954</v>
+      </c>
+      <c r="AJ24">
+        <v>0.09710183834440399</v>
+      </c>
+      <c r="AL24">
+        <v>67.9033589056144</v>
+      </c>
+      <c r="AM24">
+        <v>140.4771724623243</v>
+      </c>
+      <c r="AO24">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AP24">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AQ24">
+        <v>530.2951205625113</v>
+      </c>
+      <c r="AR24">
+        <v>2145.999858713774</v>
+      </c>
+      <c r="AS24">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AT24">
+        <v>1135.257442075306</v>
+      </c>
+      <c r="AU24">
+        <v>75.64269892849707</v>
+      </c>
+      <c r="AV24">
+        <v>152.613272875507</v>
+      </c>
+      <c r="AW24">
+        <v>12.13610041318272</v>
+      </c>
+      <c r="AX24">
+        <v>113.1722648426907</v>
+      </c>
+      <c r="AY24">
+        <v>1.4210854715202E-14</v>
+      </c>
+      <c r="AZ24">
+        <v>7.774921526215518E-17</v>
+      </c>
+      <c r="BA24">
+        <v>-9.013058559235162</v>
+      </c>
+      <c r="BB24">
+        <v>11.60523589830271</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="25" spans="1:56">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>57</v>
@@ -2268,11 +4563,11 @@
       <c r="K25" t="s">
         <v>62</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>64</v>
+      <c r="L25" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" t="s">
+        <v>71</v>
       </c>
       <c r="N25">
         <v>10</v>
@@ -2287,14 +4582,113 @@
         <v>0.6</v>
       </c>
       <c r="R25" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="V25">
+        <v>258.410783430172</v>
+      </c>
+      <c r="W25">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X25">
+        <v>1139.655518400001</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z25">
+        <v>258.410783430172</v>
+      </c>
+      <c r="AA25">
+        <v>240.4107834301721</v>
+      </c>
+      <c r="AB25">
+        <v>18</v>
+      </c>
+      <c r="AC25">
+        <v>18</v>
+      </c>
+      <c r="AD25">
+        <v>438</v>
+      </c>
+      <c r="AE25">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0.1204150980629855</v>
+      </c>
+      <c r="AI25">
+        <v>0.1204150980629855</v>
+      </c>
+      <c r="AJ25">
+        <v>0.112027399467894</v>
+      </c>
+      <c r="AL25">
+        <v>104.352103293657</v>
+      </c>
+      <c r="AM25">
+        <v>136.0586801365151</v>
+      </c>
+      <c r="AO25">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AP25">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AQ25">
+        <v>530.295120562511</v>
+      </c>
+      <c r="AR25">
+        <v>2145.999858713773</v>
+      </c>
+      <c r="AS25">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AT25">
+        <v>1141.090202355252</v>
+      </c>
+      <c r="AU25">
+        <v>79.78300271518238</v>
+      </c>
+      <c r="AV25">
+        <v>148.8092781058309</v>
+      </c>
+      <c r="AW25">
+        <v>12.75059796931574</v>
+      </c>
+      <c r="AX25">
+        <v>173.920172156095</v>
+      </c>
+      <c r="AY25">
+        <v>1.4210854715202E-14</v>
+      </c>
+      <c r="AZ25">
+        <v>7.774921526215518E-17</v>
+      </c>
+      <c r="BA25">
+        <v>-9.013058559235162</v>
+      </c>
+      <c r="BB25">
+        <v>11.60523589830271</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+    <row r="26" spans="1:56">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2327,11 +4721,11 @@
       <c r="K26" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>63</v>
+      <c r="L26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" t="s">
+        <v>72</v>
       </c>
       <c r="N26">
         <v>10</v>
@@ -2346,28 +4740,28 @@
         <v>0.6</v>
       </c>
       <c r="R26" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="V26">
-        <v>291.69123805234528</v>
+        <v>291.6912380523453</v>
       </c>
       <c r="W26">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X26">
-        <v>1671.7148752999999</v>
+        <v>1671.7148753</v>
       </c>
       <c r="Y26" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="Z26">
-        <v>291.69123805234528</v>
+        <v>291.6912380523453</v>
       </c>
       <c r="AA26">
-        <v>273.69123805234528</v>
+        <v>273.6912380523453</v>
       </c>
       <c r="AB26">
         <v>18</v>
@@ -2379,7 +4773,7 @@
         <v>438</v>
       </c>
       <c r="AE26">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2400,10 +4794,10 @@
         <v>106.2488981630981</v>
       </c>
       <c r="AM26">
-        <v>167.44233988924719</v>
+        <v>167.4423398892472</v>
       </c>
       <c r="AO26">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AP26">
         <v>1640.910548940604</v>
@@ -2415,7 +4809,7 @@
         <v>2235.677042408432</v>
       </c>
       <c r="AS26">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AT26">
         <v>1303.884247377488</v>
@@ -2424,7 +4818,7 @@
         <v>30.01430670550037</v>
       </c>
       <c r="AV26">
-        <v>172.15589338097629</v>
+        <v>172.1558933809763</v>
       </c>
       <c r="AW26">
         <v>4.713553491729062</v>
@@ -2433,10 +4827,10 @@
         <v>177.0814969384968</v>
       </c>
       <c r="AY26">
-        <v>7.1054273576010019E-15</v>
+        <v>7.105427357601002E-15</v>
       </c>
       <c r="AZ26">
-        <v>4.0170924562936658E-17</v>
+        <v>4.017092456293666E-17</v>
       </c>
       <c r="BA26">
         <v>-11.5999000202558</v>
@@ -2451,8 +4845,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+    <row r="27" spans="1:56">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2485,11 +4879,11 @@
       <c r="K27" t="s">
         <v>62</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>63</v>
+      <c r="L27" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" t="s">
+        <v>72</v>
       </c>
       <c r="N27">
         <v>10</v>
@@ -2504,28 +4898,28 @@
         <v>0.6</v>
       </c>
       <c r="R27" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="V27">
-        <v>282.88320752579648</v>
+        <v>282.8832075257965</v>
       </c>
       <c r="W27">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X27">
-        <v>1808.4235335999999</v>
+        <v>1808.4235336</v>
       </c>
       <c r="Y27" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="Z27">
-        <v>282.88320752579648</v>
+        <v>282.8832075257965</v>
       </c>
       <c r="AA27">
-        <v>264.88320752579648</v>
+        <v>264.8832075257965</v>
       </c>
       <c r="AB27">
         <v>18</v>
@@ -2537,7 +4931,7 @@
         <v>438</v>
       </c>
       <c r="AE27">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -2546,49 +4940,49 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0.12653133800625091</v>
+        <v>0.1265313380062509</v>
       </c>
       <c r="AI27">
-        <v>0.12653133800625091</v>
+        <v>0.1265313380062509</v>
       </c>
       <c r="AJ27">
-        <v>0.11848008567482771</v>
+        <v>0.1184800856748277</v>
       </c>
       <c r="AL27">
         <v>89.83841580950137</v>
       </c>
       <c r="AM27">
-        <v>175.04479171629509</v>
+        <v>175.0447917162951</v>
       </c>
       <c r="AO27">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AP27">
         <v>1640.910548940604</v>
       </c>
       <c r="AQ27">
-        <v>594.76649346782756</v>
+        <v>594.7664934678276</v>
       </c>
       <c r="AR27">
         <v>2235.677042408432</v>
       </c>
       <c r="AS27">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AT27">
         <v>1295.770922264446</v>
       </c>
       <c r="AU27">
-        <v>24.729678416527751</v>
+        <v>24.72967841652775</v>
       </c>
       <c r="AV27">
-        <v>178.94129479918709</v>
+        <v>178.9412947991871</v>
       </c>
       <c r="AW27">
-        <v>3.8965030828920311</v>
+        <v>3.896503082892031</v>
       </c>
       <c r="AX27">
-        <v>149.73069301583561</v>
+        <v>149.7306930158356</v>
       </c>
       <c r="AY27">
         <v>0</v>
@@ -2609,12 +5003,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+    <row r="28" spans="1:56">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
@@ -2643,11 +5037,11 @@
       <c r="K28" t="s">
         <v>62</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>63</v>
+      <c r="L28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" t="s">
+        <v>72</v>
       </c>
       <c r="N28">
         <v>10</v>
@@ -2662,14 +5056,113 @@
         <v>0.6</v>
       </c>
       <c r="R28" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="V28">
+        <v>291.7117582021184</v>
+      </c>
+      <c r="W28">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X28">
+        <v>1285.328403699999</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z28">
+        <v>291.7117582021184</v>
+      </c>
+      <c r="AA28">
+        <v>273.7117582021184</v>
+      </c>
+      <c r="AB28">
+        <v>18</v>
+      </c>
+      <c r="AC28">
+        <v>18</v>
+      </c>
+      <c r="AD28">
+        <v>438</v>
+      </c>
+      <c r="AE28">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0.1304802762960188</v>
+      </c>
+      <c r="AI28">
+        <v>0.1304802762960188</v>
+      </c>
+      <c r="AJ28">
+        <v>0.1224290239645957</v>
+      </c>
+      <c r="AL28">
+        <v>106.248898163098</v>
+      </c>
+      <c r="AM28">
+        <v>167.4628600390203</v>
+      </c>
+      <c r="AO28">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AP28">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AQ28">
+        <v>594.7664934678285</v>
+      </c>
+      <c r="AR28">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AS28">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AT28">
+        <v>1303.880840012598</v>
+      </c>
+      <c r="AU28">
+        <v>30.00263029589359</v>
+      </c>
+      <c r="AV28">
+        <v>172.1694802354543</v>
+      </c>
+      <c r="AW28">
+        <v>4.70662019643399</v>
+      </c>
+      <c r="AX28">
+        <v>177.0814969384967</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>-11.5999000202558</v>
+      </c>
+      <c r="BB28">
+        <v>15.29257621962125</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="29" spans="1:56">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2702,11 +5195,11 @@
       <c r="K29" t="s">
         <v>62</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>65</v>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" t="s">
+        <v>73</v>
       </c>
       <c r="N29">
         <v>10</v>
@@ -2721,22 +5214,22 @@
         <v>0.6</v>
       </c>
       <c r="R29" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="V29">
         <v>371.0707336608246</v>
       </c>
       <c r="W29">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X29">
-        <v>2147.8768851999998</v>
+        <v>2147.8768852</v>
       </c>
       <c r="Y29" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="Z29">
         <v>371.0707336608246</v>
@@ -2754,7 +5247,7 @@
         <v>438</v>
       </c>
       <c r="AE29">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -2763,10 +5256,10 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0.13777561359735149</v>
+        <v>0.1377756135973515</v>
       </c>
       <c r="AI29">
-        <v>0.13777561359735149</v>
+        <v>0.1377756135973515</v>
       </c>
       <c r="AJ29">
         <v>0.1310923566875809</v>
@@ -2778,22 +5271,22 @@
         <v>244.9328658166153</v>
       </c>
       <c r="AO29">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AP29">
         <v>1861.262727529411</v>
       </c>
       <c r="AQ29">
-        <v>832.03490310409882</v>
+        <v>832.0349031040988</v>
       </c>
       <c r="AR29">
         <v>2693.297630633509</v>
       </c>
       <c r="AS29">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AT29">
-        <v>1789.7749069109909</v>
+        <v>1789.774906910991</v>
       </c>
       <c r="AU29">
         <v>3.100465863283429</v>
@@ -2802,10 +5295,10 @@
         <v>245.3850399823672</v>
       </c>
       <c r="AW29">
-        <v>0.45217416575188002</v>
+        <v>0.45217416575188</v>
       </c>
       <c r="AX29">
-        <v>180.22977974034879</v>
+        <v>180.2297797403488</v>
       </c>
       <c r="AY29">
         <v>0</v>
@@ -2817,7 +5310,7 @@
         <v>-12.71181636181905</v>
       </c>
       <c r="BB29">
-        <v>11.866892987178799</v>
+        <v>11.8668929871788</v>
       </c>
       <c r="BC29">
         <v>0</v>
@@ -2826,8 +5319,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    <row r="30" spans="1:56">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2860,11 +5353,11 @@
       <c r="K30" t="s">
         <v>62</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>65</v>
+      <c r="L30" t="s">
+        <v>72</v>
+      </c>
+      <c r="M30" t="s">
+        <v>73</v>
       </c>
       <c r="N30">
         <v>10</v>
@@ -2879,28 +5372,28 @@
         <v>0.6</v>
       </c>
       <c r="R30" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="V30">
-        <v>357.07282025176681</v>
+        <v>357.0728202517668</v>
       </c>
       <c r="W30">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X30">
-        <v>2291.2894741999999</v>
+        <v>2291.2894742</v>
       </c>
       <c r="Y30" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="Z30">
-        <v>357.07282025176681</v>
+        <v>357.0728202517668</v>
       </c>
       <c r="AA30">
-        <v>339.07282025176681</v>
+        <v>339.0728202517668</v>
       </c>
       <c r="AB30">
         <v>18</v>
@@ -2912,7 +5405,7 @@
         <v>438</v>
       </c>
       <c r="AE30">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -2927,40 +5420,40 @@
         <v>0.1325782996243817</v>
       </c>
       <c r="AJ30">
-        <v>0.12589504271461111</v>
+        <v>0.1258950427146111</v>
       </c>
       <c r="AL30">
-        <v>87.274835024312338</v>
+        <v>87.27483502431234</v>
       </c>
       <c r="AM30">
-        <v>252.10347774942201</v>
+        <v>252.103477749422</v>
       </c>
       <c r="AO30">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AP30">
         <v>1861.262727529411</v>
       </c>
       <c r="AQ30">
-        <v>832.03490310410018</v>
+        <v>832.0349031041002</v>
       </c>
       <c r="AR30">
-        <v>2693.2976306335108</v>
+        <v>2693.297630633511</v>
       </c>
       <c r="AS30">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AT30">
-        <v>1789.4937509639831</v>
+        <v>1789.493750963983</v>
       </c>
       <c r="AU30">
-        <v>2.5054146430254161</v>
+        <v>2.505414643025416</v>
       </c>
       <c r="AV30">
-        <v>252.46283559201481</v>
+        <v>252.4628355920148</v>
       </c>
       <c r="AW30">
-        <v>0.35935784259283349</v>
+        <v>0.3593578425928335</v>
       </c>
       <c r="AX30">
         <v>145.4580583738539</v>
@@ -2969,13 +5462,13 @@
         <v>55.83734615998992</v>
       </c>
       <c r="AZ30">
-        <v>0.30549252196748111</v>
+        <v>0.3054925219674811</v>
       </c>
       <c r="BA30">
         <v>-12.71181636181905</v>
       </c>
       <c r="BB30">
-        <v>11.866892987178799</v>
+        <v>11.8668929871788</v>
       </c>
       <c r="BC30">
         <v>0</v>
@@ -2984,12 +5477,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+    <row r="31" spans="1:56">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>56</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
@@ -3018,11 +5511,11 @@
       <c r="K31" t="s">
         <v>62</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>65</v>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+      <c r="M31" t="s">
+        <v>73</v>
       </c>
       <c r="N31">
         <v>10</v>
@@ -3037,18 +5530,117 @@
         <v>0.6</v>
       </c>
       <c r="R31" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="V31">
+        <v>371.0884886405262</v>
+      </c>
+      <c r="W31">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X31">
+        <v>1749.0054482</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z31">
+        <v>371.0884886405262</v>
+      </c>
+      <c r="AA31">
+        <v>353.0884886405262</v>
+      </c>
+      <c r="AB31">
+        <v>18</v>
+      </c>
+      <c r="AC31">
+        <v>18</v>
+      </c>
+      <c r="AD31">
+        <v>438</v>
+      </c>
+      <c r="AE31">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0.1377822058801722</v>
+      </c>
+      <c r="AI31">
+        <v>0.1377822058801722</v>
+      </c>
+      <c r="AJ31">
+        <v>0.1310989489704016</v>
+      </c>
+      <c r="AL31">
+        <v>108.1378678442093</v>
+      </c>
+      <c r="AM31">
+        <v>244.9506207963169</v>
+      </c>
+      <c r="AO31">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AP31">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AQ31">
+        <v>832.0349031040994</v>
+      </c>
+      <c r="AR31">
+        <v>2693.29763063351</v>
+      </c>
+      <c r="AS31">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AT31">
+        <v>1789.717774479305</v>
+      </c>
+      <c r="AU31">
+        <v>3.043577363570798</v>
+      </c>
+      <c r="AV31">
+        <v>245.397137215943</v>
+      </c>
+      <c r="AW31">
+        <v>0.4465164196260386</v>
+      </c>
+      <c r="AX31">
+        <v>180.2297797403488</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>-12.71181636181905</v>
+      </c>
+      <c r="BB31">
+        <v>11.8668929871788</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+    <row r="32" spans="1:56">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
@@ -3077,11 +5669,11 @@
       <c r="K32" t="s">
         <v>62</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>82</v>
+      <c r="L32" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" t="s">
+        <v>74</v>
       </c>
       <c r="N32">
         <v>10</v>
@@ -3096,18 +5688,117 @@
         <v>0.6</v>
       </c>
       <c r="R32" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="V32">
+        <v>407.1922477075026</v>
+      </c>
+      <c r="W32">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X32">
+        <v>1484.2914929</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z32">
+        <v>407.1922477075026</v>
+      </c>
+      <c r="AA32">
+        <v>389.1922477075026</v>
+      </c>
+      <c r="AB32">
+        <v>18</v>
+      </c>
+      <c r="AC32">
+        <v>18</v>
+      </c>
+      <c r="AD32">
+        <v>438</v>
+      </c>
+      <c r="AE32">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0.1618649594744506</v>
+      </c>
+      <c r="AI32">
+        <v>0.1618649594744506</v>
+      </c>
+      <c r="AJ32">
+        <v>0.1547096924305824</v>
+      </c>
+      <c r="AL32">
+        <v>122.26998</v>
+      </c>
+      <c r="AM32">
+        <v>266.9222677075026</v>
+      </c>
+      <c r="AO32">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AP32">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AQ32">
+        <v>754.4330897207806</v>
+      </c>
+      <c r="AR32">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AS32">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AT32">
+        <v>1926.367484176971</v>
+      </c>
+      <c r="AU32">
+        <v>11.82770902834942</v>
+      </c>
+      <c r="AV32">
+        <v>268.5565339093008</v>
+      </c>
+      <c r="AW32">
+        <v>1.634266201798189</v>
+      </c>
+      <c r="AX32">
+        <v>203.7833</v>
+      </c>
+      <c r="AY32">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AZ32">
+        <v>2.008546228146833E-17</v>
+      </c>
+      <c r="BA32">
+        <v>-61.13808536617337</v>
+      </c>
+      <c r="BB32">
+        <v>52.16011448297026</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    <row r="33" spans="1:56">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
@@ -3136,11 +5827,11 @@
       <c r="K33" t="s">
         <v>62</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>82</v>
+      <c r="L33" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33" t="s">
+        <v>74</v>
       </c>
       <c r="N33">
         <v>10</v>
@@ -3155,18 +5846,117 @@
         <v>0.6</v>
       </c>
       <c r="R33" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="V33">
+        <v>395.9272443063484</v>
+      </c>
+      <c r="W33">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X33">
+        <v>1470.9388826</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z33">
+        <v>395.9272443063484</v>
+      </c>
+      <c r="AA33">
+        <v>377.9272443063484</v>
+      </c>
+      <c r="AB33">
+        <v>18</v>
+      </c>
+      <c r="AC33">
+        <v>18</v>
+      </c>
+      <c r="AD33">
+        <v>438</v>
+      </c>
+      <c r="AE33">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0.1573869534974872</v>
+      </c>
+      <c r="AI33">
+        <v>0.1573869534974872</v>
+      </c>
+      <c r="AJ33">
+        <v>0.150231686453619</v>
+      </c>
+      <c r="AL33">
+        <v>109.3652981661021</v>
+      </c>
+      <c r="AM33">
+        <v>268.5619461402462</v>
+      </c>
+      <c r="AO33">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AP33">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AQ33">
+        <v>754.4330897207797</v>
+      </c>
+      <c r="AR33">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AS33">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AT33">
+        <v>1925.862262224345</v>
+      </c>
+      <c r="AU33">
+        <v>11.83870845181618</v>
+      </c>
+      <c r="AV33">
+        <v>270.1988318849845</v>
+      </c>
+      <c r="AW33">
+        <v>1.636885744738337</v>
+      </c>
+      <c r="AX33">
+        <v>182.2754969435036</v>
+      </c>
+      <c r="AY33">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AZ33">
+        <v>2.008546228146833E-17</v>
+      </c>
+      <c r="BA33">
+        <v>-61.13808536617337</v>
+      </c>
+      <c r="BB33">
+        <v>52.16011448297026</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="34" spans="1:56">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>56</v>
       </c>
       <c r="C34" t="s">
         <v>57</v>
@@ -3195,11 +5985,11 @@
       <c r="K34" t="s">
         <v>62</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>82</v>
+      <c r="L34" t="s">
+        <v>73</v>
+      </c>
+      <c r="M34" t="s">
+        <v>74</v>
       </c>
       <c r="N34">
         <v>10</v>
@@ -3214,18 +6004,117 @@
         <v>0.6</v>
       </c>
       <c r="R34" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="V34">
+        <v>407.2004744779421</v>
+      </c>
+      <c r="W34">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X34">
+        <v>1458.429696800001</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z34">
+        <v>407.2004744779421</v>
+      </c>
+      <c r="AA34">
+        <v>389.2004744779421</v>
+      </c>
+      <c r="AB34">
+        <v>18</v>
+      </c>
+      <c r="AC34">
+        <v>18</v>
+      </c>
+      <c r="AD34">
+        <v>438</v>
+      </c>
+      <c r="AE34">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0.1618682297377508</v>
+      </c>
+      <c r="AI34">
+        <v>0.1618682297377508</v>
+      </c>
+      <c r="AJ34">
+        <v>0.1547129626938825</v>
+      </c>
+      <c r="AL34">
+        <v>122.26998</v>
+      </c>
+      <c r="AM34">
+        <v>266.9304944779421</v>
+      </c>
+      <c r="AO34">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AP34">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AQ34">
+        <v>754.43308972078</v>
+      </c>
+      <c r="AR34">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AS34">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AT34">
+        <v>1926.452532257326</v>
+      </c>
+      <c r="AU34">
+        <v>11.91275710870359</v>
+      </c>
+      <c r="AV34">
+        <v>268.5760643200935</v>
+      </c>
+      <c r="AW34">
+        <v>1.645569842151344</v>
+      </c>
+      <c r="AX34">
+        <v>203.7833</v>
+      </c>
+      <c r="AY34">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AZ34">
+        <v>2.008546228146833E-17</v>
+      </c>
+      <c r="BA34">
+        <v>-61.13808536617337</v>
+      </c>
+      <c r="BB34">
+        <v>52.16011448297026</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>56</v>
       </c>
       <c r="C35" t="s">
         <v>57</v>
@@ -3254,11 +6143,11 @@
       <c r="K35" t="s">
         <v>62</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>83</v>
+      <c r="L35" t="s">
+        <v>74</v>
+      </c>
+      <c r="M35" t="s">
+        <v>75</v>
       </c>
       <c r="N35">
         <v>10</v>
@@ -3273,18 +6162,117 @@
         <v>0.6</v>
       </c>
       <c r="R35" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="V35">
+        <v>344.8006664567063</v>
+      </c>
+      <c r="W35">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X35">
+        <v>1170.1833546</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z35">
+        <v>344.8006664567063</v>
+      </c>
+      <c r="AA35">
+        <v>326.8006664567063</v>
+      </c>
+      <c r="AB35">
+        <v>18</v>
+      </c>
+      <c r="AC35">
+        <v>18</v>
+      </c>
+      <c r="AD35">
+        <v>438</v>
+      </c>
+      <c r="AE35">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0.1670764269726453</v>
+      </c>
+      <c r="AI35">
+        <v>0.1670764269726453</v>
+      </c>
+      <c r="AJ35">
+        <v>0.1583543565764002</v>
+      </c>
+      <c r="AL35">
+        <v>106.6033800307256</v>
+      </c>
+      <c r="AM35">
+        <v>220.1972864259807</v>
+      </c>
+      <c r="AO35">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AP35">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AQ35">
+        <v>549.6920444315273</v>
+      </c>
+      <c r="AR35">
+        <v>2063.73019045445</v>
+      </c>
+      <c r="AS35">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AT35">
+        <v>1648.930025132564</v>
+      </c>
+      <c r="AU35">
+        <v>34.94166193822475</v>
+      </c>
+      <c r="AV35">
+        <v>224.8416556577073</v>
+      </c>
+      <c r="AW35">
+        <v>4.644369231726664</v>
+      </c>
+      <c r="AX35">
+        <v>177.6723000512094</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>-16.59457687080194</v>
+      </c>
+      <c r="BB35">
+        <v>11.74345269436844</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    <row r="36" spans="1:56">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -3313,11 +6301,11 @@
       <c r="K36" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>83</v>
+      <c r="L36" t="s">
+        <v>74</v>
+      </c>
+      <c r="M36" t="s">
+        <v>75</v>
       </c>
       <c r="N36">
         <v>10</v>
@@ -3332,18 +6320,117 @@
         <v>0.6</v>
       </c>
       <c r="R36" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="V36">
+        <v>344.8350671069247</v>
+      </c>
+      <c r="W36">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X36">
+        <v>1153.9346424</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z36">
+        <v>344.8350671069247</v>
+      </c>
+      <c r="AA36">
+        <v>326.8350671069247</v>
+      </c>
+      <c r="AB36">
+        <v>18</v>
+      </c>
+      <c r="AC36">
+        <v>18</v>
+      </c>
+      <c r="AD36">
+        <v>438</v>
+      </c>
+      <c r="AE36">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0.167093096133361</v>
+      </c>
+      <c r="AI36">
+        <v>0.167093096133361</v>
+      </c>
+      <c r="AJ36">
+        <v>0.1583710257371159</v>
+      </c>
+      <c r="AL36">
+        <v>106.6033800307256</v>
+      </c>
+      <c r="AM36">
+        <v>220.231687076199</v>
+      </c>
+      <c r="AO36">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AP36">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AQ36">
+        <v>549.6920444315273</v>
+      </c>
+      <c r="AR36">
+        <v>2063.73019045445</v>
+      </c>
+      <c r="AS36">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AT36">
+        <v>1648.471044517936</v>
+      </c>
+      <c r="AU36">
+        <v>34.49225917563329</v>
+      </c>
+      <c r="AV36">
+        <v>224.7931740594113</v>
+      </c>
+      <c r="AW36">
+        <v>4.561486983212262</v>
+      </c>
+      <c r="AX36">
+        <v>177.6723000512094</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>-16.59457687080194</v>
+      </c>
+      <c r="BB36">
+        <v>11.74345269436844</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+    <row r="37" spans="1:56">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>56</v>
       </c>
       <c r="C37" t="s">
         <v>57</v>
@@ -3372,11 +6459,11 @@
       <c r="K37" t="s">
         <v>62</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>83</v>
+      <c r="L37" t="s">
+        <v>74</v>
+      </c>
+      <c r="M37" t="s">
+        <v>75</v>
       </c>
       <c r="N37">
         <v>10</v>
@@ -3391,17 +6478,112 @@
         <v>0.6</v>
       </c>
       <c r="R37" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="V37">
+        <v>344.7856503110191</v>
+      </c>
+      <c r="W37">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X37">
+        <v>1122.2175209</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z37">
+        <v>344.7856503110191</v>
+      </c>
+      <c r="AA37">
+        <v>326.7856503110191</v>
+      </c>
+      <c r="AB37">
+        <v>18</v>
+      </c>
+      <c r="AC37">
+        <v>18</v>
+      </c>
+      <c r="AD37">
+        <v>438</v>
+      </c>
+      <c r="AE37">
+        <v>6.943021896517559</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0.1670691507571029</v>
+      </c>
+      <c r="AI37">
+        <v>0.1670691507571029</v>
+      </c>
+      <c r="AJ37">
+        <v>0.1583470803608578</v>
+      </c>
+      <c r="AL37">
+        <v>106.6033800307256</v>
+      </c>
+      <c r="AM37">
+        <v>220.1822702802935</v>
+      </c>
+      <c r="AO37">
+        <v>58.68704411253908</v>
+      </c>
+      <c r="AP37">
+        <v>1514.038146022922</v>
+      </c>
+      <c r="AQ37">
+        <v>549.6920444315274</v>
+      </c>
+      <c r="AR37">
+        <v>2063.73019045445</v>
+      </c>
+      <c r="AS37">
+        <v>475.3545887162526</v>
+      </c>
+      <c r="AT37">
+        <v>1648.942828789293</v>
+      </c>
+      <c r="AU37">
+        <v>34.96028882029493</v>
+      </c>
+      <c r="AV37">
+        <v>224.8280596562575</v>
+      </c>
+      <c r="AW37">
+        <v>4.645789375964013</v>
+      </c>
+      <c r="AX37">
+        <v>177.6723000512094</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>-16.59457687080194</v>
+      </c>
+      <c r="BB37">
+        <v>11.74345269436844</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BD37">
-    <sortCondition ref="L1:L37"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/experiments/thesis_track_p_grid/6h-bat-Oct-track-p-grid.xlsx
+++ b/output/experiments/thesis_track_p_grid/6h-bat-Oct-track-p-grid.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Coding_project\Energy_grid_new\output\experiments\thesis_track_p_grid\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF07F758-7C48-4D5B-B114-D152A664C470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$U$1:$U$37</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="117">
   <si>
     <t>status</t>
   </si>
@@ -362,13 +371,16 @@
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+  </si>
+  <si>
+    <t>GT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,15 +439,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,7 +497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,9 +529,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -543,6 +581,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -718,14 +774,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="21" max="21" width="20.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -895,7 +956,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:56">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -957,7 +1018,7 @@
         <v>378.8848040257061</v>
       </c>
       <c r="W2">
-        <v>30.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X2">
         <v>1340.0773592</v>
@@ -990,46 +1051,46 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.1588977000719198</v>
+        <v>0.15889770007191981</v>
       </c>
       <c r="AI2">
-        <v>0.1588977000719198</v>
+        <v>0.15889770007191981</v>
       </c>
       <c r="AJ2">
-        <v>0.1513488129935653</v>
+        <v>0.15134881299356531</v>
       </c>
       <c r="AL2">
         <v>110.8939531571033</v>
       </c>
       <c r="AM2">
-        <v>249.9908508686028</v>
+        <v>249.99085086860279</v>
       </c>
       <c r="AO2">
-        <v>62.56941176470588</v>
+        <v>62.569411764705883</v>
       </c>
       <c r="AP2">
-        <v>1823.944479731092</v>
+        <v>1823.9444797310921</v>
       </c>
       <c r="AQ2">
         <v>560.5129658720623</v>
       </c>
       <c r="AR2">
-        <v>2384.457445603154</v>
+        <v>2384.4574456031542</v>
       </c>
       <c r="AS2">
-        <v>604.9537259916899</v>
+        <v>604.95372599168991</v>
       </c>
       <c r="AT2">
-        <v>1809.742158668202</v>
+        <v>1809.7421586682019</v>
       </c>
       <c r="AU2">
-        <v>5.361661909895609</v>
+        <v>5.3616619098956093</v>
       </c>
       <c r="AV2">
-        <v>250.6045633762328</v>
+        <v>250.60456337623279</v>
       </c>
       <c r="AW2">
-        <v>0.6137125076299809</v>
+        <v>0.61371250762998086</v>
       </c>
       <c r="AX2">
         <v>184.8232552618388</v>
@@ -1041,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>-11.32715959849124</v>
+        <v>-11.327159598491241</v>
       </c>
       <c r="BB2">
-        <v>17.66044416152094</v>
+        <v>17.660444161520939</v>
       </c>
       <c r="BC2">
         <v>0</v>
@@ -1053,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1112,22 +1173,22 @@
         <v>78</v>
       </c>
       <c r="V3">
-        <v>380.1385625160382</v>
+        <v>380.13856251603818</v>
       </c>
       <c r="W3">
-        <v>30.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X3">
-        <v>1350.5081993</v>
+        <v>1350.5081992999999</v>
       </c>
       <c r="Y3" t="s">
         <v>81</v>
       </c>
       <c r="Z3">
-        <v>380.1385625160382</v>
+        <v>380.13856251603818</v>
       </c>
       <c r="AA3">
-        <v>362.1385625160382</v>
+        <v>362.13856251603818</v>
       </c>
       <c r="AB3">
         <v>18</v>
@@ -1148,49 +1209,49 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.1594235045867556</v>
+        <v>0.15942350458675561</v>
       </c>
       <c r="AI3">
-        <v>0.1594235045867556</v>
+        <v>0.15942350458675561</v>
       </c>
       <c r="AJ3">
-        <v>0.1518746175084011</v>
+        <v>0.15187461750840109</v>
       </c>
       <c r="AL3">
         <v>107.1705136393504</v>
       </c>
       <c r="AM3">
-        <v>254.9680488766878</v>
+        <v>254.96804887668779</v>
       </c>
       <c r="AO3">
-        <v>62.56941176470588</v>
+        <v>62.569411764705883</v>
       </c>
       <c r="AP3">
-        <v>1823.944479731092</v>
+        <v>1823.9444797310921</v>
       </c>
       <c r="AQ3">
-        <v>560.5129658720625</v>
+        <v>560.51296587206252</v>
       </c>
       <c r="AR3">
-        <v>2384.457445603155</v>
+        <v>2384.4574456031551</v>
       </c>
       <c r="AS3">
-        <v>604.9537259916899</v>
+        <v>604.95372599168991</v>
       </c>
       <c r="AT3">
         <v>1807.928779852499</v>
       </c>
       <c r="AU3">
-        <v>5.2663430830968</v>
+        <v>5.2663430830967997</v>
       </c>
       <c r="AV3">
         <v>255.5698674359862</v>
       </c>
       <c r="AW3">
-        <v>0.6018185592984107</v>
+        <v>0.60181855929841066</v>
       </c>
       <c r="AX3">
-        <v>178.6175227322506</v>
+        <v>178.61752273225059</v>
       </c>
       <c r="AY3">
         <v>0</v>
@@ -1199,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>-11.32715959849124</v>
+        <v>-11.327159598491241</v>
       </c>
       <c r="BB3">
-        <v>17.66044416152094</v>
+        <v>17.660444161520939</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -1211,12 +1272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:56">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>56</v>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
@@ -1237,7 +1298,7 @@
         <v>438</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
         <v>62</v>
@@ -1267,109 +1328,10 @@
         <v>76</v>
       </c>
       <c r="U4" t="s">
-        <v>79</v>
-      </c>
-      <c r="V4">
-        <v>378.8318358541226</v>
-      </c>
-      <c r="W4">
-        <v>30.98958333333333</v>
-      </c>
-      <c r="X4">
-        <v>1350.4106248</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z4">
-        <v>378.8318358541226</v>
-      </c>
-      <c r="AA4">
-        <v>360.8318358541226</v>
-      </c>
-      <c r="AB4">
-        <v>18</v>
-      </c>
-      <c r="AC4">
-        <v>18</v>
-      </c>
-      <c r="AD4">
-        <v>438</v>
-      </c>
-      <c r="AE4">
-        <v>5.763333323363991</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0.1588754861415848</v>
-      </c>
-      <c r="AI4">
-        <v>0.1588754861415848</v>
-      </c>
-      <c r="AJ4">
-        <v>0.1513265990632302</v>
-      </c>
-      <c r="AL4">
-        <v>110.8939531571033</v>
-      </c>
-      <c r="AM4">
-        <v>249.9378826970193</v>
-      </c>
-      <c r="AO4">
-        <v>62.56941176470588</v>
-      </c>
-      <c r="AP4">
-        <v>1823.944479731092</v>
-      </c>
-      <c r="AQ4">
-        <v>560.5129658720628</v>
-      </c>
-      <c r="AR4">
-        <v>2384.457445603155</v>
-      </c>
-      <c r="AS4">
-        <v>604.9537259916899</v>
-      </c>
-      <c r="AT4">
-        <v>1809.73913161248</v>
-      </c>
-      <c r="AU4">
-        <v>5.353587442918837</v>
-      </c>
-      <c r="AV4">
-        <v>250.5498647811072</v>
-      </c>
-      <c r="AW4">
-        <v>0.6119820840879009</v>
-      </c>
-      <c r="AX4">
-        <v>184.8232552618388</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>-11.32715959849124</v>
-      </c>
-      <c r="BB4">
-        <v>17.66044416152094</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1404,10 +1366,10 @@
         <v>62</v>
       </c>
       <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="s">
         <v>64</v>
-      </c>
-      <c r="M5" t="s">
-        <v>65</v>
       </c>
       <c r="N5">
         <v>10</v>
@@ -1425,25 +1387,25 @@
         <v>76</v>
       </c>
       <c r="U5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V5">
-        <v>371.3217567442086</v>
+        <v>378.83183585412257</v>
       </c>
       <c r="W5">
-        <v>27.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X5">
-        <v>1305.371785</v>
+        <v>1350.4106248000001</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z5">
-        <v>371.3217567442086</v>
+        <v>378.83183585412257</v>
       </c>
       <c r="AA5">
-        <v>353.3217567442086</v>
+        <v>360.83183585412257</v>
       </c>
       <c r="AB5">
         <v>18</v>
@@ -1455,7 +1417,7 @@
         <v>438</v>
       </c>
       <c r="AE5">
-        <v>5.541145342273898</v>
+        <v>5.763333323363991</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1464,49 +1426,49 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.1483240241992024</v>
+        <v>0.15887548614158481</v>
       </c>
       <c r="AI5">
-        <v>0.1483240241992024</v>
+        <v>0.15887548614158481</v>
       </c>
       <c r="AJ5">
-        <v>0.1411339460874455</v>
+        <v>0.1513265990632302</v>
       </c>
       <c r="AL5">
-        <v>106.5589862281232</v>
+        <v>110.8939531571033</v>
       </c>
       <c r="AM5">
-        <v>246.7627705160854</v>
+        <v>249.93788269701929</v>
       </c>
       <c r="AO5">
-        <v>69.49013770003722</v>
+        <v>62.569411764705883</v>
       </c>
       <c r="AP5">
-        <v>1897.080720803875</v>
+        <v>1823.9444797310921</v>
       </c>
       <c r="AQ5">
-        <v>606.3691333176362</v>
+        <v>560.51296587206275</v>
       </c>
       <c r="AR5">
-        <v>2503.449854121511</v>
+        <v>2384.4574456031551</v>
       </c>
       <c r="AS5">
-        <v>747.2553716424334</v>
+        <v>604.95372599168991</v>
       </c>
       <c r="AT5">
-        <v>1790.179313326584</v>
+        <v>1809.7391316124799</v>
       </c>
       <c r="AU5">
-        <v>9.077708814276608</v>
+        <v>5.3535874429188368</v>
       </c>
       <c r="AV5">
-        <v>247.8953198374142</v>
+        <v>250.5498647811072</v>
       </c>
       <c r="AW5">
-        <v>1.132549321328782</v>
+        <v>0.61198208408790089</v>
       </c>
       <c r="AX5">
-        <v>177.5983103802052</v>
+        <v>184.8232552618388</v>
       </c>
       <c r="AY5">
         <v>0</v>
@@ -1515,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>-12.19819991079334</v>
+        <v>-11.327159598491241</v>
       </c>
       <c r="BB5">
-        <v>11.79139614264098</v>
+        <v>17.660444161520939</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -1527,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:56">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1583,25 +1545,25 @@
         <v>76</v>
       </c>
       <c r="U6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V6">
-        <v>372.9301404585888</v>
+        <v>371.32175674420859</v>
       </c>
       <c r="W6">
-        <v>27.98958333333333</v>
+        <v>27.989583333333329</v>
       </c>
       <c r="X6">
-        <v>1302.8227923</v>
+        <v>1305.371785</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z6">
-        <v>372.9301404585888</v>
+        <v>371.32175674420859</v>
       </c>
       <c r="AA6">
-        <v>354.9301404585888</v>
+        <v>353.32175674420859</v>
       </c>
       <c r="AB6">
         <v>18</v>
@@ -1613,7 +1575,7 @@
         <v>438</v>
       </c>
       <c r="AE6">
-        <v>5.541145342273898</v>
+        <v>5.5411453422738983</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1622,49 +1584,49 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.1489664911180952</v>
+        <v>0.1483240241992024</v>
       </c>
       <c r="AI6">
-        <v>0.1489664911180952</v>
+        <v>0.1483240241992024</v>
       </c>
       <c r="AJ6">
-        <v>0.1417764130063383</v>
+        <v>0.14113394608744551</v>
       </c>
       <c r="AL6">
-        <v>106.3983912243089</v>
+        <v>106.5589862281232</v>
       </c>
       <c r="AM6">
-        <v>248.5317492342799</v>
+        <v>246.7627705160854</v>
       </c>
       <c r="AO6">
-        <v>69.49013770003722</v>
+        <v>69.490137700037224</v>
       </c>
       <c r="AP6">
         <v>1897.080720803875</v>
       </c>
       <c r="AQ6">
-        <v>606.3691333176374</v>
+        <v>606.36913331763617</v>
       </c>
       <c r="AR6">
-        <v>2503.449854121512</v>
+        <v>2503.4498541215112</v>
       </c>
       <c r="AS6">
-        <v>747.2553716424334</v>
+        <v>747.25537164243337</v>
       </c>
       <c r="AT6">
-        <v>1789.659897909854</v>
+        <v>1790.179313326584</v>
       </c>
       <c r="AU6">
-        <v>9.055983323498218</v>
+        <v>9.0777088142766083</v>
       </c>
       <c r="AV6">
-        <v>249.6624077151103</v>
+        <v>247.89531983741421</v>
       </c>
       <c r="AW6">
-        <v>1.130658480830419</v>
+        <v>1.1325493213287821</v>
       </c>
       <c r="AX6">
-        <v>177.3306520405149</v>
+        <v>177.59831038020519</v>
       </c>
       <c r="AY6">
         <v>0</v>
@@ -1676,7 +1638,7 @@
         <v>-12.19819991079334</v>
       </c>
       <c r="BB6">
-        <v>11.79139614264098</v>
+        <v>11.791396142640981</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -1685,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1741,25 +1703,25 @@
         <v>76</v>
       </c>
       <c r="U7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V7">
-        <v>371.3081322459453</v>
+        <v>372.93014045858882</v>
       </c>
       <c r="W7">
-        <v>27.98958333333333</v>
+        <v>27.989583333333329</v>
       </c>
       <c r="X7">
-        <v>1295.9960972</v>
+        <v>1302.8227922999999</v>
       </c>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z7">
-        <v>371.3081322459453</v>
+        <v>372.93014045858882</v>
       </c>
       <c r="AA7">
-        <v>353.3081322459453</v>
+        <v>354.93014045858882</v>
       </c>
       <c r="AB7">
         <v>18</v>
@@ -1771,7 +1733,7 @@
         <v>438</v>
       </c>
       <c r="AE7">
-        <v>5.541145342273898</v>
+        <v>5.5411453422738983</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1780,49 +1742,49 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.1483185819099385</v>
+        <v>0.14896649111809521</v>
       </c>
       <c r="AI7">
-        <v>0.1483185819099385</v>
+        <v>0.14896649111809521</v>
       </c>
       <c r="AJ7">
-        <v>0.1411285037981817</v>
+        <v>0.14177641300633831</v>
       </c>
       <c r="AL7">
-        <v>106.5589862281232</v>
+        <v>106.3983912243089</v>
       </c>
       <c r="AM7">
-        <v>246.7491460178221</v>
+        <v>248.53174923427991</v>
       </c>
       <c r="AO7">
-        <v>69.49013770003722</v>
+        <v>69.490137700037224</v>
       </c>
       <c r="AP7">
         <v>1897.080720803875</v>
       </c>
       <c r="AQ7">
-        <v>606.3691333176376</v>
+        <v>606.36913331763742</v>
       </c>
       <c r="AR7">
-        <v>2503.449854121513</v>
+        <v>2503.4498541215121</v>
       </c>
       <c r="AS7">
-        <v>747.2553716424334</v>
+        <v>747.25537164243337</v>
       </c>
       <c r="AT7">
-        <v>1790.140456522292</v>
+        <v>1789.659897909854</v>
       </c>
       <c r="AU7">
-        <v>9.030903313973955</v>
+        <v>9.0559833234982179</v>
       </c>
       <c r="AV7">
-        <v>247.8780811967644</v>
+        <v>249.66240771511031</v>
       </c>
       <c r="AW7">
-        <v>1.128935178942237</v>
+        <v>1.130658480830419</v>
       </c>
       <c r="AX7">
-        <v>177.5983103802052</v>
+        <v>177.33065204051491</v>
       </c>
       <c r="AY7">
         <v>0</v>
@@ -1834,7 +1796,7 @@
         <v>-12.19819991079334</v>
       </c>
       <c r="BB7">
-        <v>11.79139614264098</v>
+        <v>11.791396142640981</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -1843,12 +1805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>56</v>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
@@ -1869,7 +1831,7 @@
         <v>438</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="J8" t="s">
         <v>62</v>
@@ -1878,10 +1840,10 @@
         <v>62</v>
       </c>
       <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" t="s">
         <v>65</v>
-      </c>
-      <c r="M8" t="s">
-        <v>66</v>
       </c>
       <c r="N8">
         <v>10</v>
@@ -1899,109 +1861,10 @@
         <v>76</v>
       </c>
       <c r="U8" t="s">
-        <v>77</v>
-      </c>
-      <c r="V8">
-        <v>323.566793259675</v>
-      </c>
-      <c r="W8">
-        <v>30.98958333333333</v>
-      </c>
-      <c r="X8">
-        <v>1325.0476672</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z8">
-        <v>323.566793259675</v>
-      </c>
-      <c r="AA8">
-        <v>305.566793259675</v>
-      </c>
-      <c r="AB8">
-        <v>18</v>
-      </c>
-      <c r="AC8">
-        <v>18</v>
-      </c>
-      <c r="AD8">
-        <v>438</v>
-      </c>
-      <c r="AE8">
-        <v>5.753593577295262</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0.1365760804385003</v>
-      </c>
-      <c r="AI8">
-        <v>0.1365760804385003</v>
-      </c>
-      <c r="AJ8">
-        <v>0.1289783618248969</v>
-      </c>
-      <c r="AL8">
-        <v>108.6235597207575</v>
-      </c>
-      <c r="AM8">
-        <v>196.9432335389175</v>
-      </c>
-      <c r="AO8">
-        <v>61.60134453781513</v>
-      </c>
-      <c r="AP8">
-        <v>1827.032072873949</v>
-      </c>
-      <c r="AQ8">
-        <v>542.1001516034983</v>
-      </c>
-      <c r="AR8">
-        <v>2369.132224477447</v>
-      </c>
-      <c r="AS8">
-        <v>944.9298545577608</v>
-      </c>
-      <c r="AT8">
-        <v>1492.497229469794</v>
-      </c>
-      <c r="AU8">
-        <v>42.59440319934966</v>
-      </c>
-      <c r="AV8">
-        <v>202.5806244573266</v>
-      </c>
-      <c r="AW8">
-        <v>5.637390918409062</v>
-      </c>
-      <c r="AX8">
-        <v>181.0392662012625</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>-16.17920982126445</v>
-      </c>
-      <c r="BB8">
-        <v>12.8769068619023</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:56">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2036,10 +1899,10 @@
         <v>62</v>
       </c>
       <c r="L9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" t="s">
         <v>65</v>
-      </c>
-      <c r="M9" t="s">
-        <v>66</v>
       </c>
       <c r="N9">
         <v>10</v>
@@ -2057,25 +1920,25 @@
         <v>76</v>
       </c>
       <c r="U9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V9">
-        <v>315.3531587068255</v>
+        <v>371.30813224594527</v>
       </c>
       <c r="W9">
-        <v>30.98958333333333</v>
+        <v>27.989583333333329</v>
       </c>
       <c r="X9">
-        <v>1333.3237262</v>
+        <v>1295.9960971999999</v>
       </c>
       <c r="Y9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z9">
-        <v>315.3531587068255</v>
+        <v>371.30813224594527</v>
       </c>
       <c r="AA9">
-        <v>297.3531587068255</v>
+        <v>353.30813224594527</v>
       </c>
       <c r="AB9">
         <v>18</v>
@@ -2087,7 +1950,7 @@
         <v>438</v>
       </c>
       <c r="AE9">
-        <v>5.753593577295262</v>
+        <v>5.5411453422738983</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2096,49 +1959,49 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.1331091424314158</v>
+        <v>0.14831858190993849</v>
       </c>
       <c r="AI9">
-        <v>0.1331091424314158</v>
+        <v>0.14831858190993849</v>
       </c>
       <c r="AJ9">
-        <v>0.1255114238178124</v>
+        <v>0.1411285037981817</v>
       </c>
       <c r="AL9">
-        <v>98.52452515183704</v>
+        <v>106.5589862281232</v>
       </c>
       <c r="AM9">
-        <v>198.8286335549884</v>
+        <v>246.74914601782211</v>
       </c>
       <c r="AO9">
-        <v>61.60134453781513</v>
+        <v>69.490137700037224</v>
       </c>
       <c r="AP9">
-        <v>1827.032072873949</v>
+        <v>1897.080720803875</v>
       </c>
       <c r="AQ9">
-        <v>542.100151603498</v>
+        <v>606.36913331763765</v>
       </c>
       <c r="AR9">
-        <v>2369.132224477446</v>
+        <v>2503.449854121513</v>
       </c>
       <c r="AS9">
-        <v>944.9298545577608</v>
+        <v>747.25537164243337</v>
       </c>
       <c r="AT9">
-        <v>1491.050187214372</v>
+        <v>1790.140456522292</v>
       </c>
       <c r="AU9">
-        <v>41.90087215341887</v>
+        <v>9.0309033139739547</v>
       </c>
       <c r="AV9">
-        <v>204.3920790565302</v>
+        <v>247.87808119676441</v>
       </c>
       <c r="AW9">
-        <v>5.563445501541764</v>
+        <v>1.128935178942237</v>
       </c>
       <c r="AX9">
-        <v>164.2075419197284</v>
+        <v>177.59831038020519</v>
       </c>
       <c r="AY9">
         <v>0</v>
@@ -2147,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>-16.17920982126445</v>
+        <v>-12.19819991079334</v>
       </c>
       <c r="BB9">
-        <v>12.8769068619023</v>
+        <v>11.791396142640981</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -2159,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:56">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2215,25 +2078,25 @@
         <v>76</v>
       </c>
       <c r="U10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="V10">
-        <v>323.5723865595441</v>
+        <v>323.56679325967502</v>
       </c>
       <c r="W10">
-        <v>30.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X10">
-        <v>1330.0328642</v>
+        <v>1325.0476672</v>
       </c>
       <c r="Y10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z10">
-        <v>323.5723865595441</v>
+        <v>323.56679325967502</v>
       </c>
       <c r="AA10">
-        <v>305.5723865595441</v>
+        <v>305.56679325967502</v>
       </c>
       <c r="AB10">
         <v>18</v>
@@ -2245,7 +2108,7 @@
         <v>438</v>
       </c>
       <c r="AE10">
-        <v>5.753593577295262</v>
+        <v>5.7535935772952618</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2254,49 +2117,49 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.1365784413450851</v>
+        <v>0.13657608043850031</v>
       </c>
       <c r="AI10">
-        <v>0.1365784413450851</v>
+        <v>0.13657608043850031</v>
       </c>
       <c r="AJ10">
-        <v>0.1289807227314817</v>
+        <v>0.12897836182489689</v>
       </c>
       <c r="AL10">
         <v>108.6235597207575</v>
       </c>
       <c r="AM10">
-        <v>196.9488268387866</v>
+        <v>196.9432335389175</v>
       </c>
       <c r="AO10">
         <v>61.60134453781513</v>
       </c>
       <c r="AP10">
-        <v>1827.032072873949</v>
+        <v>1827.0320728739489</v>
       </c>
       <c r="AQ10">
-        <v>542.1001516034987</v>
+        <v>542.10015160349826</v>
       </c>
       <c r="AR10">
-        <v>2369.132224477447</v>
+        <v>2369.1322244774469</v>
       </c>
       <c r="AS10">
-        <v>944.9298545577608</v>
+        <v>944.92985455776079</v>
       </c>
       <c r="AT10">
-        <v>1492.582067913237</v>
+        <v>1492.4972294697941</v>
       </c>
       <c r="AU10">
-        <v>42.6822232898523</v>
+        <v>42.594403199349657</v>
       </c>
       <c r="AV10">
-        <v>202.5799944505576</v>
+        <v>202.58062445732659</v>
       </c>
       <c r="AW10">
-        <v>5.631167611771006</v>
+        <v>5.6373909184090616</v>
       </c>
       <c r="AX10">
-        <v>181.0392662012625</v>
+        <v>181.03926620126251</v>
       </c>
       <c r="AY10">
         <v>0</v>
@@ -2308,7 +2171,7 @@
         <v>-16.17920982126445</v>
       </c>
       <c r="BB10">
-        <v>12.8769068619023</v>
+        <v>12.876906861902301</v>
       </c>
       <c r="BC10">
         <v>0</v>
@@ -2317,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:56">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2352,10 +2215,10 @@
         <v>62</v>
       </c>
       <c r="L11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" t="s">
         <v>66</v>
-      </c>
-      <c r="M11" t="s">
-        <v>67</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -2373,25 +2236,25 @@
         <v>76</v>
       </c>
       <c r="U11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11">
-        <v>331.1540776591472</v>
+        <v>315.35315870682552</v>
       </c>
       <c r="W11">
-        <v>29.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X11">
-        <v>1591.3940097</v>
+        <v>1333.3237262</v>
       </c>
       <c r="Y11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z11">
-        <v>331.1540776591472</v>
+        <v>315.35315870682552</v>
       </c>
       <c r="AA11">
-        <v>313.1540776591472</v>
+        <v>297.35315870682552</v>
       </c>
       <c r="AB11">
         <v>18</v>
@@ -2403,7 +2266,7 @@
         <v>438</v>
       </c>
       <c r="AE11">
-        <v>5.527563236057068</v>
+        <v>5.7535935772952618</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2412,49 +2275,49 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.1276051691570453</v>
+        <v>0.13310914243141581</v>
       </c>
       <c r="AI11">
-        <v>0.1276051691570453</v>
+        <v>0.13310914243141581</v>
       </c>
       <c r="AJ11">
-        <v>0.1206691439054071</v>
+        <v>0.12551142381781241</v>
       </c>
       <c r="AL11">
-        <v>108.7013935981012</v>
+        <v>98.52452515183704</v>
       </c>
       <c r="AM11">
-        <v>204.4526840610459</v>
+        <v>198.82863355498839</v>
       </c>
       <c r="AO11">
-        <v>79.39423410906565</v>
+        <v>61.60134453781513</v>
       </c>
       <c r="AP11">
-        <v>1901.742151302541</v>
+        <v>1827.0320728739489</v>
       </c>
       <c r="AQ11">
-        <v>693.4041099871692</v>
+        <v>542.10015160349803</v>
       </c>
       <c r="AR11">
-        <v>2595.14626128971</v>
+        <v>2369.132224477446</v>
       </c>
       <c r="AS11">
-        <v>1094.388561628032</v>
+        <v>944.92985455776079</v>
       </c>
       <c r="AT11">
-        <v>1541.487274111396</v>
+        <v>1491.050187214372</v>
       </c>
       <c r="AU11">
-        <v>14.86485029346197</v>
+        <v>41.900872153418867</v>
       </c>
       <c r="AV11">
-        <v>206.6771380498297</v>
+        <v>204.39207905653021</v>
       </c>
       <c r="AW11">
-        <v>2.224453988783759</v>
+        <v>5.5634455015417643</v>
       </c>
       <c r="AX11">
-        <v>181.1689893301687</v>
+        <v>164.20754191972841</v>
       </c>
       <c r="AY11">
         <v>0</v>
@@ -2463,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>-10.78135236821107</v>
+        <v>-16.17920982126445</v>
       </c>
       <c r="BB11">
-        <v>12.28158933016869</v>
+        <v>12.876906861902301</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -2475,12 +2338,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:56">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>56</v>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
@@ -2501,7 +2364,7 @@
         <v>438</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
         <v>62</v>
@@ -2510,10 +2373,10 @@
         <v>62</v>
       </c>
       <c r="L12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" t="s">
         <v>66</v>
-      </c>
-      <c r="M12" t="s">
-        <v>67</v>
       </c>
       <c r="N12">
         <v>10</v>
@@ -2533,107 +2396,8 @@
       <c r="U12" t="s">
         <v>78</v>
       </c>
-      <c r="V12">
-        <v>321.1768339487314</v>
-      </c>
-      <c r="W12">
-        <v>29.98958333333333</v>
-      </c>
-      <c r="X12">
-        <v>1594.6288246</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z12">
-        <v>321.1768339487314</v>
-      </c>
-      <c r="AA12">
-        <v>303.1768339487314</v>
-      </c>
-      <c r="AB12">
-        <v>18</v>
-      </c>
-      <c r="AC12">
-        <v>18</v>
-      </c>
-      <c r="AD12">
-        <v>438</v>
-      </c>
-      <c r="AE12">
-        <v>5.527563236057068</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0.123760590583868</v>
-      </c>
-      <c r="AI12">
-        <v>0.123760590583868</v>
-      </c>
-      <c r="AJ12">
-        <v>0.1168245653322297</v>
-      </c>
-      <c r="AL12">
-        <v>93.97376790025007</v>
-      </c>
-      <c r="AM12">
-        <v>209.2030660484813</v>
-      </c>
-      <c r="AO12">
-        <v>79.39423410906565</v>
-      </c>
-      <c r="AP12">
-        <v>1901.742151302541</v>
-      </c>
-      <c r="AQ12">
-        <v>693.4041099871688</v>
-      </c>
-      <c r="AR12">
-        <v>2595.146261289709</v>
-      </c>
-      <c r="AS12">
-        <v>1094.388561628032</v>
-      </c>
-      <c r="AT12">
-        <v>1540.015144782063</v>
-      </c>
-      <c r="AU12">
-        <v>14.57497309075062</v>
-      </c>
-      <c r="AV12">
-        <v>211.403602767715</v>
-      </c>
-      <c r="AW12">
-        <v>2.200536719233627</v>
-      </c>
-      <c r="AX12">
-        <v>156.6229465004168</v>
-      </c>
-      <c r="AY12">
-        <v>7.105427357601002E-15</v>
-      </c>
-      <c r="AZ12">
-        <v>4.017092456293666E-17</v>
-      </c>
-      <c r="BA12">
-        <v>-10.78135236821107</v>
-      </c>
-      <c r="BB12">
-        <v>12.28158933016869</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:56">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2668,10 +2432,10 @@
         <v>62</v>
       </c>
       <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" t="s">
         <v>66</v>
-      </c>
-      <c r="M13" t="s">
-        <v>67</v>
       </c>
       <c r="N13">
         <v>10</v>
@@ -2692,22 +2456,22 @@
         <v>79</v>
       </c>
       <c r="V13">
-        <v>331.1741813942341</v>
+        <v>323.5723865595441</v>
       </c>
       <c r="W13">
-        <v>29.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X13">
-        <v>1584.2451851</v>
+        <v>1330.0328641999999</v>
       </c>
       <c r="Y13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Z13">
-        <v>331.1741813942341</v>
+        <v>323.5723865595441</v>
       </c>
       <c r="AA13">
-        <v>313.1741813942341</v>
+        <v>305.5723865595441</v>
       </c>
       <c r="AB13">
         <v>18</v>
@@ -2719,7 +2483,7 @@
         <v>438</v>
       </c>
       <c r="AE13">
-        <v>5.527563236057068</v>
+        <v>5.7535935772952618</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2728,49 +2492,49 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0.1276129158245017</v>
+        <v>0.13657844134508509</v>
       </c>
       <c r="AI13">
-        <v>0.1276129158245017</v>
+        <v>0.13657844134508509</v>
       </c>
       <c r="AJ13">
-        <v>0.1206768905728635</v>
+        <v>0.1289807227314817</v>
       </c>
       <c r="AL13">
-        <v>108.7013935981012</v>
+        <v>108.6235597207575</v>
       </c>
       <c r="AM13">
-        <v>204.4727877961329</v>
+        <v>196.9488268387866</v>
       </c>
       <c r="AO13">
-        <v>79.39423410906565</v>
+        <v>61.60134453781513</v>
       </c>
       <c r="AP13">
-        <v>1901.742151302541</v>
+        <v>1827.0320728739489</v>
       </c>
       <c r="AQ13">
-        <v>693.404109987169</v>
+        <v>542.10015160349872</v>
       </c>
       <c r="AR13">
-        <v>2595.146261289709</v>
+        <v>2369.1322244774469</v>
       </c>
       <c r="AS13">
-        <v>1094.388561628032</v>
+        <v>944.92985455776079</v>
       </c>
       <c r="AT13">
-        <v>1541.462857097989</v>
+        <v>1492.5820679132371</v>
       </c>
       <c r="AU13">
-        <v>14.84169061580886</v>
+        <v>42.682223289852303</v>
       </c>
       <c r="AV13">
-        <v>206.6951118256528</v>
+        <v>202.57999445055759</v>
       </c>
       <c r="AW13">
-        <v>2.222324029519883</v>
+        <v>5.6311676117710059</v>
       </c>
       <c r="AX13">
-        <v>181.1689893301687</v>
+        <v>181.03926620126251</v>
       </c>
       <c r="AY13">
         <v>0</v>
@@ -2779,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>-10.78135236821107</v>
+        <v>-16.17920982126445</v>
       </c>
       <c r="BB13">
-        <v>12.28158933016869</v>
+        <v>12.876906861902301</v>
       </c>
       <c r="BC13">
         <v>0</v>
@@ -2791,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:56">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2826,10 +2590,10 @@
         <v>62</v>
       </c>
       <c r="L14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" t="s">
         <v>67</v>
-      </c>
-      <c r="M14" t="s">
-        <v>68</v>
       </c>
       <c r="N14">
         <v>10</v>
@@ -2850,22 +2614,22 @@
         <v>77</v>
       </c>
       <c r="V14">
-        <v>336.7325326111762</v>
+        <v>331.15407765914722</v>
       </c>
       <c r="W14">
-        <v>30.98958333333333</v>
+        <v>29.989583333333329</v>
       </c>
       <c r="X14">
-        <v>1575.4547864</v>
+        <v>1591.3940097</v>
       </c>
       <c r="Y14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Z14">
-        <v>336.7325326111762</v>
+        <v>331.15407765914722</v>
       </c>
       <c r="AA14">
-        <v>318.7325326111762</v>
+        <v>313.15407765914722</v>
       </c>
       <c r="AB14">
         <v>18</v>
@@ -2877,7 +2641,7 @@
         <v>438</v>
       </c>
       <c r="AE14">
-        <v>5.644521878133022</v>
+        <v>5.5275632360570679</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2886,49 +2650,49 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0.1313963137226216</v>
+        <v>0.12760516915704531</v>
       </c>
       <c r="AI14">
-        <v>0.1313963137226216</v>
+        <v>0.12760516915704531</v>
       </c>
       <c r="AJ14">
-        <v>0.1243725384174354</v>
+        <v>0.1206691439054071</v>
       </c>
       <c r="AL14">
-        <v>106.4060359165518</v>
+        <v>108.70139359810121</v>
       </c>
       <c r="AM14">
-        <v>212.3264966946244</v>
+        <v>204.45268406104589</v>
       </c>
       <c r="AO14">
-        <v>80.73680672268908</v>
+        <v>79.39423410906565</v>
       </c>
       <c r="AP14">
-        <v>1862.336656134451</v>
+        <v>1901.7421513025411</v>
       </c>
       <c r="AQ14">
-        <v>700.3876933630595</v>
+        <v>693.40410998716925</v>
       </c>
       <c r="AR14">
-        <v>2562.72434949751</v>
+        <v>2595.1462612897099</v>
       </c>
       <c r="AS14">
-        <v>998.2962822620709</v>
+        <v>1094.388561628032</v>
       </c>
       <c r="AT14">
-        <v>1618.666214925613</v>
+        <v>1541.4872741113959</v>
       </c>
       <c r="AU14">
-        <v>28.46657679875941</v>
+        <v>14.86485029346197</v>
       </c>
       <c r="AV14">
-        <v>216.4629860111036</v>
+        <v>206.67713804982969</v>
       </c>
       <c r="AW14">
-        <v>4.136489316479166</v>
+        <v>2.2244539887837589</v>
       </c>
       <c r="AX14">
-        <v>177.343393194253</v>
+        <v>181.1689893301687</v>
       </c>
       <c r="AY14">
         <v>0</v>
@@ -2937,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>-14.6629732887026</v>
+        <v>-10.781352368211071</v>
       </c>
       <c r="BB14">
-        <v>9.90196787897365</v>
+        <v>12.281589330168689</v>
       </c>
       <c r="BC14">
         <v>0</v>
@@ -2949,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:56">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2984,10 +2748,10 @@
         <v>62</v>
       </c>
       <c r="L15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" t="s">
         <v>67</v>
-      </c>
-      <c r="M15" t="s">
-        <v>68</v>
       </c>
       <c r="N15">
         <v>10</v>
@@ -3008,22 +2772,22 @@
         <v>78</v>
       </c>
       <c r="V15">
-        <v>328.6933146572553</v>
+        <v>321.17683394873143</v>
       </c>
       <c r="W15">
-        <v>30.98958333333333</v>
+        <v>29.989583333333329</v>
       </c>
       <c r="X15">
-        <v>1581.8030673</v>
+        <v>1594.6288245999999</v>
       </c>
       <c r="Y15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Z15">
-        <v>328.6933146572553</v>
+        <v>321.17683394873143</v>
       </c>
       <c r="AA15">
-        <v>310.6933146572553</v>
+        <v>303.17683394873143</v>
       </c>
       <c r="AB15">
         <v>18</v>
@@ -3035,7 +2799,7 @@
         <v>438</v>
       </c>
       <c r="AE15">
-        <v>5.644521878133022</v>
+        <v>5.5275632360570679</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -3044,61 +2808,61 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0.1282593325816349</v>
+        <v>0.123760590583868</v>
       </c>
       <c r="AI15">
-        <v>0.1282593325816349</v>
+        <v>0.123760590583868</v>
       </c>
       <c r="AJ15">
-        <v>0.1212355572764487</v>
+        <v>0.11682456533222969</v>
       </c>
       <c r="AL15">
-        <v>94.58618752844977</v>
+        <v>93.973767900250067</v>
       </c>
       <c r="AM15">
-        <v>216.1071271288055</v>
+        <v>209.2030660484813</v>
       </c>
       <c r="AO15">
-        <v>80.73680672268908</v>
+        <v>79.39423410906565</v>
       </c>
       <c r="AP15">
-        <v>1862.336656134451</v>
+        <v>1901.7421513025411</v>
       </c>
       <c r="AQ15">
-        <v>700.3876933630606</v>
+        <v>693.40410998716879</v>
       </c>
       <c r="AR15">
-        <v>2562.724349497511</v>
+        <v>2595.1462612897089</v>
       </c>
       <c r="AS15">
-        <v>998.2962822620709</v>
+        <v>1094.388561628032</v>
       </c>
       <c r="AT15">
-        <v>1617.392679993928</v>
+        <v>1540.0151447820631</v>
       </c>
       <c r="AU15">
-        <v>28.29868389071159</v>
+        <v>14.574973090750619</v>
       </c>
       <c r="AV15">
-        <v>220.2276622114273</v>
+        <v>211.403602767715</v>
       </c>
       <c r="AW15">
-        <v>4.120535082621827</v>
+        <v>2.2005367192336269</v>
       </c>
       <c r="AX15">
-        <v>157.6436458807496</v>
+        <v>156.62294650041679</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>7.1054273576010019E-15</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <v>4.0170924562936658E-17</v>
       </c>
       <c r="BA15">
-        <v>-14.6629732887026</v>
+        <v>-10.781352368211071</v>
       </c>
       <c r="BB15">
-        <v>9.90196787897365</v>
+        <v>12.281589330168689</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -3107,12 +2871,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:56">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>56</v>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>57</v>
@@ -3133,7 +2897,7 @@
         <v>438</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="J16" t="s">
         <v>62</v>
@@ -3142,10 +2906,10 @@
         <v>62</v>
       </c>
       <c r="L16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" t="s">
         <v>67</v>
-      </c>
-      <c r="M16" t="s">
-        <v>68</v>
       </c>
       <c r="N16">
         <v>10</v>
@@ -3163,109 +2927,10 @@
         <v>76</v>
       </c>
       <c r="U16" t="s">
-        <v>79</v>
-      </c>
-      <c r="V16">
-        <v>336.7556753716689</v>
-      </c>
-      <c r="W16">
-        <v>30.98958333333333</v>
-      </c>
-      <c r="X16">
-        <v>1579.4276043</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z16">
-        <v>336.7556753716689</v>
-      </c>
-      <c r="AA16">
-        <v>318.7556753716689</v>
-      </c>
-      <c r="AB16">
-        <v>18</v>
-      </c>
-      <c r="AC16">
-        <v>18</v>
-      </c>
-      <c r="AD16">
-        <v>438</v>
-      </c>
-      <c r="AE16">
-        <v>5.644521878133022</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0.1314053442531573</v>
-      </c>
-      <c r="AI16">
-        <v>0.1314053442531573</v>
-      </c>
-      <c r="AJ16">
-        <v>0.1243815689479711</v>
-      </c>
-      <c r="AL16">
-        <v>106.4060359165518</v>
-      </c>
-      <c r="AM16">
-        <v>212.349639455117</v>
-      </c>
-      <c r="AO16">
-        <v>80.73680672268908</v>
-      </c>
-      <c r="AP16">
-        <v>1862.336656134451</v>
-      </c>
-      <c r="AQ16">
-        <v>700.3876933630587</v>
-      </c>
-      <c r="AR16">
-        <v>2562.724349497509</v>
-      </c>
-      <c r="AS16">
-        <v>998.2962822620709</v>
-      </c>
-      <c r="AT16">
-        <v>1618.787222142834</v>
-      </c>
-      <c r="AU16">
-        <v>28.60521592611861</v>
-      </c>
-      <c r="AV16">
-        <v>216.4964892214551</v>
-      </c>
-      <c r="AW16">
-        <v>4.146849766338057</v>
-      </c>
-      <c r="AX16">
-        <v>177.343393194253</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <v>-14.6629732887026</v>
-      </c>
-      <c r="BB16">
-        <v>9.90196787897365</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BD16">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:56">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3300,10 +2965,10 @@
         <v>62</v>
       </c>
       <c r="L17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N17">
         <v>10</v>
@@ -3321,25 +2986,25 @@
         <v>76</v>
       </c>
       <c r="U17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V17">
-        <v>309.6004581652323</v>
+        <v>331.1741813942341</v>
       </c>
       <c r="W17">
-        <v>29.98958333333333</v>
+        <v>29.989583333333329</v>
       </c>
       <c r="X17">
-        <v>1246.0415368</v>
+        <v>1584.2451851000001</v>
       </c>
       <c r="Y17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z17">
-        <v>309.6004581652323</v>
+        <v>331.1741813942341</v>
       </c>
       <c r="AA17">
-        <v>291.6004581652323</v>
+        <v>313.1741813942341</v>
       </c>
       <c r="AB17">
         <v>18</v>
@@ -3351,7 +3016,7 @@
         <v>438</v>
       </c>
       <c r="AE17">
-        <v>6.263990172658476</v>
+        <v>5.5275632360570679</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -3360,49 +3025,49 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>0.1392422111884384</v>
+        <v>0.12761291582450171</v>
       </c>
       <c r="AI17">
-        <v>0.1392422111884384</v>
+        <v>0.12761291582450171</v>
       </c>
       <c r="AJ17">
-        <v>0.1311467457739323</v>
+        <v>0.1206768905728635</v>
       </c>
       <c r="AL17">
-        <v>106.0479950548862</v>
+        <v>108.70139359810121</v>
       </c>
       <c r="AM17">
-        <v>185.5524631103461</v>
+        <v>204.47278779613291</v>
       </c>
       <c r="AO17">
-        <v>62.55505383813824</v>
+        <v>79.39423410906565</v>
       </c>
       <c r="AP17">
-        <v>1678.163552344566</v>
+        <v>1901.7421513025411</v>
       </c>
       <c r="AQ17">
-        <v>545.3034230990067</v>
+        <v>693.40410998716902</v>
       </c>
       <c r="AR17">
-        <v>2223.466975443573</v>
+        <v>2595.1462612897089</v>
       </c>
       <c r="AS17">
-        <v>840.6148316061417</v>
+        <v>1094.388561628032</v>
       </c>
       <c r="AT17">
-        <v>1461.527412501032</v>
+        <v>1541.4628570979889</v>
       </c>
       <c r="AU17">
-        <v>53.00890427760935</v>
+        <v>14.84169061580886</v>
       </c>
       <c r="AV17">
-        <v>193.528972888767</v>
+        <v>206.69511182565279</v>
       </c>
       <c r="AW17">
-        <v>7.97650977842086</v>
+        <v>2.2223240295198829</v>
       </c>
       <c r="AX17">
-        <v>176.7466584248103</v>
+        <v>181.1689893301687</v>
       </c>
       <c r="AY17">
         <v>0</v>
@@ -3411,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>-12.67179709055496</v>
+        <v>-10.781352368211071</v>
       </c>
       <c r="BB17">
-        <v>9.873801456341027</v>
+        <v>12.281589330168689</v>
       </c>
       <c r="BC17">
         <v>0</v>
@@ -3423,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:56">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3458,10 +3123,10 @@
         <v>62</v>
       </c>
       <c r="L18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" t="s">
         <v>68</v>
-      </c>
-      <c r="M18" t="s">
-        <v>69</v>
       </c>
       <c r="N18">
         <v>10</v>
@@ -3479,25 +3144,25 @@
         <v>76</v>
       </c>
       <c r="U18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V18">
-        <v>301.3201662396982</v>
+        <v>336.73253261117623</v>
       </c>
       <c r="W18">
-        <v>29.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X18">
-        <v>1251.5084781</v>
+        <v>1575.4547864000001</v>
       </c>
       <c r="Y18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Z18">
-        <v>301.3201662396982</v>
+        <v>336.73253261117623</v>
       </c>
       <c r="AA18">
-        <v>283.3201662396982</v>
+        <v>318.73253261117623</v>
       </c>
       <c r="AB18">
         <v>18</v>
@@ -3509,7 +3174,7 @@
         <v>438</v>
       </c>
       <c r="AE18">
-        <v>6.263990172658476</v>
+        <v>5.6445218781330224</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -3518,61 +3183,61 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0.1355181658048175</v>
+        <v>0.13139631372262159</v>
       </c>
       <c r="AI18">
-        <v>0.1355181658048175</v>
+        <v>0.13139631372262159</v>
       </c>
       <c r="AJ18">
-        <v>0.1274227003903113</v>
+        <v>0.1243725384174354</v>
       </c>
       <c r="AL18">
-        <v>96.01918468037844</v>
+        <v>106.4060359165518</v>
       </c>
       <c r="AM18">
-        <v>187.3009815593198</v>
+        <v>212.32649669462441</v>
       </c>
       <c r="AO18">
-        <v>62.55505383813824</v>
+        <v>80.736806722689082</v>
       </c>
       <c r="AP18">
-        <v>1678.163552344566</v>
+        <v>1862.336656134451</v>
       </c>
       <c r="AQ18">
-        <v>545.3034230990072</v>
+        <v>700.3876933630595</v>
       </c>
       <c r="AR18">
-        <v>2223.466975443574</v>
+        <v>2562.72434949751</v>
       </c>
       <c r="AS18">
-        <v>840.6148316061417</v>
+        <v>998.29628226207092</v>
       </c>
       <c r="AT18">
-        <v>1459.535914816049</v>
+        <v>1618.6662149256131</v>
       </c>
       <c r="AU18">
-        <v>51.86301790226877</v>
+        <v>28.466576798759409</v>
       </c>
       <c r="AV18">
-        <v>195.1718907743118</v>
+        <v>216.4629860111036</v>
       </c>
       <c r="AW18">
-        <v>7.870909214992063</v>
+        <v>4.1364893164791656</v>
       </c>
       <c r="AX18">
-        <v>160.0319744672974</v>
+        <v>177.343393194253</v>
       </c>
       <c r="AY18">
-        <v>8.881784197001252E-16</v>
+        <v>0</v>
       </c>
       <c r="AZ18">
-        <v>5.021365570367083E-18</v>
+        <v>0</v>
       </c>
       <c r="BA18">
-        <v>-12.67179709055496</v>
+        <v>-14.662973288702601</v>
       </c>
       <c r="BB18">
-        <v>9.873801456341027</v>
+        <v>9.9019678789736503</v>
       </c>
       <c r="BC18">
         <v>0</v>
@@ -3581,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:56">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3616,10 +3281,10 @@
         <v>62</v>
       </c>
       <c r="L19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" t="s">
         <v>68</v>
-      </c>
-      <c r="M19" t="s">
-        <v>69</v>
       </c>
       <c r="N19">
         <v>10</v>
@@ -3637,25 +3302,25 @@
         <v>76</v>
       </c>
       <c r="U19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V19">
-        <v>309.6168070412068</v>
+        <v>328.69331465725531</v>
       </c>
       <c r="W19">
-        <v>29.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X19">
-        <v>1242.084621399999</v>
+        <v>1581.8030673000001</v>
       </c>
       <c r="Y19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Z19">
-        <v>309.6168070412068</v>
+        <v>328.69331465725531</v>
       </c>
       <c r="AA19">
-        <v>291.6168070412068</v>
+        <v>310.69331465725531</v>
       </c>
       <c r="AB19">
         <v>18</v>
@@ -3667,7 +3332,7 @@
         <v>438</v>
       </c>
       <c r="AE19">
-        <v>6.263990172658476</v>
+        <v>5.6445218781330224</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -3676,49 +3341,49 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0.1392495640639949</v>
+        <v>0.12825933258163491</v>
       </c>
       <c r="AI19">
-        <v>0.1392495640639949</v>
+        <v>0.12825933258163491</v>
       </c>
       <c r="AJ19">
-        <v>0.1311540986494887</v>
+        <v>0.1212355572764487</v>
       </c>
       <c r="AL19">
-        <v>106.0479950548862</v>
+        <v>94.58618752844977</v>
       </c>
       <c r="AM19">
-        <v>185.5688119863207</v>
+        <v>216.1071271288055</v>
       </c>
       <c r="AO19">
-        <v>62.55505383813824</v>
+        <v>80.736806722689082</v>
       </c>
       <c r="AP19">
-        <v>1678.163552344566</v>
+        <v>1862.336656134451</v>
       </c>
       <c r="AQ19">
-        <v>545.3034230990072</v>
+        <v>700.38769336306063</v>
       </c>
       <c r="AR19">
-        <v>2223.466975443574</v>
+        <v>2562.724349497511</v>
       </c>
       <c r="AS19">
-        <v>840.6148316061417</v>
+        <v>998.29628226207092</v>
       </c>
       <c r="AT19">
-        <v>1461.203479451276</v>
+        <v>1617.3926799939279</v>
       </c>
       <c r="AU19">
-        <v>52.69095608971679</v>
+        <v>28.29868389071159</v>
       </c>
       <c r="AV19">
-        <v>193.4691873176189</v>
+        <v>220.22766221142729</v>
       </c>
       <c r="AW19">
-        <v>7.900375331298196</v>
+        <v>4.120535082621827</v>
       </c>
       <c r="AX19">
-        <v>176.7466584248103</v>
+        <v>157.6436458807496</v>
       </c>
       <c r="AY19">
         <v>0</v>
@@ -3727,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>-12.67179709055496</v>
+        <v>-14.662973288702601</v>
       </c>
       <c r="BB19">
-        <v>9.873801456341027</v>
+        <v>9.9019678789736503</v>
       </c>
       <c r="BC19">
         <v>0</v>
@@ -3739,12 +3404,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:56">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>56</v>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
@@ -3765,7 +3430,7 @@
         <v>438</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="J20" t="s">
         <v>62</v>
@@ -3774,10 +3439,10 @@
         <v>62</v>
       </c>
       <c r="L20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N20">
         <v>10</v>
@@ -3795,109 +3460,10 @@
         <v>76</v>
       </c>
       <c r="U20" t="s">
-        <v>77</v>
-      </c>
-      <c r="V20">
-        <v>252.8398938939988</v>
-      </c>
-      <c r="W20">
-        <v>30.98958333333333</v>
-      </c>
-      <c r="X20">
-        <v>1233.145221199999</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z20">
-        <v>252.8398938939988</v>
-      </c>
-      <c r="AA20">
-        <v>234.8398938939988</v>
-      </c>
-      <c r="AB20">
-        <v>18</v>
-      </c>
-      <c r="AC20">
-        <v>18</v>
-      </c>
-      <c r="AD20">
-        <v>438</v>
-      </c>
-      <c r="AE20">
-        <v>6.617335512531104</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0.1177560180691288</v>
-      </c>
-      <c r="AI20">
-        <v>0.1177560180691288</v>
-      </c>
-      <c r="AJ20">
-        <v>0.1093728144037573</v>
-      </c>
-      <c r="AL20">
-        <v>105.8134854485876</v>
-      </c>
-      <c r="AM20">
-        <v>129.0264084454112</v>
-      </c>
-      <c r="AO20">
-        <v>58.69714285714286</v>
-      </c>
-      <c r="AP20">
-        <v>1588.554786151262</v>
-      </c>
-      <c r="AQ20">
-        <v>558.5957208026064</v>
-      </c>
-      <c r="AR20">
-        <v>2147.150506953868</v>
-      </c>
-      <c r="AS20">
-        <v>1167.710296098818</v>
-      </c>
-      <c r="AT20">
-        <v>1108.535388719132</v>
-      </c>
-      <c r="AU20">
-        <v>103.6846074582455</v>
-      </c>
-      <c r="AV20">
-        <v>144.7546272593362</v>
-      </c>
-      <c r="AW20">
-        <v>15.72821881392502</v>
-      </c>
-      <c r="AX20">
-        <v>176.3558090809794</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>-14.06128093638941</v>
-      </c>
-      <c r="BB20">
-        <v>10.83538828276266</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BD20">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:56">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3932,10 +3498,10 @@
         <v>62</v>
       </c>
       <c r="L21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N21">
         <v>10</v>
@@ -3953,25 +3519,25 @@
         <v>76</v>
       </c>
       <c r="U21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V21">
-        <v>219.9340797337188</v>
+        <v>336.75567537166887</v>
       </c>
       <c r="W21">
-        <v>30.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X21">
-        <v>1228.5403422</v>
+        <v>1579.4276043</v>
       </c>
       <c r="Y21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Z21">
-        <v>219.9340797337188</v>
+        <v>336.75567537166887</v>
       </c>
       <c r="AA21">
-        <v>201.9340797337188</v>
+        <v>318.75567537166887</v>
       </c>
       <c r="AB21">
         <v>18</v>
@@ -3983,7 +3549,7 @@
         <v>438</v>
       </c>
       <c r="AE21">
-        <v>6.617335512531104</v>
+        <v>5.6445218781330224</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -3992,61 +3558,61 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>0.102420158692264</v>
+        <v>0.13140534425315731</v>
       </c>
       <c r="AI21">
-        <v>0.102420158692264</v>
+        <v>0.13140534425315731</v>
       </c>
       <c r="AJ21">
-        <v>0.09403781586166307</v>
+        <v>0.1243815689479711</v>
       </c>
       <c r="AL21">
-        <v>69.15545727104163</v>
+        <v>106.4060359165518</v>
       </c>
       <c r="AM21">
-        <v>132.9733893624076</v>
+        <v>212.349639455117</v>
       </c>
       <c r="AO21">
-        <v>58.69714285714286</v>
+        <v>80.736806722689082</v>
       </c>
       <c r="AP21">
-        <v>1588.554786151262</v>
+        <v>1862.336656134451</v>
       </c>
       <c r="AQ21">
-        <v>558.8162250042872</v>
+        <v>700.3876933630587</v>
       </c>
       <c r="AR21">
-        <v>2147.371011155549</v>
+        <v>2562.7243494975091</v>
       </c>
       <c r="AS21">
-        <v>1167.710296098818</v>
+        <v>998.29628226207092</v>
       </c>
       <c r="AT21">
-        <v>1097.129154787617</v>
+        <v>1618.787222142834</v>
       </c>
       <c r="AU21">
-        <v>92.76525604411968</v>
+        <v>28.605215926118611</v>
       </c>
       <c r="AV21">
-        <v>146.9148218187926</v>
+        <v>216.49648922145511</v>
       </c>
       <c r="AW21">
-        <v>13.94143245638499</v>
+        <v>4.1468497663380566</v>
       </c>
       <c r="AX21">
-        <v>115.259095451736</v>
+        <v>177.343393194253</v>
       </c>
       <c r="AY21">
-        <v>35.59912606277937</v>
+        <v>0</v>
       </c>
       <c r="AZ21">
-        <v>0.1947668997304423</v>
+        <v>0</v>
       </c>
       <c r="BA21">
-        <v>-14.06128093638941</v>
+        <v>-14.662973288702601</v>
       </c>
       <c r="BB21">
-        <v>10.83538828276266</v>
+        <v>9.9019678789736503</v>
       </c>
       <c r="BC21">
         <v>0</v>
@@ -4055,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:56">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4090,10 +3656,10 @@
         <v>62</v>
       </c>
       <c r="L22" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" t="s">
         <v>69</v>
-      </c>
-      <c r="M22" t="s">
-        <v>70</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -4111,25 +3677,25 @@
         <v>76</v>
       </c>
       <c r="U22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="V22">
-        <v>252.829854737865</v>
+        <v>309.60045816523228</v>
       </c>
       <c r="W22">
-        <v>30.98958333333333</v>
+        <v>29.989583333333329</v>
       </c>
       <c r="X22">
-        <v>1232.2678752</v>
+        <v>1246.0415367999999</v>
       </c>
       <c r="Y22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z22">
-        <v>252.829854737865</v>
+        <v>309.60045816523228</v>
       </c>
       <c r="AA22">
-        <v>234.829854737865</v>
+        <v>291.60045816523228</v>
       </c>
       <c r="AB22">
         <v>18</v>
@@ -4141,7 +3707,7 @@
         <v>438</v>
       </c>
       <c r="AE22">
-        <v>6.617335512531104</v>
+        <v>6.2639901726584757</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -4150,49 +3716,49 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>0.1177513424974344</v>
+        <v>0.13924221118843841</v>
       </c>
       <c r="AI22">
-        <v>0.1177513424974344</v>
+        <v>0.13924221118843841</v>
       </c>
       <c r="AJ22">
-        <v>0.1093681388320629</v>
+        <v>0.13114674577393229</v>
       </c>
       <c r="AL22">
-        <v>105.8134854485876</v>
+        <v>106.0479950548862</v>
       </c>
       <c r="AM22">
-        <v>129.0163692892774</v>
+        <v>185.55246311034611</v>
       </c>
       <c r="AO22">
-        <v>58.69714285714286</v>
+        <v>62.555053838138242</v>
       </c>
       <c r="AP22">
-        <v>1588.554786151262</v>
+        <v>1678.1635523445659</v>
       </c>
       <c r="AQ22">
-        <v>558.5957208026069</v>
+        <v>545.30342309900675</v>
       </c>
       <c r="AR22">
-        <v>2147.150506953869</v>
+        <v>2223.4669754435731</v>
       </c>
       <c r="AS22">
-        <v>1167.710296098818</v>
+        <v>840.61483160614171</v>
       </c>
       <c r="AT22">
-        <v>1108.481389353206</v>
+        <v>1461.5274125010319</v>
       </c>
       <c r="AU22">
-        <v>103.6238912631243</v>
+        <v>53.008904277609354</v>
       </c>
       <c r="AV22">
-        <v>144.7389549494254</v>
+        <v>193.52897288876699</v>
       </c>
       <c r="AW22">
-        <v>15.722585660148</v>
+        <v>7.9765097784208603</v>
       </c>
       <c r="AX22">
-        <v>176.3558090809794</v>
+        <v>176.74665842481031</v>
       </c>
       <c r="AY22">
         <v>0</v>
@@ -4201,10 +3767,10 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>-14.06128093638941</v>
+        <v>-12.671797090554961</v>
       </c>
       <c r="BB22">
-        <v>10.83538828276266</v>
+        <v>9.8738014563410275</v>
       </c>
       <c r="BC22">
         <v>0</v>
@@ -4213,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:56">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4248,10 +3814,10 @@
         <v>62</v>
       </c>
       <c r="L23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N23">
         <v>10</v>
@@ -4269,25 +3835,25 @@
         <v>76</v>
       </c>
       <c r="U23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23">
-        <v>258.4026106226393</v>
+        <v>301.32016623969821</v>
       </c>
       <c r="W23">
-        <v>30.98958333333333</v>
+        <v>29.989583333333329</v>
       </c>
       <c r="X23">
-        <v>1150.969615</v>
+        <v>1251.5084781</v>
       </c>
       <c r="Y23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="Z23">
-        <v>258.4026106226393</v>
+        <v>301.32016623969821</v>
       </c>
       <c r="AA23">
-        <v>240.4026106226393</v>
+        <v>283.32016623969821</v>
       </c>
       <c r="AB23">
         <v>18</v>
@@ -4299,7 +3865,7 @@
         <v>438</v>
       </c>
       <c r="AE23">
-        <v>6.506139241770216</v>
+        <v>6.2639901726584757</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -4308,61 +3874,61 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0.1204112896715266</v>
+        <v>0.13551816580481749</v>
       </c>
       <c r="AI23">
-        <v>0.1204112896715266</v>
+        <v>0.13551816580481749</v>
       </c>
       <c r="AJ23">
-        <v>0.1120235910764352</v>
+        <v>0.12742270039031131</v>
       </c>
       <c r="AL23">
-        <v>104.352103293657</v>
+        <v>96.019184680378444</v>
       </c>
       <c r="AM23">
-        <v>136.0505073289823</v>
+        <v>187.30098155931981</v>
       </c>
       <c r="AO23">
-        <v>54.59899159663865</v>
+        <v>62.555053838138242</v>
       </c>
       <c r="AP23">
-        <v>1615.704738151263</v>
+        <v>1678.1635523445659</v>
       </c>
       <c r="AQ23">
-        <v>530.2951205625102</v>
+        <v>545.3034230990072</v>
       </c>
       <c r="AR23">
-        <v>2145.999858713772</v>
+        <v>2223.466975443574</v>
       </c>
       <c r="AS23">
-        <v>1110.784748030245</v>
+        <v>840.61483160614171</v>
       </c>
       <c r="AT23">
-        <v>1141.125348064973</v>
+        <v>1459.5359148160489</v>
       </c>
       <c r="AU23">
-        <v>79.81814842490468</v>
+        <v>51.863017902268773</v>
       </c>
       <c r="AV23">
-        <v>148.8025825356445</v>
+        <v>195.17189077431181</v>
       </c>
       <c r="AW23">
-        <v>12.75207520666219</v>
+        <v>7.8709092149920634</v>
       </c>
       <c r="AX23">
-        <v>173.920172156095</v>
+        <v>160.0319744672974</v>
       </c>
       <c r="AY23">
-        <v>1.4210854715202E-14</v>
+        <v>8.8817841970012523E-16</v>
       </c>
       <c r="AZ23">
-        <v>7.774921526215518E-17</v>
+        <v>5.021365570367083E-18</v>
       </c>
       <c r="BA23">
-        <v>-9.013058559235162</v>
+        <v>-12.671797090554961</v>
       </c>
       <c r="BB23">
-        <v>11.60523589830271</v>
+        <v>9.8738014563410275</v>
       </c>
       <c r="BC23">
         <v>0</v>
@@ -4371,12 +3937,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:56">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>56</v>
+      <c r="B24">
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>57</v>
@@ -4397,7 +3963,7 @@
         <v>438</v>
       </c>
       <c r="I24" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="J24" t="s">
         <v>62</v>
@@ -4406,10 +3972,10 @@
         <v>62</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N24">
         <v>10</v>
@@ -4429,107 +3995,8 @@
       <c r="U24" t="s">
         <v>78</v>
       </c>
-      <c r="V24">
-        <v>226.3805313679387</v>
-      </c>
-      <c r="W24">
-        <v>30.98958333333333</v>
-      </c>
-      <c r="X24">
-        <v>1149.667300100001</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z24">
-        <v>226.3805313679387</v>
-      </c>
-      <c r="AA24">
-        <v>208.3805313679387</v>
-      </c>
-      <c r="AB24">
-        <v>18</v>
-      </c>
-      <c r="AC24">
-        <v>18</v>
-      </c>
-      <c r="AD24">
-        <v>438</v>
-      </c>
-      <c r="AE24">
-        <v>6.506139241770216</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0.1054895369394954</v>
-      </c>
-      <c r="AI24">
-        <v>0.1054895369394954</v>
-      </c>
-      <c r="AJ24">
-        <v>0.09710183834440399</v>
-      </c>
-      <c r="AL24">
-        <v>67.9033589056144</v>
-      </c>
-      <c r="AM24">
-        <v>140.4771724623243</v>
-      </c>
-      <c r="AO24">
-        <v>54.59899159663865</v>
-      </c>
-      <c r="AP24">
-        <v>1615.704738151263</v>
-      </c>
-      <c r="AQ24">
-        <v>530.2951205625113</v>
-      </c>
-      <c r="AR24">
-        <v>2145.999858713774</v>
-      </c>
-      <c r="AS24">
-        <v>1110.784748030245</v>
-      </c>
-      <c r="AT24">
-        <v>1135.257442075306</v>
-      </c>
-      <c r="AU24">
-        <v>75.64269892849707</v>
-      </c>
-      <c r="AV24">
-        <v>152.613272875507</v>
-      </c>
-      <c r="AW24">
-        <v>12.13610041318272</v>
-      </c>
-      <c r="AX24">
-        <v>113.1722648426907</v>
-      </c>
-      <c r="AY24">
-        <v>1.4210854715202E-14</v>
-      </c>
-      <c r="AZ24">
-        <v>7.774921526215518E-17</v>
-      </c>
-      <c r="BA24">
-        <v>-9.013058559235162</v>
-      </c>
-      <c r="BB24">
-        <v>11.60523589830271</v>
-      </c>
-      <c r="BC24">
-        <v>0</v>
-      </c>
-      <c r="BD24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:56">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4564,10 +4031,10 @@
         <v>62</v>
       </c>
       <c r="L25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N25">
         <v>10</v>
@@ -4588,22 +4055,22 @@
         <v>79</v>
       </c>
       <c r="V25">
-        <v>258.410783430172</v>
+        <v>309.61680704120681</v>
       </c>
       <c r="W25">
-        <v>30.98958333333333</v>
+        <v>29.989583333333329</v>
       </c>
       <c r="X25">
-        <v>1139.655518400001</v>
+        <v>1242.0846213999989</v>
       </c>
       <c r="Y25" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Z25">
-        <v>258.410783430172</v>
+        <v>309.61680704120681</v>
       </c>
       <c r="AA25">
-        <v>240.4107834301721</v>
+        <v>291.61680704120681</v>
       </c>
       <c r="AB25">
         <v>18</v>
@@ -4615,7 +4082,7 @@
         <v>438</v>
       </c>
       <c r="AE25">
-        <v>6.506139241770216</v>
+        <v>6.2639901726584757</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -4624,61 +4091,61 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>0.1204150980629855</v>
+        <v>0.13924956406399491</v>
       </c>
       <c r="AI25">
-        <v>0.1204150980629855</v>
+        <v>0.13924956406399491</v>
       </c>
       <c r="AJ25">
-        <v>0.112027399467894</v>
+        <v>0.13115409864948871</v>
       </c>
       <c r="AL25">
-        <v>104.352103293657</v>
+        <v>106.0479950548862</v>
       </c>
       <c r="AM25">
-        <v>136.0586801365151</v>
+        <v>185.5688119863207</v>
       </c>
       <c r="AO25">
-        <v>54.59899159663865</v>
+        <v>62.555053838138242</v>
       </c>
       <c r="AP25">
-        <v>1615.704738151263</v>
+        <v>1678.1635523445659</v>
       </c>
       <c r="AQ25">
-        <v>530.295120562511</v>
+        <v>545.3034230990072</v>
       </c>
       <c r="AR25">
-        <v>2145.999858713773</v>
+        <v>2223.466975443574</v>
       </c>
       <c r="AS25">
-        <v>1110.784748030245</v>
+        <v>840.61483160614171</v>
       </c>
       <c r="AT25">
-        <v>1141.090202355252</v>
+        <v>1461.2034794512761</v>
       </c>
       <c r="AU25">
-        <v>79.78300271518238</v>
+        <v>52.690956089716792</v>
       </c>
       <c r="AV25">
-        <v>148.8092781058309</v>
+        <v>193.46918731761889</v>
       </c>
       <c r="AW25">
-        <v>12.75059796931574</v>
+        <v>7.9003753312981964</v>
       </c>
       <c r="AX25">
-        <v>173.920172156095</v>
+        <v>176.74665842481031</v>
       </c>
       <c r="AY25">
-        <v>1.4210854715202E-14</v>
+        <v>0</v>
       </c>
       <c r="AZ25">
-        <v>7.774921526215518E-17</v>
+        <v>0</v>
       </c>
       <c r="BA25">
-        <v>-9.013058559235162</v>
+        <v>-12.671797090554961</v>
       </c>
       <c r="BB25">
-        <v>11.60523589830271</v>
+        <v>9.8738014563410275</v>
       </c>
       <c r="BC25">
         <v>0</v>
@@ -4687,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:56">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4722,10 +4189,10 @@
         <v>62</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N26">
         <v>10</v>
@@ -4746,22 +4213,22 @@
         <v>77</v>
       </c>
       <c r="V26">
-        <v>291.6912380523453</v>
+        <v>252.83989389399881</v>
       </c>
       <c r="W26">
-        <v>29.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X26">
-        <v>1671.7148753</v>
+        <v>1233.145221199999</v>
       </c>
       <c r="Y26" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Z26">
-        <v>291.6912380523453</v>
+        <v>252.83989389399881</v>
       </c>
       <c r="AA26">
-        <v>273.6912380523453</v>
+        <v>234.83989389399881</v>
       </c>
       <c r="AB26">
         <v>18</v>
@@ -4773,7 +4240,7 @@
         <v>438</v>
       </c>
       <c r="AE26">
-        <v>6.406199293914408</v>
+        <v>6.6173355125311044</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -4782,61 +4249,61 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>0.1304710978013687</v>
+        <v>0.1177560180691288</v>
       </c>
       <c r="AI26">
-        <v>0.1304710978013687</v>
+        <v>0.1177560180691288</v>
       </c>
       <c r="AJ26">
-        <v>0.1224198454699456</v>
+        <v>0.1093728144037573</v>
       </c>
       <c r="AL26">
-        <v>106.2488981630981</v>
+        <v>105.8134854485876</v>
       </c>
       <c r="AM26">
-        <v>167.4423398892472</v>
+        <v>129.02640844541119</v>
       </c>
       <c r="AO26">
-        <v>64.35567905522751</v>
+        <v>58.697142857142858</v>
       </c>
       <c r="AP26">
-        <v>1640.910548940604</v>
+        <v>1588.5547861512621</v>
       </c>
       <c r="AQ26">
-        <v>594.7664934678279</v>
+        <v>558.59572080260637</v>
       </c>
       <c r="AR26">
-        <v>2235.677042408432</v>
+        <v>2147.150506953868</v>
       </c>
       <c r="AS26">
-        <v>987.6318419771399</v>
+        <v>1167.7102960988179</v>
       </c>
       <c r="AT26">
-        <v>1303.884247377488</v>
+        <v>1108.535388719132</v>
       </c>
       <c r="AU26">
-        <v>30.01430670550037</v>
+        <v>103.68460745824549</v>
       </c>
       <c r="AV26">
-        <v>172.1558933809763</v>
+        <v>144.75462725933619</v>
       </c>
       <c r="AW26">
-        <v>4.713553491729062</v>
+        <v>15.72821881392502</v>
       </c>
       <c r="AX26">
-        <v>177.0814969384968</v>
+        <v>176.35580908097941</v>
       </c>
       <c r="AY26">
-        <v>7.105427357601002E-15</v>
+        <v>0</v>
       </c>
       <c r="AZ26">
-        <v>4.017092456293666E-17</v>
+        <v>0</v>
       </c>
       <c r="BA26">
-        <v>-11.5999000202558</v>
+        <v>-14.06128093638941</v>
       </c>
       <c r="BB26">
-        <v>15.29257621962125</v>
+        <v>10.83538828276266</v>
       </c>
       <c r="BC26">
         <v>0</v>
@@ -4845,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:56">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4880,10 +4347,10 @@
         <v>62</v>
       </c>
       <c r="L27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N27">
         <v>10</v>
@@ -4904,22 +4371,22 @@
         <v>78</v>
       </c>
       <c r="V27">
-        <v>282.8832075257965</v>
+        <v>219.93407973371879</v>
       </c>
       <c r="W27">
-        <v>29.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X27">
-        <v>1808.4235336</v>
+        <v>1228.5403421999999</v>
       </c>
       <c r="Y27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Z27">
-        <v>282.8832075257965</v>
+        <v>219.93407973371879</v>
       </c>
       <c r="AA27">
-        <v>264.8832075257965</v>
+        <v>201.93407973371879</v>
       </c>
       <c r="AB27">
         <v>18</v>
@@ -4931,7 +4398,7 @@
         <v>438</v>
       </c>
       <c r="AE27">
-        <v>6.406199293914408</v>
+        <v>6.6173355125311044</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -4940,61 +4407,61 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0.1265313380062509</v>
+        <v>0.10242015869226399</v>
       </c>
       <c r="AI27">
-        <v>0.1265313380062509</v>
+        <v>0.10242015869226399</v>
       </c>
       <c r="AJ27">
-        <v>0.1184800856748277</v>
+        <v>9.4037815861663071E-2</v>
       </c>
       <c r="AL27">
-        <v>89.83841580950137</v>
+        <v>69.155457271041627</v>
       </c>
       <c r="AM27">
-        <v>175.0447917162951</v>
+        <v>132.9733893624076</v>
       </c>
       <c r="AO27">
-        <v>64.35567905522751</v>
+        <v>58.697142857142858</v>
       </c>
       <c r="AP27">
-        <v>1640.910548940604</v>
+        <v>1588.5547861512621</v>
       </c>
       <c r="AQ27">
-        <v>594.7664934678276</v>
+        <v>558.81622500428716</v>
       </c>
       <c r="AR27">
-        <v>2235.677042408432</v>
+        <v>2147.3710111555488</v>
       </c>
       <c r="AS27">
-        <v>987.6318419771399</v>
+        <v>1167.7102960988179</v>
       </c>
       <c r="AT27">
-        <v>1295.770922264446</v>
+        <v>1097.1291547876169</v>
       </c>
       <c r="AU27">
-        <v>24.72967841652775</v>
+        <v>92.765256044119681</v>
       </c>
       <c r="AV27">
-        <v>178.9412947991871</v>
+        <v>146.9148218187926</v>
       </c>
       <c r="AW27">
-        <v>3.896503082892031</v>
+        <v>13.941432456384989</v>
       </c>
       <c r="AX27">
-        <v>149.7306930158356</v>
+        <v>115.259095451736</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>35.599126062779369</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>0.19476689973044231</v>
       </c>
       <c r="BA27">
-        <v>-11.5999000202558</v>
+        <v>-14.06128093638941</v>
       </c>
       <c r="BB27">
-        <v>15.29257621962125</v>
+        <v>10.83538828276266</v>
       </c>
       <c r="BC27">
         <v>0</v>
@@ -5003,12 +4470,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:56">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>56</v>
+      <c r="B28">
+        <v>0</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
@@ -5029,7 +4496,7 @@
         <v>438</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="J28" t="s">
         <v>62</v>
@@ -5038,10 +4505,10 @@
         <v>62</v>
       </c>
       <c r="L28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N28">
         <v>10</v>
@@ -5059,109 +4526,10 @@
         <v>76</v>
       </c>
       <c r="U28" t="s">
-        <v>79</v>
-      </c>
-      <c r="V28">
-        <v>291.7117582021184</v>
-      </c>
-      <c r="W28">
-        <v>29.98958333333333</v>
-      </c>
-      <c r="X28">
-        <v>1285.328403699999</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z28">
-        <v>291.7117582021184</v>
-      </c>
-      <c r="AA28">
-        <v>273.7117582021184</v>
-      </c>
-      <c r="AB28">
-        <v>18</v>
-      </c>
-      <c r="AC28">
-        <v>18</v>
-      </c>
-      <c r="AD28">
-        <v>438</v>
-      </c>
-      <c r="AE28">
-        <v>6.406199293914408</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0.1304802762960188</v>
-      </c>
-      <c r="AI28">
-        <v>0.1304802762960188</v>
-      </c>
-      <c r="AJ28">
-        <v>0.1224290239645957</v>
-      </c>
-      <c r="AL28">
-        <v>106.248898163098</v>
-      </c>
-      <c r="AM28">
-        <v>167.4628600390203</v>
-      </c>
-      <c r="AO28">
-        <v>64.35567905522751</v>
-      </c>
-      <c r="AP28">
-        <v>1640.910548940604</v>
-      </c>
-      <c r="AQ28">
-        <v>594.7664934678285</v>
-      </c>
-      <c r="AR28">
-        <v>2235.677042408432</v>
-      </c>
-      <c r="AS28">
-        <v>987.6318419771399</v>
-      </c>
-      <c r="AT28">
-        <v>1303.880840012598</v>
-      </c>
-      <c r="AU28">
-        <v>30.00263029589359</v>
-      </c>
-      <c r="AV28">
-        <v>172.1694802354543</v>
-      </c>
-      <c r="AW28">
-        <v>4.70662019643399</v>
-      </c>
-      <c r="AX28">
-        <v>177.0814969384967</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>-11.5999000202558</v>
-      </c>
-      <c r="BB28">
-        <v>15.29257621962125</v>
-      </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
-      <c r="BD28">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:56">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5196,10 +4564,10 @@
         <v>62</v>
       </c>
       <c r="L29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N29">
         <v>10</v>
@@ -5217,25 +4585,25 @@
         <v>76</v>
       </c>
       <c r="U29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V29">
-        <v>371.0707336608246</v>
+        <v>252.82985473786499</v>
       </c>
       <c r="W29">
-        <v>30.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X29">
-        <v>2147.8768852</v>
+        <v>1232.2678751999999</v>
       </c>
       <c r="Y29" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="Z29">
-        <v>371.0707336608246</v>
+        <v>252.82985473786499</v>
       </c>
       <c r="AA29">
-        <v>353.0707336608246</v>
+        <v>234.82985473786499</v>
       </c>
       <c r="AB29">
         <v>18</v>
@@ -5247,7 +4615,7 @@
         <v>438</v>
       </c>
       <c r="AE29">
-        <v>5.64777870663823</v>
+        <v>6.6173355125311044</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -5256,49 +4624,49 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0.1377756135973515</v>
+        <v>0.11775134249743439</v>
       </c>
       <c r="AI29">
-        <v>0.1377756135973515</v>
+        <v>0.11775134249743439</v>
       </c>
       <c r="AJ29">
-        <v>0.1310923566875809</v>
+        <v>0.10936813883206289</v>
       </c>
       <c r="AL29">
-        <v>108.1378678442093</v>
+        <v>105.8134854485876</v>
       </c>
       <c r="AM29">
-        <v>244.9328658166153</v>
+        <v>129.01636928927741</v>
       </c>
       <c r="AO29">
-        <v>91.74050420168068</v>
+        <v>58.697142857142858</v>
       </c>
       <c r="AP29">
-        <v>1861.262727529411</v>
+        <v>1588.5547861512621</v>
       </c>
       <c r="AQ29">
-        <v>832.0349031040988</v>
+        <v>558.59572080260693</v>
       </c>
       <c r="AR29">
-        <v>2693.297630633509</v>
+        <v>2147.1505069538689</v>
       </c>
       <c r="AS29">
-        <v>932.8271981736434</v>
+        <v>1167.7102960988179</v>
       </c>
       <c r="AT29">
-        <v>1789.774906910991</v>
+        <v>1108.4813893532059</v>
       </c>
       <c r="AU29">
-        <v>3.100465863283429</v>
+        <v>103.62389126312431</v>
       </c>
       <c r="AV29">
-        <v>245.3850399823672</v>
+        <v>144.73895494942539</v>
       </c>
       <c r="AW29">
-        <v>0.45217416575188</v>
+        <v>15.722585660148001</v>
       </c>
       <c r="AX29">
-        <v>180.2297797403488</v>
+        <v>176.35580908097941</v>
       </c>
       <c r="AY29">
         <v>0</v>
@@ -5307,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>-12.71181636181905</v>
+        <v>-14.06128093638941</v>
       </c>
       <c r="BB29">
-        <v>11.8668929871788</v>
+        <v>10.83538828276266</v>
       </c>
       <c r="BC29">
         <v>0</v>
@@ -5319,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:56">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5354,10 +4722,10 @@
         <v>62</v>
       </c>
       <c r="L30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N30">
         <v>10</v>
@@ -5375,25 +4743,25 @@
         <v>76</v>
       </c>
       <c r="U30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V30">
-        <v>357.0728202517668</v>
+        <v>258.40261062263932</v>
       </c>
       <c r="W30">
-        <v>30.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X30">
-        <v>2291.2894742</v>
+        <v>1150.969615</v>
       </c>
       <c r="Y30" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="Z30">
-        <v>357.0728202517668</v>
+        <v>258.40261062263932</v>
       </c>
       <c r="AA30">
-        <v>339.0728202517668</v>
+        <v>240.40261062263929</v>
       </c>
       <c r="AB30">
         <v>18</v>
@@ -5405,7 +4773,7 @@
         <v>438</v>
       </c>
       <c r="AE30">
-        <v>5.64777870663823</v>
+        <v>6.5061392417702164</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -5414,61 +4782,61 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>0.1325782996243817</v>
+        <v>0.1204112896715266</v>
       </c>
       <c r="AI30">
-        <v>0.1325782996243817</v>
+        <v>0.1204112896715266</v>
       </c>
       <c r="AJ30">
-        <v>0.1258950427146111</v>
+        <v>0.1120235910764352</v>
       </c>
       <c r="AL30">
-        <v>87.27483502431234</v>
+        <v>104.352103293657</v>
       </c>
       <c r="AM30">
-        <v>252.103477749422</v>
+        <v>136.05050732898229</v>
       </c>
       <c r="AO30">
-        <v>91.74050420168068</v>
+        <v>54.598991596638648</v>
       </c>
       <c r="AP30">
-        <v>1861.262727529411</v>
+        <v>1615.704738151263</v>
       </c>
       <c r="AQ30">
-        <v>832.0349031041002</v>
+        <v>530.29512056251019</v>
       </c>
       <c r="AR30">
-        <v>2693.297630633511</v>
+        <v>2145.999858713772</v>
       </c>
       <c r="AS30">
-        <v>932.8271981736434</v>
+        <v>1110.7847480302451</v>
       </c>
       <c r="AT30">
-        <v>1789.493750963983</v>
+        <v>1141.125348064973</v>
       </c>
       <c r="AU30">
-        <v>2.505414643025416</v>
+        <v>79.818148424904678</v>
       </c>
       <c r="AV30">
-        <v>252.4628355920148</v>
+        <v>148.80258253564449</v>
       </c>
       <c r="AW30">
-        <v>0.3593578425928335</v>
+        <v>12.752075206662189</v>
       </c>
       <c r="AX30">
-        <v>145.4580583738539</v>
+        <v>173.92017215609499</v>
       </c>
       <c r="AY30">
-        <v>55.83734615998992</v>
+        <v>1.4210854715202001E-14</v>
       </c>
       <c r="AZ30">
-        <v>0.3054925219674811</v>
+        <v>7.774921526215518E-17</v>
       </c>
       <c r="BA30">
-        <v>-12.71181636181905</v>
+        <v>-9.0130585592351622</v>
       </c>
       <c r="BB30">
-        <v>11.8668929871788</v>
+        <v>11.605235898302711</v>
       </c>
       <c r="BC30">
         <v>0</v>
@@ -5477,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:56">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5512,10 +4880,10 @@
         <v>62</v>
       </c>
       <c r="L31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N31">
         <v>10</v>
@@ -5533,25 +4901,25 @@
         <v>76</v>
       </c>
       <c r="U31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V31">
-        <v>371.0884886405262</v>
+        <v>226.38053136793869</v>
       </c>
       <c r="W31">
-        <v>30.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X31">
-        <v>1749.0054482</v>
+        <v>1149.6673001000011</v>
       </c>
       <c r="Y31" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="Z31">
-        <v>371.0884886405262</v>
+        <v>226.38053136793869</v>
       </c>
       <c r="AA31">
-        <v>353.0884886405262</v>
+        <v>208.38053136793869</v>
       </c>
       <c r="AB31">
         <v>18</v>
@@ -5563,7 +4931,7 @@
         <v>438</v>
       </c>
       <c r="AE31">
-        <v>5.64777870663823</v>
+        <v>6.5061392417702164</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -5572,61 +4940,61 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>0.1377822058801722</v>
+        <v>0.10548953693949541</v>
       </c>
       <c r="AI31">
-        <v>0.1377822058801722</v>
+        <v>0.10548953693949541</v>
       </c>
       <c r="AJ31">
-        <v>0.1310989489704016</v>
+        <v>9.7101838344403987E-2</v>
       </c>
       <c r="AL31">
-        <v>108.1378678442093</v>
+        <v>67.903358905614397</v>
       </c>
       <c r="AM31">
-        <v>244.9506207963169</v>
+        <v>140.47717246232429</v>
       </c>
       <c r="AO31">
-        <v>91.74050420168068</v>
+        <v>54.598991596638648</v>
       </c>
       <c r="AP31">
-        <v>1861.262727529411</v>
+        <v>1615.704738151263</v>
       </c>
       <c r="AQ31">
-        <v>832.0349031040994</v>
+        <v>530.29512056251133</v>
       </c>
       <c r="AR31">
-        <v>2693.29763063351</v>
+        <v>2145.9998587137738</v>
       </c>
       <c r="AS31">
-        <v>932.8271981736434</v>
+        <v>1110.7847480302451</v>
       </c>
       <c r="AT31">
-        <v>1789.717774479305</v>
+        <v>1135.257442075306</v>
       </c>
       <c r="AU31">
-        <v>3.043577363570798</v>
+        <v>75.642698928497069</v>
       </c>
       <c r="AV31">
-        <v>245.397137215943</v>
+        <v>152.61327287550699</v>
       </c>
       <c r="AW31">
-        <v>0.4465164196260386</v>
+        <v>12.136100413182721</v>
       </c>
       <c r="AX31">
-        <v>180.2297797403488</v>
+        <v>113.17226484269069</v>
       </c>
       <c r="AY31">
-        <v>0</v>
+        <v>1.4210854715202001E-14</v>
       </c>
       <c r="AZ31">
-        <v>0</v>
+        <v>7.774921526215518E-17</v>
       </c>
       <c r="BA31">
-        <v>-12.71181636181905</v>
+        <v>-9.0130585592351622</v>
       </c>
       <c r="BB31">
-        <v>11.8668929871788</v>
+        <v>11.605235898302711</v>
       </c>
       <c r="BC31">
         <v>0</v>
@@ -5635,12 +5003,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:56">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>56</v>
+      <c r="B32">
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
@@ -5661,7 +5029,7 @@
         <v>438</v>
       </c>
       <c r="I32" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="J32" t="s">
         <v>62</v>
@@ -5670,10 +5038,10 @@
         <v>62</v>
       </c>
       <c r="L32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N32">
         <v>10</v>
@@ -5691,109 +5059,10 @@
         <v>76</v>
       </c>
       <c r="U32" t="s">
-        <v>77</v>
-      </c>
-      <c r="V32">
-        <v>407.1922477075026</v>
-      </c>
-      <c r="W32">
-        <v>29.98958333333333</v>
-      </c>
-      <c r="X32">
-        <v>1484.2914929</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z32">
-        <v>407.1922477075026</v>
-      </c>
-      <c r="AA32">
-        <v>389.1922477075026</v>
-      </c>
-      <c r="AB32">
-        <v>18</v>
-      </c>
-      <c r="AC32">
-        <v>18</v>
-      </c>
-      <c r="AD32">
-        <v>438</v>
-      </c>
-      <c r="AE32">
-        <v>5.968670304251937</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0.1618649594744506</v>
-      </c>
-      <c r="AI32">
-        <v>0.1618649594744506</v>
-      </c>
-      <c r="AJ32">
-        <v>0.1547096924305824</v>
-      </c>
-      <c r="AL32">
-        <v>122.26998</v>
-      </c>
-      <c r="AM32">
-        <v>266.9222677075026</v>
-      </c>
-      <c r="AO32">
-        <v>79.36088919763807</v>
-      </c>
-      <c r="AP32">
-        <v>1761.196290656481</v>
-      </c>
-      <c r="AQ32">
-        <v>754.4330897207806</v>
-      </c>
-      <c r="AR32">
-        <v>2515.629380377261</v>
-      </c>
-      <c r="AS32">
-        <v>626.1831707214252</v>
-      </c>
-      <c r="AT32">
-        <v>1926.367484176971</v>
-      </c>
-      <c r="AU32">
-        <v>11.82770902834942</v>
-      </c>
-      <c r="AV32">
-        <v>268.5565339093008</v>
-      </c>
-      <c r="AW32">
-        <v>1.634266201798189</v>
-      </c>
-      <c r="AX32">
-        <v>203.7833</v>
-      </c>
-      <c r="AY32">
-        <v>3.552713678800501E-15</v>
-      </c>
-      <c r="AZ32">
-        <v>2.008546228146833E-17</v>
-      </c>
-      <c r="BA32">
-        <v>-61.13808536617337</v>
-      </c>
-      <c r="BB32">
-        <v>52.16011448297026</v>
-      </c>
-      <c r="BC32">
-        <v>0</v>
-      </c>
-      <c r="BD32">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:56">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5828,10 +5097,10 @@
         <v>62</v>
       </c>
       <c r="L33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N33">
         <v>10</v>
@@ -5849,25 +5118,25 @@
         <v>76</v>
       </c>
       <c r="U33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V33">
-        <v>395.9272443063484</v>
+        <v>258.41078343017199</v>
       </c>
       <c r="W33">
-        <v>29.98958333333333</v>
+        <v>30.989583333333329</v>
       </c>
       <c r="X33">
-        <v>1470.9388826</v>
+        <v>1139.655518400001</v>
       </c>
       <c r="Y33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Z33">
-        <v>395.9272443063484</v>
+        <v>258.41078343017199</v>
       </c>
       <c r="AA33">
-        <v>377.9272443063484</v>
+        <v>240.4107834301721</v>
       </c>
       <c r="AB33">
         <v>18</v>
@@ -5879,7 +5148,7 @@
         <v>438</v>
       </c>
       <c r="AE33">
-        <v>5.968670304251937</v>
+        <v>6.5061392417702164</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -5888,61 +5157,61 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>0.1573869534974872</v>
+        <v>0.1204150980629855</v>
       </c>
       <c r="AI33">
-        <v>0.1573869534974872</v>
+        <v>0.1204150980629855</v>
       </c>
       <c r="AJ33">
-        <v>0.150231686453619</v>
+        <v>0.112027399467894</v>
       </c>
       <c r="AL33">
-        <v>109.3652981661021</v>
+        <v>104.352103293657</v>
       </c>
       <c r="AM33">
-        <v>268.5619461402462</v>
+        <v>136.05868013651511</v>
       </c>
       <c r="AO33">
-        <v>79.36088919763807</v>
+        <v>54.598991596638648</v>
       </c>
       <c r="AP33">
-        <v>1761.196290656481</v>
+        <v>1615.704738151263</v>
       </c>
       <c r="AQ33">
-        <v>754.4330897207797</v>
+        <v>530.29512056251099</v>
       </c>
       <c r="AR33">
-        <v>2515.629380377261</v>
+        <v>2145.9998587137729</v>
       </c>
       <c r="AS33">
-        <v>626.1831707214252</v>
+        <v>1110.7847480302451</v>
       </c>
       <c r="AT33">
-        <v>1925.862262224345</v>
+        <v>1141.0902023552519</v>
       </c>
       <c r="AU33">
-        <v>11.83870845181618</v>
+        <v>79.783002715182377</v>
       </c>
       <c r="AV33">
-        <v>270.1988318849845</v>
+        <v>148.80927810583091</v>
       </c>
       <c r="AW33">
-        <v>1.636885744738337</v>
+        <v>12.75059796931574</v>
       </c>
       <c r="AX33">
-        <v>182.2754969435036</v>
+        <v>173.92017215609499</v>
       </c>
       <c r="AY33">
-        <v>3.552713678800501E-15</v>
+        <v>1.4210854715202001E-14</v>
       </c>
       <c r="AZ33">
-        <v>2.008546228146833E-17</v>
+        <v>7.774921526215518E-17</v>
       </c>
       <c r="BA33">
-        <v>-61.13808536617337</v>
+        <v>-9.0130585592351622</v>
       </c>
       <c r="BB33">
-        <v>52.16011448297026</v>
+        <v>11.605235898302711</v>
       </c>
       <c r="BC33">
         <v>0</v>
@@ -5951,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:56">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5986,10 +5255,10 @@
         <v>62</v>
       </c>
       <c r="L34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N34">
         <v>10</v>
@@ -6007,25 +5276,25 @@
         <v>76</v>
       </c>
       <c r="U34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="V34">
-        <v>407.2004744779421</v>
+        <v>291.69123805234528</v>
       </c>
       <c r="W34">
-        <v>29.98958333333333</v>
+        <v>29.989583333333329</v>
       </c>
       <c r="X34">
-        <v>1458.429696800001</v>
+        <v>1671.7148752999999</v>
       </c>
       <c r="Y34" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Z34">
-        <v>407.2004744779421</v>
+        <v>291.69123805234528</v>
       </c>
       <c r="AA34">
-        <v>389.2004744779421</v>
+        <v>273.69123805234528</v>
       </c>
       <c r="AB34">
         <v>18</v>
@@ -6037,7 +5306,7 @@
         <v>438</v>
       </c>
       <c r="AE34">
-        <v>5.968670304251937</v>
+        <v>6.4061992939144083</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -6046,61 +5315,61 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>0.1618682297377508</v>
+        <v>0.1304710978013687</v>
       </c>
       <c r="AI34">
-        <v>0.1618682297377508</v>
+        <v>0.1304710978013687</v>
       </c>
       <c r="AJ34">
-        <v>0.1547129626938825</v>
+        <v>0.1224198454699456</v>
       </c>
       <c r="AL34">
-        <v>122.26998</v>
+        <v>106.2488981630981</v>
       </c>
       <c r="AM34">
-        <v>266.9304944779421</v>
+        <v>167.44233988924719</v>
       </c>
       <c r="AO34">
-        <v>79.36088919763807</v>
+        <v>64.355679055227512</v>
       </c>
       <c r="AP34">
-        <v>1761.196290656481</v>
+        <v>1640.910548940604</v>
       </c>
       <c r="AQ34">
-        <v>754.43308972078</v>
+        <v>594.7664934678279</v>
       </c>
       <c r="AR34">
-        <v>2515.629380377261</v>
+        <v>2235.677042408432</v>
       </c>
       <c r="AS34">
-        <v>626.1831707214252</v>
+        <v>987.63184197713986</v>
       </c>
       <c r="AT34">
-        <v>1926.452532257326</v>
+        <v>1303.884247377488</v>
       </c>
       <c r="AU34">
-        <v>11.91275710870359</v>
+        <v>30.01430670550037</v>
       </c>
       <c r="AV34">
-        <v>268.5760643200935</v>
+        <v>172.15589338097629</v>
       </c>
       <c r="AW34">
-        <v>1.645569842151344</v>
+        <v>4.713553491729062</v>
       </c>
       <c r="AX34">
-        <v>203.7833</v>
+        <v>177.0814969384968</v>
       </c>
       <c r="AY34">
-        <v>3.552713678800501E-15</v>
+        <v>7.1054273576010019E-15</v>
       </c>
       <c r="AZ34">
-        <v>2.008546228146833E-17</v>
+        <v>4.0170924562936658E-17</v>
       </c>
       <c r="BA34">
-        <v>-61.13808536617337</v>
+        <v>-11.5999000202558</v>
       </c>
       <c r="BB34">
-        <v>52.16011448297026</v>
+        <v>15.29257621962125</v>
       </c>
       <c r="BC34">
         <v>0</v>
@@ -6109,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:56">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6144,10 +5413,10 @@
         <v>62</v>
       </c>
       <c r="L35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N35">
         <v>10</v>
@@ -6165,25 +5434,25 @@
         <v>76</v>
       </c>
       <c r="U35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V35">
-        <v>344.8006664567063</v>
+        <v>282.88320752579648</v>
       </c>
       <c r="W35">
-        <v>29.98958333333333</v>
+        <v>29.989583333333329</v>
       </c>
       <c r="X35">
-        <v>1170.1833546</v>
+        <v>1808.4235335999999</v>
       </c>
       <c r="Y35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="Z35">
-        <v>344.8006664567063</v>
+        <v>282.88320752579648</v>
       </c>
       <c r="AA35">
-        <v>326.8006664567063</v>
+        <v>264.88320752579648</v>
       </c>
       <c r="AB35">
         <v>18</v>
@@ -6195,7 +5464,7 @@
         <v>438</v>
       </c>
       <c r="AE35">
-        <v>6.943021896517559</v>
+        <v>6.4061992939144083</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -6204,49 +5473,49 @@
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>0.1670764269726453</v>
+        <v>0.12653133800625091</v>
       </c>
       <c r="AI35">
-        <v>0.1670764269726453</v>
+        <v>0.12653133800625091</v>
       </c>
       <c r="AJ35">
-        <v>0.1583543565764002</v>
+        <v>0.11848008567482771</v>
       </c>
       <c r="AL35">
-        <v>106.6033800307256</v>
+        <v>89.83841580950137</v>
       </c>
       <c r="AM35">
-        <v>220.1972864259807</v>
+        <v>175.04479171629509</v>
       </c>
       <c r="AO35">
-        <v>58.68704411253908</v>
+        <v>64.355679055227512</v>
       </c>
       <c r="AP35">
-        <v>1514.038146022922</v>
+        <v>1640.910548940604</v>
       </c>
       <c r="AQ35">
-        <v>549.6920444315273</v>
+        <v>594.76649346782756</v>
       </c>
       <c r="AR35">
-        <v>2063.73019045445</v>
+        <v>2235.677042408432</v>
       </c>
       <c r="AS35">
-        <v>475.3545887162526</v>
+        <v>987.63184197713986</v>
       </c>
       <c r="AT35">
-        <v>1648.930025132564</v>
+        <v>1295.770922264446</v>
       </c>
       <c r="AU35">
-        <v>34.94166193822475</v>
+        <v>24.729678416527751</v>
       </c>
       <c r="AV35">
-        <v>224.8416556577073</v>
+        <v>178.94129479918709</v>
       </c>
       <c r="AW35">
-        <v>4.644369231726664</v>
+        <v>3.8965030828920311</v>
       </c>
       <c r="AX35">
-        <v>177.6723000512094</v>
+        <v>149.73069301583561</v>
       </c>
       <c r="AY35">
         <v>0</v>
@@ -6255,10 +5524,10 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>-16.59457687080194</v>
+        <v>-11.5999000202558</v>
       </c>
       <c r="BB35">
-        <v>11.74345269436844</v>
+        <v>15.29257621962125</v>
       </c>
       <c r="BC35">
         <v>0</v>
@@ -6267,12 +5536,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:56">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>56</v>
+      <c r="B36">
+        <v>0</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -6293,7 +5562,7 @@
         <v>438</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="J36" t="s">
         <v>62</v>
@@ -6302,10 +5571,10 @@
         <v>62</v>
       </c>
       <c r="L36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N36">
         <v>10</v>
@@ -6325,107 +5594,8 @@
       <c r="U36" t="s">
         <v>78</v>
       </c>
-      <c r="V36">
-        <v>344.8350671069247</v>
-      </c>
-      <c r="W36">
-        <v>29.98958333333333</v>
-      </c>
-      <c r="X36">
-        <v>1153.9346424</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z36">
-        <v>344.8350671069247</v>
-      </c>
-      <c r="AA36">
-        <v>326.8350671069247</v>
-      </c>
-      <c r="AB36">
-        <v>18</v>
-      </c>
-      <c r="AC36">
-        <v>18</v>
-      </c>
-      <c r="AD36">
-        <v>438</v>
-      </c>
-      <c r="AE36">
-        <v>6.943021896517559</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0.167093096133361</v>
-      </c>
-      <c r="AI36">
-        <v>0.167093096133361</v>
-      </c>
-      <c r="AJ36">
-        <v>0.1583710257371159</v>
-      </c>
-      <c r="AL36">
-        <v>106.6033800307256</v>
-      </c>
-      <c r="AM36">
-        <v>220.231687076199</v>
-      </c>
-      <c r="AO36">
-        <v>58.68704411253908</v>
-      </c>
-      <c r="AP36">
-        <v>1514.038146022922</v>
-      </c>
-      <c r="AQ36">
-        <v>549.6920444315273</v>
-      </c>
-      <c r="AR36">
-        <v>2063.73019045445</v>
-      </c>
-      <c r="AS36">
-        <v>475.3545887162526</v>
-      </c>
-      <c r="AT36">
-        <v>1648.471044517936</v>
-      </c>
-      <c r="AU36">
-        <v>34.49225917563329</v>
-      </c>
-      <c r="AV36">
-        <v>224.7931740594113</v>
-      </c>
-      <c r="AW36">
-        <v>4.561486983212262</v>
-      </c>
-      <c r="AX36">
-        <v>177.6723000512094</v>
-      </c>
-      <c r="AY36">
-        <v>0</v>
-      </c>
-      <c r="AZ36">
-        <v>0</v>
-      </c>
-      <c r="BA36">
-        <v>-16.59457687080194</v>
-      </c>
-      <c r="BB36">
-        <v>11.74345269436844</v>
-      </c>
-      <c r="BC36">
-        <v>0</v>
-      </c>
-      <c r="BD36">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:56">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6460,10 +5630,10 @@
         <v>62</v>
       </c>
       <c r="L37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N37">
         <v>10</v>
@@ -6484,22 +5654,22 @@
         <v>79</v>
       </c>
       <c r="V37">
-        <v>344.7856503110191</v>
+        <v>291.7117582021184</v>
       </c>
       <c r="W37">
-        <v>29.98958333333333</v>
+        <v>29.989583333333329</v>
       </c>
       <c r="X37">
-        <v>1122.2175209</v>
+        <v>1285.3284036999989</v>
       </c>
       <c r="Y37" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="Z37">
-        <v>344.7856503110191</v>
+        <v>291.7117582021184</v>
       </c>
       <c r="AA37">
-        <v>326.7856503110191</v>
+        <v>273.7117582021184</v>
       </c>
       <c r="AB37">
         <v>18</v>
@@ -6511,7 +5681,7 @@
         <v>438</v>
       </c>
       <c r="AE37">
-        <v>6.943021896517559</v>
+        <v>6.4061992939144083</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -6520,70 +5690,1673 @@
         <v>0</v>
       </c>
       <c r="AH37">
-        <v>0.1670691507571029</v>
+        <v>0.1304802762960188</v>
       </c>
       <c r="AI37">
-        <v>0.1670691507571029</v>
+        <v>0.1304802762960188</v>
       </c>
       <c r="AJ37">
-        <v>0.1583470803608578</v>
+        <v>0.12242902396459571</v>
       </c>
       <c r="AL37">
+        <v>106.248898163098</v>
+      </c>
+      <c r="AM37">
+        <v>167.46286003902031</v>
+      </c>
+      <c r="AO37">
+        <v>64.355679055227512</v>
+      </c>
+      <c r="AP37">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AQ37">
+        <v>594.76649346782847</v>
+      </c>
+      <c r="AR37">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AS37">
+        <v>987.63184197713986</v>
+      </c>
+      <c r="AT37">
+        <v>1303.8808400125979</v>
+      </c>
+      <c r="AU37">
+        <v>30.002630295893589</v>
+      </c>
+      <c r="AV37">
+        <v>172.1694802354543</v>
+      </c>
+      <c r="AW37">
+        <v>4.70662019643399</v>
+      </c>
+      <c r="AX37">
+        <v>177.08149693849671</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>-11.5999000202558</v>
+      </c>
+      <c r="BB37">
+        <v>15.29257621962125</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38">
+        <v>438</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+      <c r="K38" t="s">
+        <v>62</v>
+      </c>
+      <c r="L38" t="s">
+        <v>72</v>
+      </c>
+      <c r="M38" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <v>1.5</v>
+      </c>
+      <c r="P38">
+        <v>0.6</v>
+      </c>
+      <c r="Q38">
+        <v>0.6</v>
+      </c>
+      <c r="R38" t="s">
+        <v>76</v>
+      </c>
+      <c r="U38" t="s">
+        <v>77</v>
+      </c>
+      <c r="V38">
+        <v>371.0707336608246</v>
+      </c>
+      <c r="W38">
+        <v>30.989583333333329</v>
+      </c>
+      <c r="X38">
+        <v>2147.8768851999998</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z38">
+        <v>371.0707336608246</v>
+      </c>
+      <c r="AA38">
+        <v>353.0707336608246</v>
+      </c>
+      <c r="AB38">
+        <v>18</v>
+      </c>
+      <c r="AC38">
+        <v>18</v>
+      </c>
+      <c r="AD38">
+        <v>438</v>
+      </c>
+      <c r="AE38">
+        <v>5.6477787066382303</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0.13777561359735149</v>
+      </c>
+      <c r="AI38">
+        <v>0.13777561359735149</v>
+      </c>
+      <c r="AJ38">
+        <v>0.1310923566875809</v>
+      </c>
+      <c r="AL38">
+        <v>108.1378678442093</v>
+      </c>
+      <c r="AM38">
+        <v>244.9328658166153</v>
+      </c>
+      <c r="AO38">
+        <v>91.740504201680679</v>
+      </c>
+      <c r="AP38">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AQ38">
+        <v>832.03490310409882</v>
+      </c>
+      <c r="AR38">
+        <v>2693.297630633509</v>
+      </c>
+      <c r="AS38">
+        <v>932.82719817364341</v>
+      </c>
+      <c r="AT38">
+        <v>1789.7749069109909</v>
+      </c>
+      <c r="AU38">
+        <v>3.100465863283429</v>
+      </c>
+      <c r="AV38">
+        <v>245.3850399823672</v>
+      </c>
+      <c r="AW38">
+        <v>0.45217416575188002</v>
+      </c>
+      <c r="AX38">
+        <v>180.22977974034879</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>-12.71181636181905</v>
+      </c>
+      <c r="BB38">
+        <v>11.866892987178799</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39">
+        <v>438</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" t="s">
+        <v>72</v>
+      </c>
+      <c r="M39" t="s">
+        <v>73</v>
+      </c>
+      <c r="N39">
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>1.5</v>
+      </c>
+      <c r="P39">
+        <v>0.6</v>
+      </c>
+      <c r="Q39">
+        <v>0.6</v>
+      </c>
+      <c r="R39" t="s">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s">
+        <v>78</v>
+      </c>
+      <c r="V39">
+        <v>357.07282025176681</v>
+      </c>
+      <c r="W39">
+        <v>30.989583333333329</v>
+      </c>
+      <c r="X39">
+        <v>2291.2894741999999</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z39">
+        <v>357.07282025176681</v>
+      </c>
+      <c r="AA39">
+        <v>339.07282025176681</v>
+      </c>
+      <c r="AB39">
+        <v>18</v>
+      </c>
+      <c r="AC39">
+        <v>18</v>
+      </c>
+      <c r="AD39">
+        <v>438</v>
+      </c>
+      <c r="AE39">
+        <v>5.6477787066382303</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0.1325782996243817</v>
+      </c>
+      <c r="AI39">
+        <v>0.1325782996243817</v>
+      </c>
+      <c r="AJ39">
+        <v>0.12589504271461111</v>
+      </c>
+      <c r="AL39">
+        <v>87.274835024312338</v>
+      </c>
+      <c r="AM39">
+        <v>252.10347774942201</v>
+      </c>
+      <c r="AO39">
+        <v>91.740504201680679</v>
+      </c>
+      <c r="AP39">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AQ39">
+        <v>832.03490310410018</v>
+      </c>
+      <c r="AR39">
+        <v>2693.2976306335108</v>
+      </c>
+      <c r="AS39">
+        <v>932.82719817364341</v>
+      </c>
+      <c r="AT39">
+        <v>1789.4937509639831</v>
+      </c>
+      <c r="AU39">
+        <v>2.5054146430254161</v>
+      </c>
+      <c r="AV39">
+        <v>252.46283559201481</v>
+      </c>
+      <c r="AW39">
+        <v>0.35935784259283349</v>
+      </c>
+      <c r="AX39">
+        <v>145.4580583738539</v>
+      </c>
+      <c r="AY39">
+        <v>55.83734615998992</v>
+      </c>
+      <c r="AZ39">
+        <v>0.30549252196748111</v>
+      </c>
+      <c r="BA39">
+        <v>-12.71181636181905</v>
+      </c>
+      <c r="BB39">
+        <v>11.866892987178799</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40">
+        <v>438</v>
+      </c>
+      <c r="I40" t="s">
+        <v>116</v>
+      </c>
+      <c r="J40" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40" t="s">
+        <v>62</v>
+      </c>
+      <c r="L40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M40" t="s">
+        <v>73</v>
+      </c>
+      <c r="N40">
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>1.5</v>
+      </c>
+      <c r="P40">
+        <v>0.6</v>
+      </c>
+      <c r="Q40">
+        <v>0.6</v>
+      </c>
+      <c r="R40" t="s">
+        <v>76</v>
+      </c>
+      <c r="U40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41">
+        <v>438</v>
+      </c>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" t="s">
+        <v>62</v>
+      </c>
+      <c r="K41" t="s">
+        <v>62</v>
+      </c>
+      <c r="L41" t="s">
+        <v>72</v>
+      </c>
+      <c r="M41" t="s">
+        <v>73</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>1.5</v>
+      </c>
+      <c r="P41">
+        <v>0.6</v>
+      </c>
+      <c r="Q41">
+        <v>0.6</v>
+      </c>
+      <c r="R41" t="s">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s">
+        <v>79</v>
+      </c>
+      <c r="V41">
+        <v>371.08848864052618</v>
+      </c>
+      <c r="W41">
+        <v>30.989583333333329</v>
+      </c>
+      <c r="X41">
+        <v>1749.0054482</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z41">
+        <v>371.08848864052618</v>
+      </c>
+      <c r="AA41">
+        <v>353.08848864052618</v>
+      </c>
+      <c r="AB41">
+        <v>18</v>
+      </c>
+      <c r="AC41">
+        <v>18</v>
+      </c>
+      <c r="AD41">
+        <v>438</v>
+      </c>
+      <c r="AE41">
+        <v>5.6477787066382303</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0.1377822058801722</v>
+      </c>
+      <c r="AI41">
+        <v>0.1377822058801722</v>
+      </c>
+      <c r="AJ41">
+        <v>0.13109894897040161</v>
+      </c>
+      <c r="AL41">
+        <v>108.1378678442093</v>
+      </c>
+      <c r="AM41">
+        <v>244.95062079631691</v>
+      </c>
+      <c r="AO41">
+        <v>91.740504201680679</v>
+      </c>
+      <c r="AP41">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AQ41">
+        <v>832.03490310409939</v>
+      </c>
+      <c r="AR41">
+        <v>2693.2976306335099</v>
+      </c>
+      <c r="AS41">
+        <v>932.82719817364341</v>
+      </c>
+      <c r="AT41">
+        <v>1789.717774479305</v>
+      </c>
+      <c r="AU41">
+        <v>3.0435773635707979</v>
+      </c>
+      <c r="AV41">
+        <v>245.39713721594299</v>
+      </c>
+      <c r="AW41">
+        <v>0.44651641962603861</v>
+      </c>
+      <c r="AX41">
+        <v>180.22977974034879</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>-12.71181636181905</v>
+      </c>
+      <c r="BB41">
+        <v>11.866892987178799</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42">
+        <v>438</v>
+      </c>
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42" t="s">
+        <v>62</v>
+      </c>
+      <c r="L42" t="s">
+        <v>73</v>
+      </c>
+      <c r="M42" t="s">
+        <v>74</v>
+      </c>
+      <c r="N42">
+        <v>10</v>
+      </c>
+      <c r="O42">
+        <v>1.5</v>
+      </c>
+      <c r="P42">
+        <v>0.6</v>
+      </c>
+      <c r="Q42">
+        <v>0.6</v>
+      </c>
+      <c r="R42" t="s">
+        <v>76</v>
+      </c>
+      <c r="U42" t="s">
+        <v>77</v>
+      </c>
+      <c r="V42">
+        <v>407.19224770750259</v>
+      </c>
+      <c r="W42">
+        <v>29.989583333333329</v>
+      </c>
+      <c r="X42">
+        <v>1484.2914929000001</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z42">
+        <v>407.19224770750259</v>
+      </c>
+      <c r="AA42">
+        <v>389.19224770750259</v>
+      </c>
+      <c r="AB42">
+        <v>18</v>
+      </c>
+      <c r="AC42">
+        <v>18</v>
+      </c>
+      <c r="AD42">
+        <v>438</v>
+      </c>
+      <c r="AE42">
+        <v>5.9686703042519369</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0.16186495947445059</v>
+      </c>
+      <c r="AI42">
+        <v>0.16186495947445059</v>
+      </c>
+      <c r="AJ42">
+        <v>0.15470969243058241</v>
+      </c>
+      <c r="AL42">
+        <v>122.26998</v>
+      </c>
+      <c r="AM42">
+        <v>266.92226770750261</v>
+      </c>
+      <c r="AO42">
+        <v>79.360889197638073</v>
+      </c>
+      <c r="AP42">
+        <v>1761.1962906564811</v>
+      </c>
+      <c r="AQ42">
+        <v>754.43308972078057</v>
+      </c>
+      <c r="AR42">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AS42">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AT42">
+        <v>1926.3674841769709</v>
+      </c>
+      <c r="AU42">
+        <v>11.827709028349419</v>
+      </c>
+      <c r="AV42">
+        <v>268.55653390930081</v>
+      </c>
+      <c r="AW42">
+        <v>1.634266201798189</v>
+      </c>
+      <c r="AX42">
+        <v>203.7833</v>
+      </c>
+      <c r="AY42">
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="AZ42">
+        <v>2.0085462281468329E-17</v>
+      </c>
+      <c r="BA42">
+        <v>-61.138085366173371</v>
+      </c>
+      <c r="BB42">
+        <v>52.160114482970258</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43">
+        <v>438</v>
+      </c>
+      <c r="I43" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43" t="s">
+        <v>62</v>
+      </c>
+      <c r="L43" t="s">
+        <v>73</v>
+      </c>
+      <c r="M43" t="s">
+        <v>74</v>
+      </c>
+      <c r="N43">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>1.5</v>
+      </c>
+      <c r="P43">
+        <v>0.6</v>
+      </c>
+      <c r="Q43">
+        <v>0.6</v>
+      </c>
+      <c r="R43" t="s">
+        <v>76</v>
+      </c>
+      <c r="U43" t="s">
+        <v>78</v>
+      </c>
+      <c r="V43">
+        <v>395.92724430634843</v>
+      </c>
+      <c r="W43">
+        <v>29.989583333333329</v>
+      </c>
+      <c r="X43">
+        <v>1470.9388825999999</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z43">
+        <v>395.92724430634843</v>
+      </c>
+      <c r="AA43">
+        <v>377.92724430634843</v>
+      </c>
+      <c r="AB43">
+        <v>18</v>
+      </c>
+      <c r="AC43">
+        <v>18</v>
+      </c>
+      <c r="AD43">
+        <v>438</v>
+      </c>
+      <c r="AE43">
+        <v>5.9686703042519369</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0.15738695349748719</v>
+      </c>
+      <c r="AI43">
+        <v>0.15738695349748719</v>
+      </c>
+      <c r="AJ43">
+        <v>0.15023168645361901</v>
+      </c>
+      <c r="AL43">
+        <v>109.36529816610209</v>
+      </c>
+      <c r="AM43">
+        <v>268.56194614024622</v>
+      </c>
+      <c r="AO43">
+        <v>79.360889197638073</v>
+      </c>
+      <c r="AP43">
+        <v>1761.1962906564811</v>
+      </c>
+      <c r="AQ43">
+        <v>754.43308972077966</v>
+      </c>
+      <c r="AR43">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AS43">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AT43">
+        <v>1925.8622622243449</v>
+      </c>
+      <c r="AU43">
+        <v>11.83870845181618</v>
+      </c>
+      <c r="AV43">
+        <v>270.19883188498449</v>
+      </c>
+      <c r="AW43">
+        <v>1.6368857447383369</v>
+      </c>
+      <c r="AX43">
+        <v>182.27549694350361</v>
+      </c>
+      <c r="AY43">
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="AZ43">
+        <v>2.0085462281468329E-17</v>
+      </c>
+      <c r="BA43">
+        <v>-61.138085366173371</v>
+      </c>
+      <c r="BB43">
+        <v>52.160114482970258</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44">
+        <v>438</v>
+      </c>
+      <c r="I44" t="s">
+        <v>116</v>
+      </c>
+      <c r="J44" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44" t="s">
+        <v>62</v>
+      </c>
+      <c r="L44" t="s">
+        <v>73</v>
+      </c>
+      <c r="M44" t="s">
+        <v>74</v>
+      </c>
+      <c r="N44">
+        <v>10</v>
+      </c>
+      <c r="O44">
+        <v>1.5</v>
+      </c>
+      <c r="P44">
+        <v>0.6</v>
+      </c>
+      <c r="Q44">
+        <v>0.6</v>
+      </c>
+      <c r="R44" t="s">
+        <v>76</v>
+      </c>
+      <c r="U44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45">
+        <v>438</v>
+      </c>
+      <c r="I45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" t="s">
+        <v>73</v>
+      </c>
+      <c r="M45" t="s">
+        <v>74</v>
+      </c>
+      <c r="N45">
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <v>1.5</v>
+      </c>
+      <c r="P45">
+        <v>0.6</v>
+      </c>
+      <c r="Q45">
+        <v>0.6</v>
+      </c>
+      <c r="R45" t="s">
+        <v>76</v>
+      </c>
+      <c r="U45" t="s">
+        <v>79</v>
+      </c>
+      <c r="V45">
+        <v>407.20047447794212</v>
+      </c>
+      <c r="W45">
+        <v>29.989583333333329</v>
+      </c>
+      <c r="X45">
+        <v>1458.429696800001</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z45">
+        <v>407.20047447794212</v>
+      </c>
+      <c r="AA45">
+        <v>389.20047447794212</v>
+      </c>
+      <c r="AB45">
+        <v>18</v>
+      </c>
+      <c r="AC45">
+        <v>18</v>
+      </c>
+      <c r="AD45">
+        <v>438</v>
+      </c>
+      <c r="AE45">
+        <v>5.9686703042519369</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0.16186822973775081</v>
+      </c>
+      <c r="AI45">
+        <v>0.16186822973775081</v>
+      </c>
+      <c r="AJ45">
+        <v>0.15471296269388249</v>
+      </c>
+      <c r="AL45">
+        <v>122.26998</v>
+      </c>
+      <c r="AM45">
+        <v>266.93049447794209</v>
+      </c>
+      <c r="AO45">
+        <v>79.360889197638073</v>
+      </c>
+      <c r="AP45">
+        <v>1761.1962906564811</v>
+      </c>
+      <c r="AQ45">
+        <v>754.43308972078</v>
+      </c>
+      <c r="AR45">
+        <v>2515.629380377261</v>
+      </c>
+      <c r="AS45">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AT45">
+        <v>1926.4525322573261</v>
+      </c>
+      <c r="AU45">
+        <v>11.912757108703589</v>
+      </c>
+      <c r="AV45">
+        <v>268.57606432009351</v>
+      </c>
+      <c r="AW45">
+        <v>1.6455698421513441</v>
+      </c>
+      <c r="AX45">
+        <v>203.7833</v>
+      </c>
+      <c r="AY45">
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="AZ45">
+        <v>2.0085462281468329E-17</v>
+      </c>
+      <c r="BA45">
+        <v>-61.138085366173371</v>
+      </c>
+      <c r="BB45">
+        <v>52.160114482970258</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46">
+        <v>438</v>
+      </c>
+      <c r="I46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46" t="s">
+        <v>62</v>
+      </c>
+      <c r="L46" t="s">
+        <v>74</v>
+      </c>
+      <c r="M46" t="s">
+        <v>75</v>
+      </c>
+      <c r="N46">
+        <v>10</v>
+      </c>
+      <c r="O46">
+        <v>1.5</v>
+      </c>
+      <c r="P46">
+        <v>0.6</v>
+      </c>
+      <c r="Q46">
+        <v>0.6</v>
+      </c>
+      <c r="R46" t="s">
+        <v>76</v>
+      </c>
+      <c r="U46" t="s">
+        <v>77</v>
+      </c>
+      <c r="V46">
+        <v>344.80066645670632</v>
+      </c>
+      <c r="W46">
+        <v>29.989583333333329</v>
+      </c>
+      <c r="X46">
+        <v>1170.1833546</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z46">
+        <v>344.80066645670632</v>
+      </c>
+      <c r="AA46">
+        <v>326.80066645670632</v>
+      </c>
+      <c r="AB46">
+        <v>18</v>
+      </c>
+      <c r="AC46">
+        <v>18</v>
+      </c>
+      <c r="AD46">
+        <v>438</v>
+      </c>
+      <c r="AE46">
+        <v>6.9430218965175587</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0.1670764269726453</v>
+      </c>
+      <c r="AI46">
+        <v>0.1670764269726453</v>
+      </c>
+      <c r="AJ46">
+        <v>0.15835435657640021</v>
+      </c>
+      <c r="AL46">
         <v>106.6033800307256</v>
       </c>
-      <c r="AM37">
-        <v>220.1822702802935</v>
-      </c>
-      <c r="AO37">
-        <v>58.68704411253908</v>
-      </c>
-      <c r="AP37">
-        <v>1514.038146022922</v>
-      </c>
-      <c r="AQ37">
-        <v>549.6920444315274</v>
-      </c>
-      <c r="AR37">
-        <v>2063.73019045445</v>
-      </c>
-      <c r="AS37">
-        <v>475.3545887162526</v>
-      </c>
-      <c r="AT37">
-        <v>1648.942828789293</v>
-      </c>
-      <c r="AU37">
-        <v>34.96028882029493</v>
-      </c>
-      <c r="AV37">
-        <v>224.8280596562575</v>
-      </c>
-      <c r="AW37">
-        <v>4.645789375964013</v>
-      </c>
-      <c r="AX37">
-        <v>177.6723000512094</v>
-      </c>
-      <c r="AY37">
-        <v>0</v>
-      </c>
-      <c r="AZ37">
-        <v>0</v>
-      </c>
-      <c r="BA37">
-        <v>-16.59457687080194</v>
-      </c>
-      <c r="BB37">
+      <c r="AM46">
+        <v>220.19728642598071</v>
+      </c>
+      <c r="AO46">
+        <v>58.687044112539077</v>
+      </c>
+      <c r="AP46">
+        <v>1514.0381460229221</v>
+      </c>
+      <c r="AQ46">
+        <v>549.69204443152728</v>
+      </c>
+      <c r="AR46">
+        <v>2063.7301904544502</v>
+      </c>
+      <c r="AS46">
+        <v>475.35458871625258</v>
+      </c>
+      <c r="AT46">
+        <v>1648.930025132564</v>
+      </c>
+      <c r="AU46">
+        <v>34.941661938224748</v>
+      </c>
+      <c r="AV46">
+        <v>224.84165565770729</v>
+      </c>
+      <c r="AW46">
+        <v>4.6443692317266638</v>
+      </c>
+      <c r="AX46">
+        <v>177.67230005120939</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>-16.594576870801941</v>
+      </c>
+      <c r="BB46">
         <v>11.74345269436844</v>
       </c>
-      <c r="BC37">
-        <v>0</v>
-      </c>
-      <c r="BD37">
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47">
+        <v>438</v>
+      </c>
+      <c r="I47" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" t="s">
+        <v>62</v>
+      </c>
+      <c r="K47" t="s">
+        <v>62</v>
+      </c>
+      <c r="L47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47" t="s">
+        <v>75</v>
+      </c>
+      <c r="N47">
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <v>1.5</v>
+      </c>
+      <c r="P47">
+        <v>0.6</v>
+      </c>
+      <c r="Q47">
+        <v>0.6</v>
+      </c>
+      <c r="R47" t="s">
+        <v>76</v>
+      </c>
+      <c r="U47" t="s">
+        <v>78</v>
+      </c>
+      <c r="V47">
+        <v>344.83506710692473</v>
+      </c>
+      <c r="W47">
+        <v>29.989583333333329</v>
+      </c>
+      <c r="X47">
+        <v>1153.9346424</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z47">
+        <v>344.83506710692473</v>
+      </c>
+      <c r="AA47">
+        <v>326.83506710692473</v>
+      </c>
+      <c r="AB47">
+        <v>18</v>
+      </c>
+      <c r="AC47">
+        <v>18</v>
+      </c>
+      <c r="AD47">
+        <v>438</v>
+      </c>
+      <c r="AE47">
+        <v>6.9430218965175587</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0.16709309613336101</v>
+      </c>
+      <c r="AI47">
+        <v>0.16709309613336101</v>
+      </c>
+      <c r="AJ47">
+        <v>0.15837102573711589</v>
+      </c>
+      <c r="AL47">
+        <v>106.6033800307256</v>
+      </c>
+      <c r="AM47">
+        <v>220.23168707619899</v>
+      </c>
+      <c r="AO47">
+        <v>58.687044112539077</v>
+      </c>
+      <c r="AP47">
+        <v>1514.0381460229221</v>
+      </c>
+      <c r="AQ47">
+        <v>549.69204443152728</v>
+      </c>
+      <c r="AR47">
+        <v>2063.7301904544502</v>
+      </c>
+      <c r="AS47">
+        <v>475.35458871625258</v>
+      </c>
+      <c r="AT47">
+        <v>1648.471044517936</v>
+      </c>
+      <c r="AU47">
+        <v>34.492259175633293</v>
+      </c>
+      <c r="AV47">
+        <v>224.79317405941131</v>
+      </c>
+      <c r="AW47">
+        <v>4.5614869832122622</v>
+      </c>
+      <c r="AX47">
+        <v>177.67230005120939</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>-16.594576870801941</v>
+      </c>
+      <c r="BB47">
+        <v>11.74345269436844</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48">
+        <v>438</v>
+      </c>
+      <c r="I48" t="s">
+        <v>116</v>
+      </c>
+      <c r="J48" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48" t="s">
+        <v>62</v>
+      </c>
+      <c r="L48" t="s">
+        <v>74</v>
+      </c>
+      <c r="M48" t="s">
+        <v>75</v>
+      </c>
+      <c r="N48">
+        <v>10</v>
+      </c>
+      <c r="O48">
+        <v>1.5</v>
+      </c>
+      <c r="P48">
+        <v>0.6</v>
+      </c>
+      <c r="Q48">
+        <v>0.6</v>
+      </c>
+      <c r="R48" t="s">
+        <v>76</v>
+      </c>
+      <c r="U48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49">
+        <v>438</v>
+      </c>
+      <c r="I49" t="s">
+        <v>61</v>
+      </c>
+      <c r="J49" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" t="s">
+        <v>62</v>
+      </c>
+      <c r="L49" t="s">
+        <v>74</v>
+      </c>
+      <c r="M49" t="s">
+        <v>75</v>
+      </c>
+      <c r="N49">
+        <v>10</v>
+      </c>
+      <c r="O49">
+        <v>1.5</v>
+      </c>
+      <c r="P49">
+        <v>0.6</v>
+      </c>
+      <c r="Q49">
+        <v>0.6</v>
+      </c>
+      <c r="R49" t="s">
+        <v>76</v>
+      </c>
+      <c r="U49" t="s">
+        <v>79</v>
+      </c>
+      <c r="V49">
+        <v>344.78565031101908</v>
+      </c>
+      <c r="W49">
+        <v>29.989583333333329</v>
+      </c>
+      <c r="X49">
+        <v>1122.2175209</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z49">
+        <v>344.78565031101908</v>
+      </c>
+      <c r="AA49">
+        <v>326.78565031101908</v>
+      </c>
+      <c r="AB49">
+        <v>18</v>
+      </c>
+      <c r="AC49">
+        <v>18</v>
+      </c>
+      <c r="AD49">
+        <v>438</v>
+      </c>
+      <c r="AE49">
+        <v>6.9430218965175587</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0.16706915075710291</v>
+      </c>
+      <c r="AI49">
+        <v>0.16706915075710291</v>
+      </c>
+      <c r="AJ49">
+        <v>0.15834708036085779</v>
+      </c>
+      <c r="AL49">
+        <v>106.6033800307256</v>
+      </c>
+      <c r="AM49">
+        <v>220.18227028029349</v>
+      </c>
+      <c r="AO49">
+        <v>58.687044112539077</v>
+      </c>
+      <c r="AP49">
+        <v>1514.0381460229221</v>
+      </c>
+      <c r="AQ49">
+        <v>549.69204443152739</v>
+      </c>
+      <c r="AR49">
+        <v>2063.7301904544502</v>
+      </c>
+      <c r="AS49">
+        <v>475.35458871625258</v>
+      </c>
+      <c r="AT49">
+        <v>1648.9428287892929</v>
+      </c>
+      <c r="AU49">
+        <v>34.960288820294927</v>
+      </c>
+      <c r="AV49">
+        <v>224.82805965625749</v>
+      </c>
+      <c r="AW49">
+        <v>4.6457893759640134</v>
+      </c>
+      <c r="AX49">
+        <v>177.67230005120939</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>-16.594576870801941</v>
+      </c>
+      <c r="BB49">
+        <v>11.74345269436844</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BD49">
+    <sortCondition ref="L2:L49"/>
+    <sortCondition ref="U2:U49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/experiments/thesis_track_p_grid/6h-bat-Oct-track-p-grid.xlsx
+++ b/output/experiments/thesis_track_p_grid/6h-bat-Oct-track-p-grid.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Coding_project\Energy_grid_new\output\experiments\thesis_track_p_grid\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF07F758-7C48-4D5B-B114-D152A664C470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$U$1:$U$37</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="130">
   <si>
     <t>status</t>
   </si>
@@ -196,6 +187,9 @@
     <t>D</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -211,6 +205,9 @@
     <t>Simple</t>
   </si>
   <si>
+    <t>GT</t>
+  </si>
+  <si>
     <t>unconscious</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
   </si>
   <si>
@@ -280,6 +280,9 @@
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
   </si>
   <si>
@@ -289,6 +292,9 @@
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
   </si>
   <si>
@@ -298,6 +304,9 @@
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
   </si>
   <si>
@@ -307,6 +316,9 @@
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
   </si>
   <si>
@@ -316,6 +328,9 @@
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
   </si>
   <si>
@@ -325,6 +340,9 @@
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
   </si>
   <si>
@@ -334,6 +352,9 @@
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
   </si>
   <si>
@@ -343,6 +364,9 @@
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-by_solution-2023-09-07_006.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
   </si>
   <si>
@@ -352,6 +376,9 @@
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-by_solution-2023-09-07_014.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
   </si>
   <si>
@@ -361,6 +388,9 @@
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
   </si>
   <si>
@@ -370,17 +400,17 @@
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-by_solution-2023-09-07_001.xlsx</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
-  </si>
-  <si>
-    <t>GT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,23 +469,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -497,7 +519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,27 +551,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,24 +585,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -774,19 +760,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A49"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="21" max="21" width="20.3984375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:56">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -956,7 +937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:56">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -964,37 +945,37 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>438</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N2">
         <v>10</v>
@@ -1009,22 +990,22 @@
         <v>0.6</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V2">
         <v>378.8848040257061</v>
       </c>
       <c r="W2">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X2">
         <v>1340.0773592</v>
       </c>
       <c r="Y2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z2">
         <v>378.8848040257061</v>
@@ -1051,46 +1032,46 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.15889770007191981</v>
+        <v>0.1588977000719198</v>
       </c>
       <c r="AI2">
-        <v>0.15889770007191981</v>
+        <v>0.1588977000719198</v>
       </c>
       <c r="AJ2">
-        <v>0.15134881299356531</v>
+        <v>0.1513488129935653</v>
       </c>
       <c r="AL2">
         <v>110.8939531571033</v>
       </c>
       <c r="AM2">
-        <v>249.99085086860279</v>
+        <v>249.9908508686028</v>
       </c>
       <c r="AO2">
-        <v>62.569411764705883</v>
+        <v>62.56941176470588</v>
       </c>
       <c r="AP2">
-        <v>1823.9444797310921</v>
+        <v>1823.944479731092</v>
       </c>
       <c r="AQ2">
         <v>560.5129658720623</v>
       </c>
       <c r="AR2">
-        <v>2384.4574456031542</v>
+        <v>2384.457445603154</v>
       </c>
       <c r="AS2">
-        <v>604.95372599168991</v>
+        <v>604.9537259916899</v>
       </c>
       <c r="AT2">
-        <v>1809.7421586682019</v>
+        <v>1809.742158668202</v>
       </c>
       <c r="AU2">
-        <v>5.3616619098956093</v>
+        <v>5.361661909895609</v>
       </c>
       <c r="AV2">
-        <v>250.60456337623279</v>
+        <v>250.6045633762328</v>
       </c>
       <c r="AW2">
-        <v>0.61371250762998086</v>
+        <v>0.6137125076299809</v>
       </c>
       <c r="AX2">
         <v>184.8232552618388</v>
@@ -1102,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>-11.327159598491241</v>
+        <v>-11.32715959849124</v>
       </c>
       <c r="BB2">
-        <v>17.660444161520939</v>
+        <v>17.66044416152094</v>
       </c>
       <c r="BC2">
         <v>0</v>
@@ -1114,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:56">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1122,37 +1103,37 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>438</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N3">
         <v>10</v>
@@ -1167,28 +1148,28 @@
         <v>0.6</v>
       </c>
       <c r="R3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V3">
-        <v>380.13856251603818</v>
+        <v>380.1385625160382</v>
       </c>
       <c r="W3">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X3">
-        <v>1350.5081992999999</v>
+        <v>1350.5081993</v>
       </c>
       <c r="Y3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z3">
-        <v>380.13856251603818</v>
+        <v>380.1385625160382</v>
       </c>
       <c r="AA3">
-        <v>362.13856251603818</v>
+        <v>362.1385625160382</v>
       </c>
       <c r="AB3">
         <v>18</v>
@@ -1209,49 +1190,49 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.15942350458675561</v>
+        <v>0.1594235045867556</v>
       </c>
       <c r="AI3">
-        <v>0.15942350458675561</v>
+        <v>0.1594235045867556</v>
       </c>
       <c r="AJ3">
-        <v>0.15187461750840109</v>
+        <v>0.1518746175084011</v>
       </c>
       <c r="AL3">
         <v>107.1705136393504</v>
       </c>
       <c r="AM3">
-        <v>254.96804887668779</v>
+        <v>254.9680488766878</v>
       </c>
       <c r="AO3">
-        <v>62.569411764705883</v>
+        <v>62.56941176470588</v>
       </c>
       <c r="AP3">
-        <v>1823.9444797310921</v>
+        <v>1823.944479731092</v>
       </c>
       <c r="AQ3">
-        <v>560.51296587206252</v>
+        <v>560.5129658720625</v>
       </c>
       <c r="AR3">
-        <v>2384.4574456031551</v>
+        <v>2384.457445603155</v>
       </c>
       <c r="AS3">
-        <v>604.95372599168991</v>
+        <v>604.9537259916899</v>
       </c>
       <c r="AT3">
         <v>1807.928779852499</v>
       </c>
       <c r="AU3">
-        <v>5.2663430830967997</v>
+        <v>5.2663430830968</v>
       </c>
       <c r="AV3">
         <v>255.5698674359862</v>
       </c>
       <c r="AW3">
-        <v>0.60181855929841066</v>
+        <v>0.6018185592984107</v>
       </c>
       <c r="AX3">
-        <v>178.61752273225059</v>
+        <v>178.6175227322506</v>
       </c>
       <c r="AY3">
         <v>0</v>
@@ -1260,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>-11.327159598491241</v>
+        <v>-11.32715959849124</v>
       </c>
       <c r="BB3">
-        <v>17.660444161520939</v>
+        <v>17.66044416152094</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -1272,45 +1253,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:56">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>438</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N4">
         <v>10</v>
@@ -1325,13 +1306,112 @@
         <v>0.6</v>
       </c>
       <c r="R4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="V4">
+        <v>369.748148507197</v>
+      </c>
+      <c r="W4">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X4">
+        <v>1325.5407155</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z4">
+        <v>369.748148507197</v>
+      </c>
+      <c r="AA4">
+        <v>351.748148507197</v>
+      </c>
+      <c r="AB4">
+        <v>18</v>
+      </c>
+      <c r="AC4">
+        <v>18</v>
+      </c>
+      <c r="AD4">
+        <v>438</v>
+      </c>
+      <c r="AE4">
+        <v>5.763333323363991</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0.1550659455839725</v>
+      </c>
+      <c r="AI4">
+        <v>0.1550659455839725</v>
+      </c>
+      <c r="AJ4">
+        <v>0.1475170585056179</v>
+      </c>
+      <c r="AL4">
+        <v>100.8328589311577</v>
+      </c>
+      <c r="AM4">
+        <v>250.9152895760392</v>
+      </c>
+      <c r="AO4">
+        <v>62.56941176470588</v>
+      </c>
+      <c r="AP4">
+        <v>1823.944479731092</v>
+      </c>
+      <c r="AQ4">
+        <v>560.5129658720628</v>
+      </c>
+      <c r="AR4">
+        <v>2384.457445603155</v>
+      </c>
+      <c r="AS4">
+        <v>604.9537259916899</v>
+      </c>
+      <c r="AT4">
+        <v>1803.658232962268</v>
+      </c>
+      <c r="AU4">
+        <v>6.728063484491436E-15</v>
+      </c>
+      <c r="AV4">
+        <v>250.9152895760392</v>
+      </c>
+      <c r="AW4">
+        <v>6.613578928202614E-16</v>
+      </c>
+      <c r="AX4">
+        <v>168.0547648852629</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:56">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1339,37 +1419,37 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>438</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>10</v>
@@ -1384,28 +1464,28 @@
         <v>0.6</v>
       </c>
       <c r="R5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V5">
-        <v>378.83183585412257</v>
+        <v>378.8318358541226</v>
       </c>
       <c r="W5">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X5">
-        <v>1350.4106248000001</v>
+        <v>1350.4106248</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Z5">
-        <v>378.83183585412257</v>
+        <v>378.8318358541226</v>
       </c>
       <c r="AA5">
-        <v>360.83183585412257</v>
+        <v>360.8318358541226</v>
       </c>
       <c r="AB5">
         <v>18</v>
@@ -1426,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.15887548614158481</v>
+        <v>0.1588754861415848</v>
       </c>
       <c r="AI5">
-        <v>0.15887548614158481</v>
+        <v>0.1588754861415848</v>
       </c>
       <c r="AJ5">
         <v>0.1513265990632302</v>
@@ -1438,34 +1518,34 @@
         <v>110.8939531571033</v>
       </c>
       <c r="AM5">
-        <v>249.93788269701929</v>
+        <v>249.9378826970193</v>
       </c>
       <c r="AO5">
-        <v>62.569411764705883</v>
+        <v>62.56941176470588</v>
       </c>
       <c r="AP5">
-        <v>1823.9444797310921</v>
+        <v>1823.944479731092</v>
       </c>
       <c r="AQ5">
-        <v>560.51296587206275</v>
+        <v>560.5129658720628</v>
       </c>
       <c r="AR5">
-        <v>2384.4574456031551</v>
+        <v>2384.457445603155</v>
       </c>
       <c r="AS5">
-        <v>604.95372599168991</v>
+        <v>604.9537259916899</v>
       </c>
       <c r="AT5">
-        <v>1809.7391316124799</v>
+        <v>1809.73913161248</v>
       </c>
       <c r="AU5">
-        <v>5.3535874429188368</v>
+        <v>5.353587442918837</v>
       </c>
       <c r="AV5">
         <v>250.5498647811072</v>
       </c>
       <c r="AW5">
-        <v>0.61198208408790089</v>
+        <v>0.6119820840879009</v>
       </c>
       <c r="AX5">
         <v>184.8232552618388</v>
@@ -1477,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>-11.327159598491241</v>
+        <v>-11.32715959849124</v>
       </c>
       <c r="BB5">
-        <v>17.660444161520939</v>
+        <v>17.66044416152094</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -1489,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:56">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1497,37 +1577,37 @@
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>438</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N6">
         <v>10</v>
@@ -1542,28 +1622,28 @@
         <v>0.6</v>
       </c>
       <c r="R6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V6">
-        <v>371.32175674420859</v>
+        <v>371.3217567442086</v>
       </c>
       <c r="W6">
-        <v>27.989583333333329</v>
+        <v>27.98958333333333</v>
       </c>
       <c r="X6">
         <v>1305.371785</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Z6">
-        <v>371.32175674420859</v>
+        <v>371.3217567442086</v>
       </c>
       <c r="AA6">
-        <v>353.32175674420859</v>
+        <v>353.3217567442086</v>
       </c>
       <c r="AB6">
         <v>18</v>
@@ -1575,7 +1655,7 @@
         <v>438</v>
       </c>
       <c r="AE6">
-        <v>5.5411453422738983</v>
+        <v>5.541145342273898</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1590,7 +1670,7 @@
         <v>0.1483240241992024</v>
       </c>
       <c r="AJ6">
-        <v>0.14113394608744551</v>
+        <v>0.1411339460874455</v>
       </c>
       <c r="AL6">
         <v>106.5589862281232</v>
@@ -1599,34 +1679,34 @@
         <v>246.7627705160854</v>
       </c>
       <c r="AO6">
-        <v>69.490137700037224</v>
+        <v>69.49013770003722</v>
       </c>
       <c r="AP6">
         <v>1897.080720803875</v>
       </c>
       <c r="AQ6">
-        <v>606.36913331763617</v>
+        <v>606.3691333176362</v>
       </c>
       <c r="AR6">
-        <v>2503.4498541215112</v>
+        <v>2503.449854121511</v>
       </c>
       <c r="AS6">
-        <v>747.25537164243337</v>
+        <v>747.2553716424334</v>
       </c>
       <c r="AT6">
         <v>1790.179313326584</v>
       </c>
       <c r="AU6">
-        <v>9.0777088142766083</v>
+        <v>9.077708814276608</v>
       </c>
       <c r="AV6">
-        <v>247.89531983741421</v>
+        <v>247.8953198374142</v>
       </c>
       <c r="AW6">
-        <v>1.1325493213287821</v>
+        <v>1.132549321328782</v>
       </c>
       <c r="AX6">
-        <v>177.59831038020519</v>
+        <v>177.5983103802052</v>
       </c>
       <c r="AY6">
         <v>0</v>
@@ -1638,7 +1718,7 @@
         <v>-12.19819991079334</v>
       </c>
       <c r="BB6">
-        <v>11.791396142640981</v>
+        <v>11.79139614264098</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -1647,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:56">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1655,37 +1735,37 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <v>438</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N7">
         <v>10</v>
@@ -1700,28 +1780,28 @@
         <v>0.6</v>
       </c>
       <c r="R7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V7">
-        <v>372.93014045858882</v>
+        <v>372.9301404585888</v>
       </c>
       <c r="W7">
-        <v>27.989583333333329</v>
+        <v>27.98958333333333</v>
       </c>
       <c r="X7">
-        <v>1302.8227922999999</v>
+        <v>1302.8227923</v>
       </c>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z7">
-        <v>372.93014045858882</v>
+        <v>372.9301404585888</v>
       </c>
       <c r="AA7">
-        <v>354.93014045858882</v>
+        <v>354.9301404585888</v>
       </c>
       <c r="AB7">
         <v>18</v>
@@ -1733,7 +1813,7 @@
         <v>438</v>
       </c>
       <c r="AE7">
-        <v>5.5411453422738983</v>
+        <v>5.541145342273898</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1742,49 +1822,49 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.14896649111809521</v>
+        <v>0.1489664911180952</v>
       </c>
       <c r="AI7">
-        <v>0.14896649111809521</v>
+        <v>0.1489664911180952</v>
       </c>
       <c r="AJ7">
-        <v>0.14177641300633831</v>
+        <v>0.1417764130063383</v>
       </c>
       <c r="AL7">
         <v>106.3983912243089</v>
       </c>
       <c r="AM7">
-        <v>248.53174923427991</v>
+        <v>248.5317492342799</v>
       </c>
       <c r="AO7">
-        <v>69.490137700037224</v>
+        <v>69.49013770003722</v>
       </c>
       <c r="AP7">
         <v>1897.080720803875</v>
       </c>
       <c r="AQ7">
-        <v>606.36913331763742</v>
+        <v>606.3691333176374</v>
       </c>
       <c r="AR7">
-        <v>2503.4498541215121</v>
+        <v>2503.449854121512</v>
       </c>
       <c r="AS7">
-        <v>747.25537164243337</v>
+        <v>747.2553716424334</v>
       </c>
       <c r="AT7">
         <v>1789.659897909854</v>
       </c>
       <c r="AU7">
-        <v>9.0559833234982179</v>
+        <v>9.055983323498218</v>
       </c>
       <c r="AV7">
-        <v>249.66240771511031</v>
+        <v>249.6624077151103</v>
       </c>
       <c r="AW7">
         <v>1.130658480830419</v>
       </c>
       <c r="AX7">
-        <v>177.33065204051491</v>
+        <v>177.3306520405149</v>
       </c>
       <c r="AY7">
         <v>0</v>
@@ -1796,7 +1876,7 @@
         <v>-12.19819991079334</v>
       </c>
       <c r="BB7">
-        <v>11.791396142640981</v>
+        <v>11.79139614264098</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -1805,45 +1885,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:56">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8">
         <v>438</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>10</v>
@@ -1858,13 +1938,112 @@
         <v>0.6</v>
       </c>
       <c r="R8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="V8">
+        <v>366.7484616307115</v>
+      </c>
+      <c r="W8">
+        <v>27.98958333333333</v>
+      </c>
+      <c r="X8">
+        <v>1278.2368818</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8">
+        <v>366.7484616307115</v>
+      </c>
+      <c r="AA8">
+        <v>348.7484616307115</v>
+      </c>
+      <c r="AB8">
+        <v>18</v>
+      </c>
+      <c r="AC8">
+        <v>18</v>
+      </c>
+      <c r="AD8">
+        <v>438</v>
+      </c>
+      <c r="AE8">
+        <v>5.541145342273898</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0.1464972270273046</v>
+      </c>
+      <c r="AI8">
+        <v>0.1464972270273046</v>
+      </c>
+      <c r="AJ8">
+        <v>0.1393071489155477</v>
+      </c>
+      <c r="AL8">
+        <v>101.33244</v>
+      </c>
+      <c r="AM8">
+        <v>247.4160216307115</v>
+      </c>
+      <c r="AO8">
+        <v>69.49013770003722</v>
+      </c>
+      <c r="AP8">
+        <v>1897.080720803875</v>
+      </c>
+      <c r="AQ8">
+        <v>606.3691333176364</v>
+      </c>
+      <c r="AR8">
+        <v>2503.449854121511</v>
+      </c>
+      <c r="AS8">
+        <v>747.2553716424334</v>
+      </c>
+      <c r="AT8">
+        <v>1780.703038713253</v>
+      </c>
+      <c r="AU8">
+        <v>1.212775073271217E-14</v>
+      </c>
+      <c r="AV8">
+        <v>247.4160216307115</v>
+      </c>
+      <c r="AW8">
+        <v>1.20653290112794E-15</v>
+      </c>
+      <c r="AX8">
+        <v>168.8874000000001</v>
+      </c>
+      <c r="AY8">
+        <v>8.881784197001252E-16</v>
+      </c>
+      <c r="AZ8">
+        <v>5.380181838231915E-18</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:56">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1872,37 +2051,37 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H9">
         <v>438</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>10</v>
@@ -1917,28 +2096,28 @@
         <v>0.6</v>
       </c>
       <c r="R9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V9">
-        <v>371.30813224594527</v>
+        <v>371.3081322459453</v>
       </c>
       <c r="W9">
-        <v>27.989583333333329</v>
+        <v>27.98958333333333</v>
       </c>
       <c r="X9">
-        <v>1295.9960971999999</v>
+        <v>1295.9960972</v>
       </c>
       <c r="Y9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Z9">
-        <v>371.30813224594527</v>
+        <v>371.3081322459453</v>
       </c>
       <c r="AA9">
-        <v>353.30813224594527</v>
+        <v>353.3081322459453</v>
       </c>
       <c r="AB9">
         <v>18</v>
@@ -1950,7 +2129,7 @@
         <v>438</v>
       </c>
       <c r="AE9">
-        <v>5.5411453422738983</v>
+        <v>5.541145342273898</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1959,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.14831858190993849</v>
+        <v>0.1483185819099385</v>
       </c>
       <c r="AI9">
-        <v>0.14831858190993849</v>
+        <v>0.1483185819099385</v>
       </c>
       <c r="AJ9">
         <v>0.1411285037981817</v>
@@ -1971,37 +2150,37 @@
         <v>106.5589862281232</v>
       </c>
       <c r="AM9">
-        <v>246.74914601782211</v>
+        <v>246.7491460178221</v>
       </c>
       <c r="AO9">
-        <v>69.490137700037224</v>
+        <v>69.49013770003722</v>
       </c>
       <c r="AP9">
         <v>1897.080720803875</v>
       </c>
       <c r="AQ9">
-        <v>606.36913331763765</v>
+        <v>606.3691333176376</v>
       </c>
       <c r="AR9">
         <v>2503.449854121513</v>
       </c>
       <c r="AS9">
-        <v>747.25537164243337</v>
+        <v>747.2553716424334</v>
       </c>
       <c r="AT9">
         <v>1790.140456522292</v>
       </c>
       <c r="AU9">
-        <v>9.0309033139739547</v>
+        <v>9.030903313973955</v>
       </c>
       <c r="AV9">
-        <v>247.87808119676441</v>
+        <v>247.8780811967644</v>
       </c>
       <c r="AW9">
         <v>1.128935178942237</v>
       </c>
       <c r="AX9">
-        <v>177.59831038020519</v>
+        <v>177.5983103802052</v>
       </c>
       <c r="AY9">
         <v>0</v>
@@ -2013,7 +2192,7 @@
         <v>-12.19819991079334</v>
       </c>
       <c r="BB9">
-        <v>11.791396142640981</v>
+        <v>11.79139614264098</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -2022,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:56">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2030,37 +2209,37 @@
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10">
         <v>438</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>10</v>
@@ -2075,28 +2254,28 @@
         <v>0.6</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V10">
-        <v>323.56679325967502</v>
+        <v>323.566793259675</v>
       </c>
       <c r="W10">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X10">
         <v>1325.0476672</v>
       </c>
       <c r="Y10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Z10">
-        <v>323.56679325967502</v>
+        <v>323.566793259675</v>
       </c>
       <c r="AA10">
-        <v>305.56679325967502</v>
+        <v>305.566793259675</v>
       </c>
       <c r="AB10">
         <v>18</v>
@@ -2108,7 +2287,7 @@
         <v>438</v>
       </c>
       <c r="AE10">
-        <v>5.7535935772952618</v>
+        <v>5.753593577295262</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2117,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.13657608043850031</v>
+        <v>0.1365760804385003</v>
       </c>
       <c r="AI10">
-        <v>0.13657608043850031</v>
+        <v>0.1365760804385003</v>
       </c>
       <c r="AJ10">
-        <v>0.12897836182489689</v>
+        <v>0.1289783618248969</v>
       </c>
       <c r="AL10">
         <v>108.6235597207575</v>
@@ -2135,31 +2314,31 @@
         <v>61.60134453781513</v>
       </c>
       <c r="AP10">
-        <v>1827.0320728739489</v>
+        <v>1827.032072873949</v>
       </c>
       <c r="AQ10">
-        <v>542.10015160349826</v>
+        <v>542.1001516034983</v>
       </c>
       <c r="AR10">
-        <v>2369.1322244774469</v>
+        <v>2369.132224477447</v>
       </c>
       <c r="AS10">
-        <v>944.92985455776079</v>
+        <v>944.9298545577608</v>
       </c>
       <c r="AT10">
-        <v>1492.4972294697941</v>
+        <v>1492.497229469794</v>
       </c>
       <c r="AU10">
-        <v>42.594403199349657</v>
+        <v>42.59440319934966</v>
       </c>
       <c r="AV10">
-        <v>202.58062445732659</v>
+        <v>202.5806244573266</v>
       </c>
       <c r="AW10">
-        <v>5.6373909184090616</v>
+        <v>5.637390918409062</v>
       </c>
       <c r="AX10">
-        <v>181.03926620126251</v>
+        <v>181.0392662012625</v>
       </c>
       <c r="AY10">
         <v>0</v>
@@ -2171,7 +2350,7 @@
         <v>-16.17920982126445</v>
       </c>
       <c r="BB10">
-        <v>12.876906861902301</v>
+        <v>12.8769068619023</v>
       </c>
       <c r="BC10">
         <v>0</v>
@@ -2180,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:56">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2188,37 +2367,37 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11">
         <v>438</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -2233,28 +2412,28 @@
         <v>0.6</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V11">
-        <v>315.35315870682552</v>
+        <v>315.3531587068255</v>
       </c>
       <c r="W11">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X11">
         <v>1333.3237262</v>
       </c>
       <c r="Y11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z11">
-        <v>315.35315870682552</v>
+        <v>315.3531587068255</v>
       </c>
       <c r="AA11">
-        <v>297.35315870682552</v>
+        <v>297.3531587068255</v>
       </c>
       <c r="AB11">
         <v>18</v>
@@ -2266,7 +2445,7 @@
         <v>438</v>
       </c>
       <c r="AE11">
-        <v>5.7535935772952618</v>
+        <v>5.753593577295262</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2275,49 +2454,49 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.13310914243141581</v>
+        <v>0.1331091424314158</v>
       </c>
       <c r="AI11">
-        <v>0.13310914243141581</v>
+        <v>0.1331091424314158</v>
       </c>
       <c r="AJ11">
-        <v>0.12551142381781241</v>
+        <v>0.1255114238178124</v>
       </c>
       <c r="AL11">
         <v>98.52452515183704</v>
       </c>
       <c r="AM11">
-        <v>198.82863355498839</v>
+        <v>198.8286335549884</v>
       </c>
       <c r="AO11">
         <v>61.60134453781513</v>
       </c>
       <c r="AP11">
-        <v>1827.0320728739489</v>
+        <v>1827.032072873949</v>
       </c>
       <c r="AQ11">
-        <v>542.10015160349803</v>
+        <v>542.100151603498</v>
       </c>
       <c r="AR11">
         <v>2369.132224477446</v>
       </c>
       <c r="AS11">
-        <v>944.92985455776079</v>
+        <v>944.9298545577608</v>
       </c>
       <c r="AT11">
         <v>1491.050187214372</v>
       </c>
       <c r="AU11">
-        <v>41.900872153418867</v>
+        <v>41.90087215341887</v>
       </c>
       <c r="AV11">
-        <v>204.39207905653021</v>
+        <v>204.3920790565302</v>
       </c>
       <c r="AW11">
-        <v>5.5634455015417643</v>
+        <v>5.563445501541764</v>
       </c>
       <c r="AX11">
-        <v>164.20754191972841</v>
+        <v>164.2075419197284</v>
       </c>
       <c r="AY11">
         <v>0</v>
@@ -2329,7 +2508,7 @@
         <v>-16.17920982126445</v>
       </c>
       <c r="BB11">
-        <v>12.876906861902301</v>
+        <v>12.8769068619023</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -2338,45 +2517,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:56">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12">
         <v>438</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>10</v>
@@ -2391,13 +2570,112 @@
         <v>0.6</v>
       </c>
       <c r="R12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="V12">
+        <v>307.0733044331427</v>
+      </c>
+      <c r="W12">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X12">
+        <v>1299.5072143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z12">
+        <v>307.0733044331427</v>
+      </c>
+      <c r="AA12">
+        <v>289.0733044331427</v>
+      </c>
+      <c r="AB12">
+        <v>18</v>
+      </c>
+      <c r="AC12">
+        <v>18</v>
+      </c>
+      <c r="AD12">
+        <v>438</v>
+      </c>
+      <c r="AE12">
+        <v>5.753593577295262</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0.1296142533795778</v>
+      </c>
+      <c r="AI12">
+        <v>0.1296142533795778</v>
+      </c>
+      <c r="AJ12">
+        <v>0.1220165347659744</v>
+      </c>
+      <c r="AL12">
+        <v>91.65731807860979</v>
+      </c>
+      <c r="AM12">
+        <v>197.4159863545329</v>
+      </c>
+      <c r="AO12">
+        <v>61.60134453781513</v>
+      </c>
+      <c r="AP12">
+        <v>1827.032072873949</v>
+      </c>
+      <c r="AQ12">
+        <v>542.1001516034984</v>
+      </c>
+      <c r="AR12">
+        <v>2369.132224477447</v>
+      </c>
+      <c r="AS12">
+        <v>944.9298545577608</v>
+      </c>
+      <c r="AT12">
+        <v>1476.745440344307</v>
+      </c>
+      <c r="AU12">
+        <v>27.6903096053128</v>
+      </c>
+      <c r="AV12">
+        <v>201.7065001912103</v>
+      </c>
+      <c r="AW12">
+        <v>4.290513836677432</v>
+      </c>
+      <c r="AX12">
+        <v>152.762196797683</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:56">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2405,37 +2683,37 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H13">
         <v>438</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N13">
         <v>10</v>
@@ -2450,22 +2728,22 @@
         <v>0.6</v>
       </c>
       <c r="R13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V13">
         <v>323.5723865595441</v>
       </c>
       <c r="W13">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X13">
-        <v>1330.0328641999999</v>
+        <v>1330.0328642</v>
       </c>
       <c r="Y13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Z13">
         <v>323.5723865595441</v>
@@ -2483,7 +2761,7 @@
         <v>438</v>
       </c>
       <c r="AE13">
-        <v>5.7535935772952618</v>
+        <v>5.753593577295262</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2492,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0.13657844134508509</v>
+        <v>0.1365784413450851</v>
       </c>
       <c r="AI13">
-        <v>0.13657844134508509</v>
+        <v>0.1365784413450851</v>
       </c>
       <c r="AJ13">
         <v>0.1289807227314817</v>
@@ -2510,31 +2788,31 @@
         <v>61.60134453781513</v>
       </c>
       <c r="AP13">
-        <v>1827.0320728739489</v>
+        <v>1827.032072873949</v>
       </c>
       <c r="AQ13">
-        <v>542.10015160349872</v>
+        <v>542.1001516034987</v>
       </c>
       <c r="AR13">
-        <v>2369.1322244774469</v>
+        <v>2369.132224477447</v>
       </c>
       <c r="AS13">
-        <v>944.92985455776079</v>
+        <v>944.9298545577608</v>
       </c>
       <c r="AT13">
-        <v>1492.5820679132371</v>
+        <v>1492.582067913237</v>
       </c>
       <c r="AU13">
-        <v>42.682223289852303</v>
+        <v>42.6822232898523</v>
       </c>
       <c r="AV13">
-        <v>202.57999445055759</v>
+        <v>202.5799944505576</v>
       </c>
       <c r="AW13">
-        <v>5.6311676117710059</v>
+        <v>5.631167611771006</v>
       </c>
       <c r="AX13">
-        <v>181.03926620126251</v>
+        <v>181.0392662012625</v>
       </c>
       <c r="AY13">
         <v>0</v>
@@ -2546,7 +2824,7 @@
         <v>-16.17920982126445</v>
       </c>
       <c r="BB13">
-        <v>12.876906861902301</v>
+        <v>12.8769068619023</v>
       </c>
       <c r="BC13">
         <v>0</v>
@@ -2555,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:56">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2563,37 +2841,37 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H14">
         <v>438</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N14">
         <v>10</v>
@@ -2608,28 +2886,28 @@
         <v>0.6</v>
       </c>
       <c r="R14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V14">
-        <v>331.15407765914722</v>
+        <v>331.1540776591472</v>
       </c>
       <c r="W14">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X14">
         <v>1591.3940097</v>
       </c>
       <c r="Y14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Z14">
-        <v>331.15407765914722</v>
+        <v>331.1540776591472</v>
       </c>
       <c r="AA14">
-        <v>313.15407765914722</v>
+        <v>313.1540776591472</v>
       </c>
       <c r="AB14">
         <v>18</v>
@@ -2641,7 +2919,7 @@
         <v>438</v>
       </c>
       <c r="AE14">
-        <v>5.5275632360570679</v>
+        <v>5.527563236057068</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2650,46 +2928,46 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0.12760516915704531</v>
+        <v>0.1276051691570453</v>
       </c>
       <c r="AI14">
-        <v>0.12760516915704531</v>
+        <v>0.1276051691570453</v>
       </c>
       <c r="AJ14">
         <v>0.1206691439054071</v>
       </c>
       <c r="AL14">
-        <v>108.70139359810121</v>
+        <v>108.7013935981012</v>
       </c>
       <c r="AM14">
-        <v>204.45268406104589</v>
+        <v>204.4526840610459</v>
       </c>
       <c r="AO14">
         <v>79.39423410906565</v>
       </c>
       <c r="AP14">
-        <v>1901.7421513025411</v>
+        <v>1901.742151302541</v>
       </c>
       <c r="AQ14">
-        <v>693.40410998716925</v>
+        <v>693.4041099871692</v>
       </c>
       <c r="AR14">
-        <v>2595.1462612897099</v>
+        <v>2595.14626128971</v>
       </c>
       <c r="AS14">
         <v>1094.388561628032</v>
       </c>
       <c r="AT14">
-        <v>1541.4872741113959</v>
+        <v>1541.487274111396</v>
       </c>
       <c r="AU14">
         <v>14.86485029346197</v>
       </c>
       <c r="AV14">
-        <v>206.67713804982969</v>
+        <v>206.6771380498297</v>
       </c>
       <c r="AW14">
-        <v>2.2244539887837589</v>
+        <v>2.224453988783759</v>
       </c>
       <c r="AX14">
         <v>181.1689893301687</v>
@@ -2701,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>-10.781352368211071</v>
+        <v>-10.78135236821107</v>
       </c>
       <c r="BB14">
-        <v>12.281589330168689</v>
+        <v>12.28158933016869</v>
       </c>
       <c r="BC14">
         <v>0</v>
@@ -2713,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:56">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2721,37 +2999,37 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H15">
         <v>438</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N15">
         <v>10</v>
@@ -2766,28 +3044,28 @@
         <v>0.6</v>
       </c>
       <c r="R15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V15">
-        <v>321.17683394873143</v>
+        <v>321.1768339487314</v>
       </c>
       <c r="W15">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X15">
-        <v>1594.6288245999999</v>
+        <v>1594.6288246</v>
       </c>
       <c r="Y15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Z15">
-        <v>321.17683394873143</v>
+        <v>321.1768339487314</v>
       </c>
       <c r="AA15">
-        <v>303.17683394873143</v>
+        <v>303.1768339487314</v>
       </c>
       <c r="AB15">
         <v>18</v>
@@ -2799,7 +3077,7 @@
         <v>438</v>
       </c>
       <c r="AE15">
-        <v>5.5275632360570679</v>
+        <v>5.527563236057068</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2814,10 +3092,10 @@
         <v>0.123760590583868</v>
       </c>
       <c r="AJ15">
-        <v>0.11682456533222969</v>
+        <v>0.1168245653322297</v>
       </c>
       <c r="AL15">
-        <v>93.973767900250067</v>
+        <v>93.97376790025007</v>
       </c>
       <c r="AM15">
         <v>209.2030660484813</v>
@@ -2826,43 +3104,43 @@
         <v>79.39423410906565</v>
       </c>
       <c r="AP15">
-        <v>1901.7421513025411</v>
+        <v>1901.742151302541</v>
       </c>
       <c r="AQ15">
-        <v>693.40410998716879</v>
+        <v>693.4041099871688</v>
       </c>
       <c r="AR15">
-        <v>2595.1462612897089</v>
+        <v>2595.146261289709</v>
       </c>
       <c r="AS15">
         <v>1094.388561628032</v>
       </c>
       <c r="AT15">
-        <v>1540.0151447820631</v>
+        <v>1540.015144782063</v>
       </c>
       <c r="AU15">
-        <v>14.574973090750619</v>
+        <v>14.57497309075062</v>
       </c>
       <c r="AV15">
         <v>211.403602767715</v>
       </c>
       <c r="AW15">
-        <v>2.2005367192336269</v>
+        <v>2.200536719233627</v>
       </c>
       <c r="AX15">
-        <v>156.62294650041679</v>
+        <v>156.6229465004168</v>
       </c>
       <c r="AY15">
-        <v>7.1054273576010019E-15</v>
+        <v>7.105427357601002E-15</v>
       </c>
       <c r="AZ15">
-        <v>4.0170924562936658E-17</v>
+        <v>4.017092456293666E-17</v>
       </c>
       <c r="BA15">
-        <v>-10.781352368211071</v>
+        <v>-10.78135236821107</v>
       </c>
       <c r="BB15">
-        <v>12.281589330168689</v>
+        <v>12.28158933016869</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -2871,45 +3149,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:56">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H16">
         <v>438</v>
       </c>
       <c r="I16" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N16">
         <v>10</v>
@@ -2924,13 +3202,112 @@
         <v>0.6</v>
       </c>
       <c r="R16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="V16">
+        <v>313.9208512245074</v>
+      </c>
+      <c r="W16">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X16">
+        <v>1550.7455886</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z16">
+        <v>313.9208512245074</v>
+      </c>
+      <c r="AA16">
+        <v>295.9208512245074</v>
+      </c>
+      <c r="AB16">
+        <v>18</v>
+      </c>
+      <c r="AC16">
+        <v>18</v>
+      </c>
+      <c r="AD16">
+        <v>438</v>
+      </c>
+      <c r="AE16">
+        <v>5.527563236057068</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0.1209646083949419</v>
+      </c>
+      <c r="AI16">
+        <v>0.1209646083949419</v>
+      </c>
+      <c r="AJ16">
+        <v>0.1140285831433037</v>
+      </c>
+      <c r="AL16">
+        <v>87.44432555439991</v>
+      </c>
+      <c r="AM16">
+        <v>208.4765256701075</v>
+      </c>
+      <c r="AO16">
+        <v>79.39423410906565</v>
+      </c>
+      <c r="AP16">
+        <v>1901.742151302541</v>
+      </c>
+      <c r="AQ16">
+        <v>693.404109987169</v>
+      </c>
+      <c r="AR16">
+        <v>2595.146261289709</v>
+      </c>
+      <c r="AS16">
+        <v>1094.388561628032</v>
+      </c>
+      <c r="AT16">
+        <v>1533.181709236185</v>
+      </c>
+      <c r="AU16">
+        <v>7.634154223131826</v>
+      </c>
+      <c r="AV16">
+        <v>209.6324121029496</v>
+      </c>
+      <c r="AW16">
+        <v>1.155886432842099</v>
+      </c>
+      <c r="AX16">
+        <v>145.7405425906665</v>
+      </c>
+      <c r="AY16">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AZ16">
+        <v>2.008546228146833E-17</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:56">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2938,37 +3315,37 @@
         <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17">
         <v>438</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N17">
         <v>10</v>
@@ -2983,22 +3360,22 @@
         <v>0.6</v>
       </c>
       <c r="R17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V17">
         <v>331.1741813942341</v>
       </c>
       <c r="W17">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X17">
-        <v>1584.2451851000001</v>
+        <v>1584.2451851</v>
       </c>
       <c r="Y17" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Z17">
         <v>331.1741813942341</v>
@@ -3016,7 +3393,7 @@
         <v>438</v>
       </c>
       <c r="AE17">
-        <v>5.5275632360570679</v>
+        <v>5.527563236057068</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -3025,46 +3402,46 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>0.12761291582450171</v>
+        <v>0.1276129158245017</v>
       </c>
       <c r="AI17">
-        <v>0.12761291582450171</v>
+        <v>0.1276129158245017</v>
       </c>
       <c r="AJ17">
         <v>0.1206768905728635</v>
       </c>
       <c r="AL17">
-        <v>108.70139359810121</v>
+        <v>108.7013935981012</v>
       </c>
       <c r="AM17">
-        <v>204.47278779613291</v>
+        <v>204.4727877961329</v>
       </c>
       <c r="AO17">
         <v>79.39423410906565</v>
       </c>
       <c r="AP17">
-        <v>1901.7421513025411</v>
+        <v>1901.742151302541</v>
       </c>
       <c r="AQ17">
-        <v>693.40410998716902</v>
+        <v>693.404109987169</v>
       </c>
       <c r="AR17">
-        <v>2595.1462612897089</v>
+        <v>2595.146261289709</v>
       </c>
       <c r="AS17">
         <v>1094.388561628032</v>
       </c>
       <c r="AT17">
-        <v>1541.4628570979889</v>
+        <v>1541.462857097989</v>
       </c>
       <c r="AU17">
         <v>14.84169061580886</v>
       </c>
       <c r="AV17">
-        <v>206.69511182565279</v>
+        <v>206.6951118256528</v>
       </c>
       <c r="AW17">
-        <v>2.2223240295198829</v>
+        <v>2.222324029519883</v>
       </c>
       <c r="AX17">
         <v>181.1689893301687</v>
@@ -3076,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>-10.781352368211071</v>
+        <v>-10.78135236821107</v>
       </c>
       <c r="BB17">
-        <v>12.281589330168689</v>
+        <v>12.28158933016869</v>
       </c>
       <c r="BC17">
         <v>0</v>
@@ -3088,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:56">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3096,37 +3473,37 @@
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H18">
         <v>438</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>10</v>
@@ -3141,28 +3518,28 @@
         <v>0.6</v>
       </c>
       <c r="R18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V18">
-        <v>336.73253261117623</v>
+        <v>336.7325326111762</v>
       </c>
       <c r="W18">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X18">
-        <v>1575.4547864000001</v>
+        <v>1575.4547864</v>
       </c>
       <c r="Y18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Z18">
-        <v>336.73253261117623</v>
+        <v>336.7325326111762</v>
       </c>
       <c r="AA18">
-        <v>318.73253261117623</v>
+        <v>318.7325326111762</v>
       </c>
       <c r="AB18">
         <v>18</v>
@@ -3174,7 +3551,7 @@
         <v>438</v>
       </c>
       <c r="AE18">
-        <v>5.6445218781330224</v>
+        <v>5.644521878133022</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -3183,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0.13139631372262159</v>
+        <v>0.1313963137226216</v>
       </c>
       <c r="AI18">
-        <v>0.13139631372262159</v>
+        <v>0.1313963137226216</v>
       </c>
       <c r="AJ18">
         <v>0.1243725384174354</v>
@@ -3195,10 +3572,10 @@
         <v>106.4060359165518</v>
       </c>
       <c r="AM18">
-        <v>212.32649669462441</v>
+        <v>212.3264966946244</v>
       </c>
       <c r="AO18">
-        <v>80.736806722689082</v>
+        <v>80.73680672268908</v>
       </c>
       <c r="AP18">
         <v>1862.336656134451</v>
@@ -3210,19 +3587,19 @@
         <v>2562.72434949751</v>
       </c>
       <c r="AS18">
-        <v>998.29628226207092</v>
+        <v>998.2962822620709</v>
       </c>
       <c r="AT18">
-        <v>1618.6662149256131</v>
+        <v>1618.666214925613</v>
       </c>
       <c r="AU18">
-        <v>28.466576798759409</v>
+        <v>28.46657679875941</v>
       </c>
       <c r="AV18">
         <v>216.4629860111036</v>
       </c>
       <c r="AW18">
-        <v>4.1364893164791656</v>
+        <v>4.136489316479166</v>
       </c>
       <c r="AX18">
         <v>177.343393194253</v>
@@ -3234,10 +3611,10 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>-14.662973288702601</v>
+        <v>-14.6629732887026</v>
       </c>
       <c r="BB18">
-        <v>9.9019678789736503</v>
+        <v>9.90196787897365</v>
       </c>
       <c r="BC18">
         <v>0</v>
@@ -3246,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:56">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3254,37 +3631,37 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H19">
         <v>438</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N19">
         <v>10</v>
@@ -3299,28 +3676,28 @@
         <v>0.6</v>
       </c>
       <c r="R19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V19">
-        <v>328.69331465725531</v>
+        <v>328.6933146572553</v>
       </c>
       <c r="W19">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X19">
-        <v>1581.8030673000001</v>
+        <v>1581.8030673</v>
       </c>
       <c r="Y19" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Z19">
-        <v>328.69331465725531</v>
+        <v>328.6933146572553</v>
       </c>
       <c r="AA19">
-        <v>310.69331465725531</v>
+        <v>310.6933146572553</v>
       </c>
       <c r="AB19">
         <v>18</v>
@@ -3332,7 +3709,7 @@
         <v>438</v>
       </c>
       <c r="AE19">
-        <v>5.6445218781330224</v>
+        <v>5.644521878133022</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -3341,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0.12825933258163491</v>
+        <v>0.1282593325816349</v>
       </c>
       <c r="AI19">
-        <v>0.12825933258163491</v>
+        <v>0.1282593325816349</v>
       </c>
       <c r="AJ19">
         <v>0.1212355572764487</v>
@@ -3356,28 +3733,28 @@
         <v>216.1071271288055</v>
       </c>
       <c r="AO19">
-        <v>80.736806722689082</v>
+        <v>80.73680672268908</v>
       </c>
       <c r="AP19">
         <v>1862.336656134451</v>
       </c>
       <c r="AQ19">
-        <v>700.38769336306063</v>
+        <v>700.3876933630606</v>
       </c>
       <c r="AR19">
         <v>2562.724349497511</v>
       </c>
       <c r="AS19">
-        <v>998.29628226207092</v>
+        <v>998.2962822620709</v>
       </c>
       <c r="AT19">
-        <v>1617.3926799939279</v>
+        <v>1617.392679993928</v>
       </c>
       <c r="AU19">
         <v>28.29868389071159</v>
       </c>
       <c r="AV19">
-        <v>220.22766221142729</v>
+        <v>220.2276622114273</v>
       </c>
       <c r="AW19">
         <v>4.120535082621827</v>
@@ -3392,10 +3769,10 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>-14.662973288702601</v>
+        <v>-14.6629732887026</v>
       </c>
       <c r="BB19">
-        <v>9.9019678789736503</v>
+        <v>9.90196787897365</v>
       </c>
       <c r="BC19">
         <v>0</v>
@@ -3404,45 +3781,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:56">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20">
         <v>438</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N20">
         <v>10</v>
@@ -3457,13 +3834,112 @@
         <v>0.6</v>
       </c>
       <c r="R20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="V20">
+        <v>321.0242096108432</v>
+      </c>
+      <c r="W20">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X20">
+        <v>1599.8333658</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z20">
+        <v>321.0242096108432</v>
+      </c>
+      <c r="AA20">
+        <v>303.0242096108432</v>
+      </c>
+      <c r="AB20">
+        <v>18</v>
+      </c>
+      <c r="AC20">
+        <v>18</v>
+      </c>
+      <c r="AD20">
+        <v>438</v>
+      </c>
+      <c r="AE20">
+        <v>5.644521878133022</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0.1252697668515779</v>
+      </c>
+      <c r="AI20">
+        <v>0.1252697668515779</v>
+      </c>
+      <c r="AJ20">
+        <v>0.1182458236852297</v>
+      </c>
+      <c r="AL20">
+        <v>87.27695724681341</v>
+      </c>
+      <c r="AM20">
+        <v>215.7472523640298</v>
+      </c>
+      <c r="AO20">
+        <v>80.73680672268908</v>
+      </c>
+      <c r="AP20">
+        <v>1862.336656134451</v>
+      </c>
+      <c r="AQ20">
+        <v>700.326448293604</v>
+      </c>
+      <c r="AR20">
+        <v>2562.663104428055</v>
+      </c>
+      <c r="AS20">
+        <v>998.2962822620709</v>
+      </c>
+      <c r="AT20">
+        <v>1608.776379480239</v>
+      </c>
+      <c r="AU20">
+        <v>19.83508162161211</v>
+      </c>
+      <c r="AV20">
+        <v>218.8768846227188</v>
+      </c>
+      <c r="AW20">
+        <v>3.129632258688996</v>
+      </c>
+      <c r="AX20">
+        <v>145.4615954113557</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:56">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3471,37 +3947,37 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H21">
         <v>438</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N21">
         <v>10</v>
@@ -3516,28 +3992,28 @@
         <v>0.6</v>
       </c>
       <c r="R21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V21">
-        <v>336.75567537166887</v>
+        <v>336.7556753716689</v>
       </c>
       <c r="W21">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X21">
         <v>1579.4276043</v>
       </c>
       <c r="Y21" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Z21">
-        <v>336.75567537166887</v>
+        <v>336.7556753716689</v>
       </c>
       <c r="AA21">
-        <v>318.75567537166887</v>
+        <v>318.7556753716689</v>
       </c>
       <c r="AB21">
         <v>18</v>
@@ -3549,7 +4025,7 @@
         <v>438</v>
       </c>
       <c r="AE21">
-        <v>5.6445218781330224</v>
+        <v>5.644521878133022</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -3558,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>0.13140534425315731</v>
+        <v>0.1314053442531573</v>
       </c>
       <c r="AI21">
-        <v>0.13140534425315731</v>
+        <v>0.1314053442531573</v>
       </c>
       <c r="AJ21">
         <v>0.1243815689479711</v>
@@ -3573,7 +4049,7 @@
         <v>212.349639455117</v>
       </c>
       <c r="AO21">
-        <v>80.736806722689082</v>
+        <v>80.73680672268908</v>
       </c>
       <c r="AP21">
         <v>1862.336656134451</v>
@@ -3582,22 +4058,22 @@
         <v>700.3876933630587</v>
       </c>
       <c r="AR21">
-        <v>2562.7243494975091</v>
+        <v>2562.724349497509</v>
       </c>
       <c r="AS21">
-        <v>998.29628226207092</v>
+        <v>998.2962822620709</v>
       </c>
       <c r="AT21">
         <v>1618.787222142834</v>
       </c>
       <c r="AU21">
-        <v>28.605215926118611</v>
+        <v>28.60521592611861</v>
       </c>
       <c r="AV21">
-        <v>216.49648922145511</v>
+        <v>216.4964892214551</v>
       </c>
       <c r="AW21">
-        <v>4.1468497663380566</v>
+        <v>4.146849766338057</v>
       </c>
       <c r="AX21">
         <v>177.343393194253</v>
@@ -3609,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>-14.662973288702601</v>
+        <v>-14.6629732887026</v>
       </c>
       <c r="BB21">
-        <v>9.9019678789736503</v>
+        <v>9.90196787897365</v>
       </c>
       <c r="BC21">
         <v>0</v>
@@ -3621,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:56">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3629,37 +4105,37 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H22">
         <v>438</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -3674,28 +4150,28 @@
         <v>0.6</v>
       </c>
       <c r="R22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V22">
-        <v>309.60045816523228</v>
+        <v>309.6004581652323</v>
       </c>
       <c r="W22">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X22">
-        <v>1246.0415367999999</v>
+        <v>1246.0415368</v>
       </c>
       <c r="Y22" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Z22">
-        <v>309.60045816523228</v>
+        <v>309.6004581652323</v>
       </c>
       <c r="AA22">
-        <v>291.60045816523228</v>
+        <v>291.6004581652323</v>
       </c>
       <c r="AB22">
         <v>18</v>
@@ -3707,7 +4183,7 @@
         <v>438</v>
       </c>
       <c r="AE22">
-        <v>6.2639901726584757</v>
+        <v>6.263990172658476</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -3716,49 +4192,49 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>0.13924221118843841</v>
+        <v>0.1392422111884384</v>
       </c>
       <c r="AI22">
-        <v>0.13924221118843841</v>
+        <v>0.1392422111884384</v>
       </c>
       <c r="AJ22">
-        <v>0.13114674577393229</v>
+        <v>0.1311467457739323</v>
       </c>
       <c r="AL22">
         <v>106.0479950548862</v>
       </c>
       <c r="AM22">
-        <v>185.55246311034611</v>
+        <v>185.5524631103461</v>
       </c>
       <c r="AO22">
-        <v>62.555053838138242</v>
+        <v>62.55505383813824</v>
       </c>
       <c r="AP22">
-        <v>1678.1635523445659</v>
+        <v>1678.163552344566</v>
       </c>
       <c r="AQ22">
-        <v>545.30342309900675</v>
+        <v>545.3034230990067</v>
       </c>
       <c r="AR22">
-        <v>2223.4669754435731</v>
+        <v>2223.466975443573</v>
       </c>
       <c r="AS22">
-        <v>840.61483160614171</v>
+        <v>840.6148316061417</v>
       </c>
       <c r="AT22">
-        <v>1461.5274125010319</v>
+        <v>1461.527412501032</v>
       </c>
       <c r="AU22">
-        <v>53.008904277609354</v>
+        <v>53.00890427760935</v>
       </c>
       <c r="AV22">
-        <v>193.52897288876699</v>
+        <v>193.528972888767</v>
       </c>
       <c r="AW22">
-        <v>7.9765097784208603</v>
+        <v>7.97650977842086</v>
       </c>
       <c r="AX22">
-        <v>176.74665842481031</v>
+        <v>176.7466584248103</v>
       </c>
       <c r="AY22">
         <v>0</v>
@@ -3767,10 +4243,10 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>-12.671797090554961</v>
+        <v>-12.67179709055496</v>
       </c>
       <c r="BB22">
-        <v>9.8738014563410275</v>
+        <v>9.873801456341027</v>
       </c>
       <c r="BC22">
         <v>0</v>
@@ -3779,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:56">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3787,37 +4263,37 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H23">
         <v>438</v>
       </c>
       <c r="I23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N23">
         <v>10</v>
@@ -3832,28 +4308,28 @@
         <v>0.6</v>
       </c>
       <c r="R23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V23">
-        <v>301.32016623969821</v>
+        <v>301.3201662396982</v>
       </c>
       <c r="W23">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X23">
         <v>1251.5084781</v>
       </c>
       <c r="Y23" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Z23">
-        <v>301.32016623969821</v>
+        <v>301.3201662396982</v>
       </c>
       <c r="AA23">
-        <v>283.32016623969821</v>
+        <v>283.3201662396982</v>
       </c>
       <c r="AB23">
         <v>18</v>
@@ -3865,7 +4341,7 @@
         <v>438</v>
       </c>
       <c r="AE23">
-        <v>6.2639901726584757</v>
+        <v>6.263990172658476</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3874,25 +4350,25 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0.13551816580481749</v>
+        <v>0.1355181658048175</v>
       </c>
       <c r="AI23">
-        <v>0.13551816580481749</v>
+        <v>0.1355181658048175</v>
       </c>
       <c r="AJ23">
-        <v>0.12742270039031131</v>
+        <v>0.1274227003903113</v>
       </c>
       <c r="AL23">
-        <v>96.019184680378444</v>
+        <v>96.01918468037844</v>
       </c>
       <c r="AM23">
-        <v>187.30098155931981</v>
+        <v>187.3009815593198</v>
       </c>
       <c r="AO23">
-        <v>62.555053838138242</v>
+        <v>62.55505383813824</v>
       </c>
       <c r="AP23">
-        <v>1678.1635523445659</v>
+        <v>1678.163552344566</v>
       </c>
       <c r="AQ23">
         <v>545.3034230990072</v>
@@ -3901,34 +4377,34 @@
         <v>2223.466975443574</v>
       </c>
       <c r="AS23">
-        <v>840.61483160614171</v>
+        <v>840.6148316061417</v>
       </c>
       <c r="AT23">
-        <v>1459.5359148160489</v>
+        <v>1459.535914816049</v>
       </c>
       <c r="AU23">
-        <v>51.863017902268773</v>
+        <v>51.86301790226877</v>
       </c>
       <c r="AV23">
-        <v>195.17189077431181</v>
+        <v>195.1718907743118</v>
       </c>
       <c r="AW23">
-        <v>7.8709092149920634</v>
+        <v>7.870909214992063</v>
       </c>
       <c r="AX23">
         <v>160.0319744672974</v>
       </c>
       <c r="AY23">
-        <v>8.8817841970012523E-16</v>
+        <v>8.881784197001252E-16</v>
       </c>
       <c r="AZ23">
         <v>5.021365570367083E-18</v>
       </c>
       <c r="BA23">
-        <v>-12.671797090554961</v>
+        <v>-12.67179709055496</v>
       </c>
       <c r="BB23">
-        <v>9.8738014563410275</v>
+        <v>9.873801456341027</v>
       </c>
       <c r="BC23">
         <v>0</v>
@@ -3937,45 +4413,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:56">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H24">
         <v>438</v>
       </c>
       <c r="I24" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N24">
         <v>10</v>
@@ -3990,13 +4466,112 @@
         <v>0.6</v>
       </c>
       <c r="R24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="V24">
+        <v>296.7910788203731</v>
+      </c>
+      <c r="W24">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X24">
+        <v>1284.3850352</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z24">
+        <v>296.7910788203731</v>
+      </c>
+      <c r="AA24">
+        <v>278.7910788203731</v>
+      </c>
+      <c r="AB24">
+        <v>18</v>
+      </c>
+      <c r="AC24">
+        <v>18</v>
+      </c>
+      <c r="AD24">
+        <v>438</v>
+      </c>
+      <c r="AE24">
+        <v>6.263990172658476</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0.1334812174402385</v>
+      </c>
+      <c r="AI24">
+        <v>0.1334812174402385</v>
+      </c>
+      <c r="AJ24">
+        <v>0.1253857520257324</v>
+      </c>
+      <c r="AL24">
+        <v>92.9592219337747</v>
+      </c>
+      <c r="AM24">
+        <v>185.8318568865984</v>
+      </c>
+      <c r="AO24">
+        <v>62.55505383813824</v>
+      </c>
+      <c r="AP24">
+        <v>1678.163552344566</v>
+      </c>
+      <c r="AQ24">
+        <v>545.3034230990069</v>
+      </c>
+      <c r="AR24">
+        <v>2223.466975443573</v>
+      </c>
+      <c r="AS24">
+        <v>840.6148316061417</v>
+      </c>
+      <c r="AT24">
+        <v>1451.101594831535</v>
+      </c>
+      <c r="AU24">
+        <v>43.51492360282727</v>
+      </c>
+      <c r="AV24">
+        <v>193.2942550391221</v>
+      </c>
+      <c r="AW24">
+        <v>7.462398152523759</v>
+      </c>
+      <c r="AX24">
+        <v>154.9320365562912</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:56">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4004,37 +4579,37 @@
         <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H25">
         <v>438</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N25">
         <v>10</v>
@@ -4049,28 +4624,28 @@
         <v>0.6</v>
       </c>
       <c r="R25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V25">
-        <v>309.61680704120681</v>
+        <v>309.6168070412068</v>
       </c>
       <c r="W25">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X25">
-        <v>1242.0846213999989</v>
+        <v>1242.084621399999</v>
       </c>
       <c r="Y25" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="Z25">
-        <v>309.61680704120681</v>
+        <v>309.6168070412068</v>
       </c>
       <c r="AA25">
-        <v>291.61680704120681</v>
+        <v>291.6168070412068</v>
       </c>
       <c r="AB25">
         <v>18</v>
@@ -4082,7 +4657,7 @@
         <v>438</v>
       </c>
       <c r="AE25">
-        <v>6.2639901726584757</v>
+        <v>6.263990172658476</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -4091,13 +4666,13 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>0.13924956406399491</v>
+        <v>0.1392495640639949</v>
       </c>
       <c r="AI25">
-        <v>0.13924956406399491</v>
+        <v>0.1392495640639949</v>
       </c>
       <c r="AJ25">
-        <v>0.13115409864948871</v>
+        <v>0.1311540986494887</v>
       </c>
       <c r="AL25">
         <v>106.0479950548862</v>
@@ -4106,10 +4681,10 @@
         <v>185.5688119863207</v>
       </c>
       <c r="AO25">
-        <v>62.555053838138242</v>
+        <v>62.55505383813824</v>
       </c>
       <c r="AP25">
-        <v>1678.1635523445659</v>
+        <v>1678.163552344566</v>
       </c>
       <c r="AQ25">
         <v>545.3034230990072</v>
@@ -4118,22 +4693,22 @@
         <v>2223.466975443574</v>
       </c>
       <c r="AS25">
-        <v>840.61483160614171</v>
+        <v>840.6148316061417</v>
       </c>
       <c r="AT25">
-        <v>1461.2034794512761</v>
+        <v>1461.203479451276</v>
       </c>
       <c r="AU25">
-        <v>52.690956089716792</v>
+        <v>52.69095608971679</v>
       </c>
       <c r="AV25">
-        <v>193.46918731761889</v>
+        <v>193.4691873176189</v>
       </c>
       <c r="AW25">
-        <v>7.9003753312981964</v>
+        <v>7.900375331298196</v>
       </c>
       <c r="AX25">
-        <v>176.74665842481031</v>
+        <v>176.7466584248103</v>
       </c>
       <c r="AY25">
         <v>0</v>
@@ -4142,10 +4717,10 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>-12.671797090554961</v>
+        <v>-12.67179709055496</v>
       </c>
       <c r="BB25">
-        <v>9.8738014563410275</v>
+        <v>9.873801456341027</v>
       </c>
       <c r="BC25">
         <v>0</v>
@@ -4154,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:56">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4162,37 +4737,37 @@
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H26">
         <v>438</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N26">
         <v>10</v>
@@ -4207,28 +4782,28 @@
         <v>0.6</v>
       </c>
       <c r="R26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V26">
-        <v>252.83989389399881</v>
+        <v>252.8398938939988</v>
       </c>
       <c r="W26">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X26">
         <v>1233.145221199999</v>
       </c>
       <c r="Y26" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="Z26">
-        <v>252.83989389399881</v>
+        <v>252.8398938939988</v>
       </c>
       <c r="AA26">
-        <v>234.83989389399881</v>
+        <v>234.8398938939988</v>
       </c>
       <c r="AB26">
         <v>18</v>
@@ -4240,7 +4815,7 @@
         <v>438</v>
       </c>
       <c r="AE26">
-        <v>6.6173355125311044</v>
+        <v>6.617335512531104</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -4261,37 +4836,37 @@
         <v>105.8134854485876</v>
       </c>
       <c r="AM26">
-        <v>129.02640844541119</v>
+        <v>129.0264084454112</v>
       </c>
       <c r="AO26">
-        <v>58.697142857142858</v>
+        <v>58.69714285714286</v>
       </c>
       <c r="AP26">
-        <v>1588.5547861512621</v>
+        <v>1588.554786151262</v>
       </c>
       <c r="AQ26">
-        <v>558.59572080260637</v>
+        <v>558.5957208026064</v>
       </c>
       <c r="AR26">
         <v>2147.150506953868</v>
       </c>
       <c r="AS26">
-        <v>1167.7102960988179</v>
+        <v>1167.710296098818</v>
       </c>
       <c r="AT26">
         <v>1108.535388719132</v>
       </c>
       <c r="AU26">
-        <v>103.68460745824549</v>
+        <v>103.6846074582455</v>
       </c>
       <c r="AV26">
-        <v>144.75462725933619</v>
+        <v>144.7546272593362</v>
       </c>
       <c r="AW26">
         <v>15.72821881392502</v>
       </c>
       <c r="AX26">
-        <v>176.35580908097941</v>
+        <v>176.3558090809794</v>
       </c>
       <c r="AY26">
         <v>0</v>
@@ -4312,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:56">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4320,37 +4895,37 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H27">
         <v>438</v>
       </c>
       <c r="I27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N27">
         <v>10</v>
@@ -4365,28 +4940,28 @@
         <v>0.6</v>
       </c>
       <c r="R27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V27">
-        <v>219.93407973371879</v>
+        <v>219.9340797337188</v>
       </c>
       <c r="W27">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X27">
-        <v>1228.5403421999999</v>
+        <v>1228.5403422</v>
       </c>
       <c r="Y27" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="Z27">
-        <v>219.93407973371879</v>
+        <v>219.9340797337188</v>
       </c>
       <c r="AA27">
-        <v>201.93407973371879</v>
+        <v>201.9340797337188</v>
       </c>
       <c r="AB27">
         <v>18</v>
@@ -4398,7 +4973,7 @@
         <v>438</v>
       </c>
       <c r="AE27">
-        <v>6.6173355125311044</v>
+        <v>6.617335512531104</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -4407,55 +4982,55 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0.10242015869226399</v>
+        <v>0.102420158692264</v>
       </c>
       <c r="AI27">
-        <v>0.10242015869226399</v>
+        <v>0.102420158692264</v>
       </c>
       <c r="AJ27">
-        <v>9.4037815861663071E-2</v>
+        <v>0.09403781586166307</v>
       </c>
       <c r="AL27">
-        <v>69.155457271041627</v>
+        <v>69.15545727104163</v>
       </c>
       <c r="AM27">
         <v>132.9733893624076</v>
       </c>
       <c r="AO27">
-        <v>58.697142857142858</v>
+        <v>58.69714285714286</v>
       </c>
       <c r="AP27">
-        <v>1588.5547861512621</v>
+        <v>1588.554786151262</v>
       </c>
       <c r="AQ27">
-        <v>558.81622500428716</v>
+        <v>558.8162250042872</v>
       </c>
       <c r="AR27">
-        <v>2147.3710111555488</v>
+        <v>2147.371011155549</v>
       </c>
       <c r="AS27">
-        <v>1167.7102960988179</v>
+        <v>1167.710296098818</v>
       </c>
       <c r="AT27">
-        <v>1097.1291547876169</v>
+        <v>1097.129154787617</v>
       </c>
       <c r="AU27">
-        <v>92.765256044119681</v>
+        <v>92.76525604411968</v>
       </c>
       <c r="AV27">
         <v>146.9148218187926</v>
       </c>
       <c r="AW27">
-        <v>13.941432456384989</v>
+        <v>13.94143245638499</v>
       </c>
       <c r="AX27">
         <v>115.259095451736</v>
       </c>
       <c r="AY27">
-        <v>35.599126062779369</v>
+        <v>35.59912606277937</v>
       </c>
       <c r="AZ27">
-        <v>0.19476689973044231</v>
+        <v>0.1947668997304423</v>
       </c>
       <c r="BA27">
         <v>-14.06128093638941</v>
@@ -4470,45 +5045,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:56">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H28">
         <v>438</v>
       </c>
       <c r="I28" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N28">
         <v>10</v>
@@ -4523,13 +5098,112 @@
         <v>0.6</v>
       </c>
       <c r="R28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="V28">
+        <v>214.5733637162817</v>
+      </c>
+      <c r="W28">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X28">
+        <v>1221.8145105</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z28">
+        <v>214.5733637162817</v>
+      </c>
+      <c r="AA28">
+        <v>196.5733637162817</v>
+      </c>
+      <c r="AB28">
+        <v>18</v>
+      </c>
+      <c r="AC28">
+        <v>18</v>
+      </c>
+      <c r="AD28">
+        <v>438</v>
+      </c>
+      <c r="AE28">
+        <v>6.617335512531104</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0.09992750390128274</v>
+      </c>
+      <c r="AI28">
+        <v>0.09992750390128274</v>
+      </c>
+      <c r="AJ28">
+        <v>0.09154484615164052</v>
+      </c>
+      <c r="AL28">
+        <v>64.25098547525407</v>
+      </c>
+      <c r="AM28">
+        <v>132.7236539183106</v>
+      </c>
+      <c r="AO28">
+        <v>58.69714285714286</v>
+      </c>
+      <c r="AP28">
+        <v>1588.554786151262</v>
+      </c>
+      <c r="AQ28">
+        <v>558.7355527353802</v>
+      </c>
+      <c r="AR28">
+        <v>2147.290338886642</v>
+      </c>
+      <c r="AS28">
+        <v>1167.710296098818</v>
+      </c>
+      <c r="AT28">
+        <v>1090.124250719876</v>
+      </c>
+      <c r="AU28">
+        <v>84.67666525985868</v>
+      </c>
+      <c r="AV28">
+        <v>145.724698224823</v>
+      </c>
+      <c r="AW28">
+        <v>13.00104430651245</v>
+      </c>
+      <c r="AX28">
+        <v>107.0849757920901</v>
+      </c>
+      <c r="AY28">
+        <v>73.34441037616971</v>
+      </c>
+      <c r="AZ28">
+        <v>0.4012756772829766</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:56">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4537,37 +5211,37 @@
         <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H29">
         <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N29">
         <v>10</v>
@@ -4582,28 +5256,28 @@
         <v>0.6</v>
       </c>
       <c r="R29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V29">
-        <v>252.82985473786499</v>
+        <v>252.829854737865</v>
       </c>
       <c r="W29">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X29">
-        <v>1232.2678751999999</v>
+        <v>1232.2678752</v>
       </c>
       <c r="Y29" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Z29">
-        <v>252.82985473786499</v>
+        <v>252.829854737865</v>
       </c>
       <c r="AA29">
-        <v>234.82985473786499</v>
+        <v>234.829854737865</v>
       </c>
       <c r="AB29">
         <v>18</v>
@@ -4615,7 +5289,7 @@
         <v>438</v>
       </c>
       <c r="AE29">
-        <v>6.6173355125311044</v>
+        <v>6.617335512531104</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -4624,49 +5298,49 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0.11775134249743439</v>
+        <v>0.1177513424974344</v>
       </c>
       <c r="AI29">
-        <v>0.11775134249743439</v>
+        <v>0.1177513424974344</v>
       </c>
       <c r="AJ29">
-        <v>0.10936813883206289</v>
+        <v>0.1093681388320629</v>
       </c>
       <c r="AL29">
         <v>105.8134854485876</v>
       </c>
       <c r="AM29">
-        <v>129.01636928927741</v>
+        <v>129.0163692892774</v>
       </c>
       <c r="AO29">
-        <v>58.697142857142858</v>
+        <v>58.69714285714286</v>
       </c>
       <c r="AP29">
-        <v>1588.5547861512621</v>
+        <v>1588.554786151262</v>
       </c>
       <c r="AQ29">
-        <v>558.59572080260693</v>
+        <v>558.5957208026069</v>
       </c>
       <c r="AR29">
-        <v>2147.1505069538689</v>
+        <v>2147.150506953869</v>
       </c>
       <c r="AS29">
-        <v>1167.7102960988179</v>
+        <v>1167.710296098818</v>
       </c>
       <c r="AT29">
-        <v>1108.4813893532059</v>
+        <v>1108.481389353206</v>
       </c>
       <c r="AU29">
-        <v>103.62389126312431</v>
+        <v>103.6238912631243</v>
       </c>
       <c r="AV29">
-        <v>144.73895494942539</v>
+        <v>144.7389549494254</v>
       </c>
       <c r="AW29">
-        <v>15.722585660148001</v>
+        <v>15.722585660148</v>
       </c>
       <c r="AX29">
-        <v>176.35580908097941</v>
+        <v>176.3558090809794</v>
       </c>
       <c r="AY29">
         <v>0</v>
@@ -4687,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:56">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4695,37 +5369,37 @@
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H30">
         <v>438</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N30">
         <v>10</v>
@@ -4740,28 +5414,28 @@
         <v>0.6</v>
       </c>
       <c r="R30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V30">
-        <v>258.40261062263932</v>
+        <v>258.4026106226393</v>
       </c>
       <c r="W30">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X30">
         <v>1150.969615</v>
       </c>
       <c r="Y30" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Z30">
-        <v>258.40261062263932</v>
+        <v>258.4026106226393</v>
       </c>
       <c r="AA30">
-        <v>240.40261062263929</v>
+        <v>240.4026106226393</v>
       </c>
       <c r="AB30">
         <v>18</v>
@@ -4773,7 +5447,7 @@
         <v>438</v>
       </c>
       <c r="AE30">
-        <v>6.5061392417702164</v>
+        <v>6.506139241770216</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -4794,49 +5468,49 @@
         <v>104.352103293657</v>
       </c>
       <c r="AM30">
-        <v>136.05050732898229</v>
+        <v>136.0505073289823</v>
       </c>
       <c r="AO30">
-        <v>54.598991596638648</v>
+        <v>54.59899159663865</v>
       </c>
       <c r="AP30">
         <v>1615.704738151263</v>
       </c>
       <c r="AQ30">
-        <v>530.29512056251019</v>
+        <v>530.2951205625102</v>
       </c>
       <c r="AR30">
         <v>2145.999858713772</v>
       </c>
       <c r="AS30">
-        <v>1110.7847480302451</v>
+        <v>1110.784748030245</v>
       </c>
       <c r="AT30">
         <v>1141.125348064973</v>
       </c>
       <c r="AU30">
-        <v>79.818148424904678</v>
+        <v>79.81814842490468</v>
       </c>
       <c r="AV30">
-        <v>148.80258253564449</v>
+        <v>148.8025825356445</v>
       </c>
       <c r="AW30">
-        <v>12.752075206662189</v>
+        <v>12.75207520666219</v>
       </c>
       <c r="AX30">
-        <v>173.92017215609499</v>
+        <v>173.920172156095</v>
       </c>
       <c r="AY30">
-        <v>1.4210854715202001E-14</v>
+        <v>1.4210854715202E-14</v>
       </c>
       <c r="AZ30">
         <v>7.774921526215518E-17</v>
       </c>
       <c r="BA30">
-        <v>-9.0130585592351622</v>
+        <v>-9.013058559235162</v>
       </c>
       <c r="BB30">
-        <v>11.605235898302711</v>
+        <v>11.60523589830271</v>
       </c>
       <c r="BC30">
         <v>0</v>
@@ -4845,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:56">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4853,37 +5527,37 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H31">
         <v>438</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N31">
         <v>10</v>
@@ -4898,28 +5572,28 @@
         <v>0.6</v>
       </c>
       <c r="R31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V31">
-        <v>226.38053136793869</v>
+        <v>226.3805313679387</v>
       </c>
       <c r="W31">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X31">
-        <v>1149.6673001000011</v>
+        <v>1149.667300100001</v>
       </c>
       <c r="Y31" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="Z31">
-        <v>226.38053136793869</v>
+        <v>226.3805313679387</v>
       </c>
       <c r="AA31">
-        <v>208.38053136793869</v>
+        <v>208.3805313679387</v>
       </c>
       <c r="AB31">
         <v>18</v>
@@ -4931,7 +5605,7 @@
         <v>438</v>
       </c>
       <c r="AE31">
-        <v>6.5061392417702164</v>
+        <v>6.506139241770216</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -4940,61 +5614,61 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>0.10548953693949541</v>
+        <v>0.1054895369394954</v>
       </c>
       <c r="AI31">
-        <v>0.10548953693949541</v>
+        <v>0.1054895369394954</v>
       </c>
       <c r="AJ31">
-        <v>9.7101838344403987E-2</v>
+        <v>0.09710183834440399</v>
       </c>
       <c r="AL31">
-        <v>67.903358905614397</v>
+        <v>67.9033589056144</v>
       </c>
       <c r="AM31">
-        <v>140.47717246232429</v>
+        <v>140.4771724623243</v>
       </c>
       <c r="AO31">
-        <v>54.598991596638648</v>
+        <v>54.59899159663865</v>
       </c>
       <c r="AP31">
         <v>1615.704738151263</v>
       </c>
       <c r="AQ31">
-        <v>530.29512056251133</v>
+        <v>530.2951205625113</v>
       </c>
       <c r="AR31">
-        <v>2145.9998587137738</v>
+        <v>2145.999858713774</v>
       </c>
       <c r="AS31">
-        <v>1110.7847480302451</v>
+        <v>1110.784748030245</v>
       </c>
       <c r="AT31">
         <v>1135.257442075306</v>
       </c>
       <c r="AU31">
-        <v>75.642698928497069</v>
+        <v>75.64269892849707</v>
       </c>
       <c r="AV31">
-        <v>152.61327287550699</v>
+        <v>152.613272875507</v>
       </c>
       <c r="AW31">
-        <v>12.136100413182721</v>
+        <v>12.13610041318272</v>
       </c>
       <c r="AX31">
-        <v>113.17226484269069</v>
+        <v>113.1722648426907</v>
       </c>
       <c r="AY31">
-        <v>1.4210854715202001E-14</v>
+        <v>1.4210854715202E-14</v>
       </c>
       <c r="AZ31">
         <v>7.774921526215518E-17</v>
       </c>
       <c r="BA31">
-        <v>-9.0130585592351622</v>
+        <v>-9.013058559235162</v>
       </c>
       <c r="BB31">
-        <v>11.605235898302711</v>
+        <v>11.60523589830271</v>
       </c>
       <c r="BC31">
         <v>0</v>
@@ -5003,45 +5677,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:56">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H32">
         <v>438</v>
       </c>
       <c r="I32" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="J32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N32">
         <v>10</v>
@@ -5056,13 +5730,112 @@
         <v>0.6</v>
       </c>
       <c r="R32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="V32">
+        <v>221.7503618635772</v>
+      </c>
+      <c r="W32">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X32">
+        <v>1139.1303012</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z32">
+        <v>221.7503618635772</v>
+      </c>
+      <c r="AA32">
+        <v>203.7503618635772</v>
+      </c>
+      <c r="AB32">
+        <v>18</v>
+      </c>
+      <c r="AC32">
+        <v>18</v>
+      </c>
+      <c r="AD32">
+        <v>438</v>
+      </c>
+      <c r="AE32">
+        <v>6.506139241770216</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0.1033319554813417</v>
+      </c>
+      <c r="AI32">
+        <v>0.1033319554813417</v>
+      </c>
+      <c r="AJ32">
+        <v>0.09494425688625022</v>
+      </c>
+      <c r="AL32">
+        <v>64.56278496426776</v>
+      </c>
+      <c r="AM32">
+        <v>139.1875768993094</v>
+      </c>
+      <c r="AO32">
+        <v>54.59899159663865</v>
+      </c>
+      <c r="AP32">
+        <v>1615.704738151263</v>
+      </c>
+      <c r="AQ32">
+        <v>530.295120562511</v>
+      </c>
+      <c r="AR32">
+        <v>2145.999858713773</v>
+      </c>
+      <c r="AS32">
+        <v>1110.784748030245</v>
+      </c>
+      <c r="AT32">
+        <v>1126.58181631624</v>
+      </c>
+      <c r="AU32">
+        <v>66.61740761824333</v>
+      </c>
+      <c r="AV32">
+        <v>150.1779395768394</v>
+      </c>
+      <c r="AW32">
+        <v>10.99036267752999</v>
+      </c>
+      <c r="AX32">
+        <v>107.6046416071129</v>
+      </c>
+      <c r="AY32">
+        <v>2.131628207280301E-14</v>
+      </c>
+      <c r="AZ32">
+        <v>1.166238228932328E-16</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:56">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5070,37 +5843,37 @@
         <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H33">
         <v>438</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N33">
         <v>10</v>
@@ -5115,25 +5888,25 @@
         <v>0.6</v>
       </c>
       <c r="R33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V33">
-        <v>258.41078343017199</v>
+        <v>258.410783430172</v>
       </c>
       <c r="W33">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X33">
         <v>1139.655518400001</v>
       </c>
       <c r="Y33" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="Z33">
-        <v>258.41078343017199</v>
+        <v>258.410783430172</v>
       </c>
       <c r="AA33">
         <v>240.4107834301721</v>
@@ -5148,7 +5921,7 @@
         <v>438</v>
       </c>
       <c r="AE33">
-        <v>6.5061392417702164</v>
+        <v>6.506139241770216</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -5169,49 +5942,49 @@
         <v>104.352103293657</v>
       </c>
       <c r="AM33">
-        <v>136.05868013651511</v>
+        <v>136.0586801365151</v>
       </c>
       <c r="AO33">
-        <v>54.598991596638648</v>
+        <v>54.59899159663865</v>
       </c>
       <c r="AP33">
         <v>1615.704738151263</v>
       </c>
       <c r="AQ33">
-        <v>530.29512056251099</v>
+        <v>530.295120562511</v>
       </c>
       <c r="AR33">
-        <v>2145.9998587137729</v>
+        <v>2145.999858713773</v>
       </c>
       <c r="AS33">
-        <v>1110.7847480302451</v>
+        <v>1110.784748030245</v>
       </c>
       <c r="AT33">
-        <v>1141.0902023552519</v>
+        <v>1141.090202355252</v>
       </c>
       <c r="AU33">
-        <v>79.783002715182377</v>
+        <v>79.78300271518238</v>
       </c>
       <c r="AV33">
-        <v>148.80927810583091</v>
+        <v>148.8092781058309</v>
       </c>
       <c r="AW33">
         <v>12.75059796931574</v>
       </c>
       <c r="AX33">
-        <v>173.92017215609499</v>
+        <v>173.920172156095</v>
       </c>
       <c r="AY33">
-        <v>1.4210854715202001E-14</v>
+        <v>1.4210854715202E-14</v>
       </c>
       <c r="AZ33">
         <v>7.774921526215518E-17</v>
       </c>
       <c r="BA33">
-        <v>-9.0130585592351622</v>
+        <v>-9.013058559235162</v>
       </c>
       <c r="BB33">
-        <v>11.605235898302711</v>
+        <v>11.60523589830271</v>
       </c>
       <c r="BC33">
         <v>0</v>
@@ -5220,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:56">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5228,37 +6001,37 @@
         <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H34">
         <v>438</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N34">
         <v>10</v>
@@ -5273,28 +6046,28 @@
         <v>0.6</v>
       </c>
       <c r="R34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V34">
-        <v>291.69123805234528</v>
+        <v>291.6912380523453</v>
       </c>
       <c r="W34">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X34">
-        <v>1671.7148752999999</v>
+        <v>1671.7148753</v>
       </c>
       <c r="Y34" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="Z34">
-        <v>291.69123805234528</v>
+        <v>291.6912380523453</v>
       </c>
       <c r="AA34">
-        <v>273.69123805234528</v>
+        <v>273.6912380523453</v>
       </c>
       <c r="AB34">
         <v>18</v>
@@ -5306,7 +6079,7 @@
         <v>438</v>
       </c>
       <c r="AE34">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -5327,10 +6100,10 @@
         <v>106.2488981630981</v>
       </c>
       <c r="AM34">
-        <v>167.44233988924719</v>
+        <v>167.4423398892472</v>
       </c>
       <c r="AO34">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AP34">
         <v>1640.910548940604</v>
@@ -5342,7 +6115,7 @@
         <v>2235.677042408432</v>
       </c>
       <c r="AS34">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AT34">
         <v>1303.884247377488</v>
@@ -5351,7 +6124,7 @@
         <v>30.01430670550037</v>
       </c>
       <c r="AV34">
-        <v>172.15589338097629</v>
+        <v>172.1558933809763</v>
       </c>
       <c r="AW34">
         <v>4.713553491729062</v>
@@ -5360,10 +6133,10 @@
         <v>177.0814969384968</v>
       </c>
       <c r="AY34">
-        <v>7.1054273576010019E-15</v>
+        <v>7.105427357601002E-15</v>
       </c>
       <c r="AZ34">
-        <v>4.0170924562936658E-17</v>
+        <v>4.017092456293666E-17</v>
       </c>
       <c r="BA34">
         <v>-11.5999000202558</v>
@@ -5378,7 +6151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:56">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5386,37 +6159,37 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H35">
         <v>438</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N35">
         <v>10</v>
@@ -5431,28 +6204,28 @@
         <v>0.6</v>
       </c>
       <c r="R35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V35">
-        <v>282.88320752579648</v>
+        <v>282.8832075257965</v>
       </c>
       <c r="W35">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X35">
-        <v>1808.4235335999999</v>
+        <v>1808.4235336</v>
       </c>
       <c r="Y35" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Z35">
-        <v>282.88320752579648</v>
+        <v>282.8832075257965</v>
       </c>
       <c r="AA35">
-        <v>264.88320752579648</v>
+        <v>264.8832075257965</v>
       </c>
       <c r="AB35">
         <v>18</v>
@@ -5464,7 +6237,7 @@
         <v>438</v>
       </c>
       <c r="AE35">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -5473,49 +6246,49 @@
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>0.12653133800625091</v>
+        <v>0.1265313380062509</v>
       </c>
       <c r="AI35">
-        <v>0.12653133800625091</v>
+        <v>0.1265313380062509</v>
       </c>
       <c r="AJ35">
-        <v>0.11848008567482771</v>
+        <v>0.1184800856748277</v>
       </c>
       <c r="AL35">
         <v>89.83841580950137</v>
       </c>
       <c r="AM35">
-        <v>175.04479171629509</v>
+        <v>175.0447917162951</v>
       </c>
       <c r="AO35">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AP35">
         <v>1640.910548940604</v>
       </c>
       <c r="AQ35">
-        <v>594.76649346782756</v>
+        <v>594.7664934678276</v>
       </c>
       <c r="AR35">
         <v>2235.677042408432</v>
       </c>
       <c r="AS35">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AT35">
         <v>1295.770922264446</v>
       </c>
       <c r="AU35">
-        <v>24.729678416527751</v>
+        <v>24.72967841652775</v>
       </c>
       <c r="AV35">
-        <v>178.94129479918709</v>
+        <v>178.9412947991871</v>
       </c>
       <c r="AW35">
-        <v>3.8965030828920311</v>
+        <v>3.896503082892031</v>
       </c>
       <c r="AX35">
-        <v>149.73069301583561</v>
+        <v>149.7306930158356</v>
       </c>
       <c r="AY35">
         <v>0</v>
@@ -5536,45 +6309,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:56">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H36">
         <v>438</v>
       </c>
       <c r="I36" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="J36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N36">
         <v>10</v>
@@ -5589,13 +6362,112 @@
         <v>0.6</v>
       </c>
       <c r="R36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="V36">
+        <v>279.7611009293184</v>
+      </c>
+      <c r="W36">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X36">
+        <v>1264.4592374</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z36">
+        <v>279.7611009293184</v>
+      </c>
+      <c r="AA36">
+        <v>261.7611009293184</v>
+      </c>
+      <c r="AB36">
+        <v>18</v>
+      </c>
+      <c r="AC36">
+        <v>18</v>
+      </c>
+      <c r="AD36">
+        <v>438</v>
+      </c>
+      <c r="AE36">
+        <v>6.406199293914408</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0.125134845338815</v>
+      </c>
+      <c r="AI36">
+        <v>0.125134845338815</v>
+      </c>
+      <c r="AJ36">
+        <v>0.1170835930073919</v>
+      </c>
+      <c r="AL36">
+        <v>88.58073519577589</v>
+      </c>
+      <c r="AM36">
+        <v>173.1803657335426</v>
+      </c>
+      <c r="AO36">
+        <v>64.35567905522751</v>
+      </c>
+      <c r="AP36">
+        <v>1640.910548940604</v>
+      </c>
+      <c r="AQ36">
+        <v>594.7664934678281</v>
+      </c>
+      <c r="AR36">
+        <v>2235.677042408432</v>
+      </c>
+      <c r="AS36">
+        <v>987.6318419771399</v>
+      </c>
+      <c r="AT36">
+        <v>1286.142195472608</v>
+      </c>
+      <c r="AU36">
+        <v>14.5326391935572</v>
+      </c>
+      <c r="AV36">
+        <v>175.7326349826019</v>
+      </c>
+      <c r="AW36">
+        <v>2.55226924905933</v>
+      </c>
+      <c r="AX36">
+        <v>147.6345586596265</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:56">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5603,37 +6475,37 @@
         <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H37">
         <v>438</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N37">
         <v>10</v>
@@ -5648,22 +6520,22 @@
         <v>0.6</v>
       </c>
       <c r="R37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V37">
         <v>291.7117582021184</v>
       </c>
       <c r="W37">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X37">
-        <v>1285.3284036999989</v>
+        <v>1285.328403699999</v>
       </c>
       <c r="Y37" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Z37">
         <v>291.7117582021184</v>
@@ -5681,7 +6553,7 @@
         <v>438</v>
       </c>
       <c r="AE37">
-        <v>6.4061992939144083</v>
+        <v>6.406199293914408</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -5696,34 +6568,34 @@
         <v>0.1304802762960188</v>
       </c>
       <c r="AJ37">
-        <v>0.12242902396459571</v>
+        <v>0.1224290239645957</v>
       </c>
       <c r="AL37">
         <v>106.248898163098</v>
       </c>
       <c r="AM37">
-        <v>167.46286003902031</v>
+        <v>167.4628600390203</v>
       </c>
       <c r="AO37">
-        <v>64.355679055227512</v>
+        <v>64.35567905522751</v>
       </c>
       <c r="AP37">
         <v>1640.910548940604</v>
       </c>
       <c r="AQ37">
-        <v>594.76649346782847</v>
+        <v>594.7664934678285</v>
       </c>
       <c r="AR37">
         <v>2235.677042408432</v>
       </c>
       <c r="AS37">
-        <v>987.63184197713986</v>
+        <v>987.6318419771399</v>
       </c>
       <c r="AT37">
-        <v>1303.8808400125979</v>
+        <v>1303.880840012598</v>
       </c>
       <c r="AU37">
-        <v>30.002630295893589</v>
+        <v>30.00263029589359</v>
       </c>
       <c r="AV37">
         <v>172.1694802354543</v>
@@ -5732,7 +6604,7 @@
         <v>4.70662019643399</v>
       </c>
       <c r="AX37">
-        <v>177.08149693849671</v>
+        <v>177.0814969384967</v>
       </c>
       <c r="AY37">
         <v>0</v>
@@ -5753,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:56">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5761,37 +6633,37 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H38">
         <v>438</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N38">
         <v>10</v>
@@ -5806,22 +6678,22 @@
         <v>0.6</v>
       </c>
       <c r="R38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V38">
         <v>371.0707336608246</v>
       </c>
       <c r="W38">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X38">
-        <v>2147.8768851999998</v>
+        <v>2147.8768852</v>
       </c>
       <c r="Y38" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Z38">
         <v>371.0707336608246</v>
@@ -5839,7 +6711,7 @@
         <v>438</v>
       </c>
       <c r="AE38">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -5848,10 +6720,10 @@
         <v>0</v>
       </c>
       <c r="AH38">
-        <v>0.13777561359735149</v>
+        <v>0.1377756135973515</v>
       </c>
       <c r="AI38">
-        <v>0.13777561359735149</v>
+        <v>0.1377756135973515</v>
       </c>
       <c r="AJ38">
         <v>0.1310923566875809</v>
@@ -5863,22 +6735,22 @@
         <v>244.9328658166153</v>
       </c>
       <c r="AO38">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AP38">
         <v>1861.262727529411</v>
       </c>
       <c r="AQ38">
-        <v>832.03490310409882</v>
+        <v>832.0349031040988</v>
       </c>
       <c r="AR38">
         <v>2693.297630633509</v>
       </c>
       <c r="AS38">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AT38">
-        <v>1789.7749069109909</v>
+        <v>1789.774906910991</v>
       </c>
       <c r="AU38">
         <v>3.100465863283429</v>
@@ -5887,10 +6759,10 @@
         <v>245.3850399823672</v>
       </c>
       <c r="AW38">
-        <v>0.45217416575188002</v>
+        <v>0.45217416575188</v>
       </c>
       <c r="AX38">
-        <v>180.22977974034879</v>
+        <v>180.2297797403488</v>
       </c>
       <c r="AY38">
         <v>0</v>
@@ -5902,7 +6774,7 @@
         <v>-12.71181636181905</v>
       </c>
       <c r="BB38">
-        <v>11.866892987178799</v>
+        <v>11.8668929871788</v>
       </c>
       <c r="BC38">
         <v>0</v>
@@ -5911,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:56">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5919,37 +6791,37 @@
         <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H39">
         <v>438</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N39">
         <v>10</v>
@@ -5964,28 +6836,28 @@
         <v>0.6</v>
       </c>
       <c r="R39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V39">
-        <v>357.07282025176681</v>
+        <v>357.0728202517668</v>
       </c>
       <c r="W39">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X39">
-        <v>2291.2894741999999</v>
+        <v>2291.2894742</v>
       </c>
       <c r="Y39" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="Z39">
-        <v>357.07282025176681</v>
+        <v>357.0728202517668</v>
       </c>
       <c r="AA39">
-        <v>339.07282025176681</v>
+        <v>339.0728202517668</v>
       </c>
       <c r="AB39">
         <v>18</v>
@@ -5997,7 +6869,7 @@
         <v>438</v>
       </c>
       <c r="AE39">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -6012,40 +6884,40 @@
         <v>0.1325782996243817</v>
       </c>
       <c r="AJ39">
-        <v>0.12589504271461111</v>
+        <v>0.1258950427146111</v>
       </c>
       <c r="AL39">
-        <v>87.274835024312338</v>
+        <v>87.27483502431234</v>
       </c>
       <c r="AM39">
-        <v>252.10347774942201</v>
+        <v>252.103477749422</v>
       </c>
       <c r="AO39">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AP39">
         <v>1861.262727529411</v>
       </c>
       <c r="AQ39">
-        <v>832.03490310410018</v>
+        <v>832.0349031041002</v>
       </c>
       <c r="AR39">
-        <v>2693.2976306335108</v>
+        <v>2693.297630633511</v>
       </c>
       <c r="AS39">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AT39">
-        <v>1789.4937509639831</v>
+        <v>1789.493750963983</v>
       </c>
       <c r="AU39">
-        <v>2.5054146430254161</v>
+        <v>2.505414643025416</v>
       </c>
       <c r="AV39">
-        <v>252.46283559201481</v>
+        <v>252.4628355920148</v>
       </c>
       <c r="AW39">
-        <v>0.35935784259283349</v>
+        <v>0.3593578425928335</v>
       </c>
       <c r="AX39">
         <v>145.4580583738539</v>
@@ -6054,13 +6926,13 @@
         <v>55.83734615998992</v>
       </c>
       <c r="AZ39">
-        <v>0.30549252196748111</v>
+        <v>0.3054925219674811</v>
       </c>
       <c r="BA39">
         <v>-12.71181636181905</v>
       </c>
       <c r="BB39">
-        <v>11.866892987178799</v>
+        <v>11.8668929871788</v>
       </c>
       <c r="BC39">
         <v>0</v>
@@ -6069,45 +6941,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:56">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H40">
         <v>438</v>
       </c>
       <c r="I40" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="J40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N40">
         <v>10</v>
@@ -6122,13 +6994,112 @@
         <v>0.6</v>
       </c>
       <c r="R40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="V40">
+        <v>349.8744804641879</v>
+      </c>
+      <c r="W40">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X40">
+        <v>1650.9280411</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z40">
+        <v>349.8744804641879</v>
+      </c>
+      <c r="AA40">
+        <v>331.8744804641879</v>
+      </c>
+      <c r="AB40">
+        <v>18</v>
+      </c>
+      <c r="AC40">
+        <v>18</v>
+      </c>
+      <c r="AD40">
+        <v>438</v>
+      </c>
+      <c r="AE40">
+        <v>5.64777870663823</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0.1299056132841477</v>
+      </c>
+      <c r="AI40">
+        <v>0.1299056132841477</v>
+      </c>
+      <c r="AJ40">
+        <v>0.1232223563743771</v>
+      </c>
+      <c r="AL40">
+        <v>80.86705990883922</v>
+      </c>
+      <c r="AM40">
+        <v>251.3411748669238</v>
+      </c>
+      <c r="AO40">
+        <v>91.74050420168068</v>
+      </c>
+      <c r="AP40">
+        <v>1861.262727529411</v>
+      </c>
+      <c r="AQ40">
+        <v>832.0349031040992</v>
+      </c>
+      <c r="AR40">
+        <v>2693.29763063351</v>
+      </c>
+      <c r="AS40">
+        <v>932.8271981736434</v>
+      </c>
+      <c r="AT40">
+        <v>1787.13147491343</v>
+      </c>
+      <c r="AU40">
+        <v>1.288649859090293E-14</v>
+      </c>
+      <c r="AV40">
+        <v>251.3411748669238</v>
+      </c>
+      <c r="AW40">
+        <v>1.605543798750889E-15</v>
+      </c>
+      <c r="AX40">
+        <v>134.7784331813987</v>
+      </c>
+      <c r="AY40">
+        <v>61.0029826844374</v>
+      </c>
+      <c r="AZ40">
+        <v>0.3337543115750887</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:56">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6136,37 +7107,37 @@
         <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H41">
         <v>438</v>
       </c>
       <c r="I41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N41">
         <v>10</v>
@@ -6181,28 +7152,28 @@
         <v>0.6</v>
       </c>
       <c r="R41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V41">
-        <v>371.08848864052618</v>
+        <v>371.0884886405262</v>
       </c>
       <c r="W41">
-        <v>30.989583333333329</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="X41">
         <v>1749.0054482</v>
       </c>
       <c r="Y41" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="Z41">
-        <v>371.08848864052618</v>
+        <v>371.0884886405262</v>
       </c>
       <c r="AA41">
-        <v>353.08848864052618</v>
+        <v>353.0884886405262</v>
       </c>
       <c r="AB41">
         <v>18</v>
@@ -6214,7 +7185,7 @@
         <v>438</v>
       </c>
       <c r="AE41">
-        <v>5.6477787066382303</v>
+        <v>5.64777870663823</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -6229,43 +7200,43 @@
         <v>0.1377822058801722</v>
       </c>
       <c r="AJ41">
-        <v>0.13109894897040161</v>
+        <v>0.1310989489704016</v>
       </c>
       <c r="AL41">
         <v>108.1378678442093</v>
       </c>
       <c r="AM41">
-        <v>244.95062079631691</v>
+        <v>244.9506207963169</v>
       </c>
       <c r="AO41">
-        <v>91.740504201680679</v>
+        <v>91.74050420168068</v>
       </c>
       <c r="AP41">
         <v>1861.262727529411</v>
       </c>
       <c r="AQ41">
-        <v>832.03490310409939</v>
+        <v>832.0349031040994</v>
       </c>
       <c r="AR41">
-        <v>2693.2976306335099</v>
+        <v>2693.29763063351</v>
       </c>
       <c r="AS41">
-        <v>932.82719817364341</v>
+        <v>932.8271981736434</v>
       </c>
       <c r="AT41">
         <v>1789.717774479305</v>
       </c>
       <c r="AU41">
-        <v>3.0435773635707979</v>
+        <v>3.043577363570798</v>
       </c>
       <c r="AV41">
-        <v>245.39713721594299</v>
+        <v>245.397137215943</v>
       </c>
       <c r="AW41">
-        <v>0.44651641962603861</v>
+        <v>0.4465164196260386</v>
       </c>
       <c r="AX41">
-        <v>180.22977974034879</v>
+        <v>180.2297797403488</v>
       </c>
       <c r="AY41">
         <v>0</v>
@@ -6277,7 +7248,7 @@
         <v>-12.71181636181905</v>
       </c>
       <c r="BB41">
-        <v>11.866892987178799</v>
+        <v>11.8668929871788</v>
       </c>
       <c r="BC41">
         <v>0</v>
@@ -6286,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:56">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6294,37 +7265,37 @@
         <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H42">
         <v>438</v>
       </c>
       <c r="I42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N42">
         <v>10</v>
@@ -6339,28 +7310,28 @@
         <v>0.6</v>
       </c>
       <c r="R42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V42">
-        <v>407.19224770750259</v>
+        <v>407.1922477075026</v>
       </c>
       <c r="W42">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X42">
-        <v>1484.2914929000001</v>
+        <v>1484.2914929</v>
       </c>
       <c r="Y42" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="Z42">
-        <v>407.19224770750259</v>
+        <v>407.1922477075026</v>
       </c>
       <c r="AA42">
-        <v>389.19224770750259</v>
+        <v>389.1922477075026</v>
       </c>
       <c r="AB42">
         <v>18</v>
@@ -6372,7 +7343,7 @@
         <v>438</v>
       </c>
       <c r="AE42">
-        <v>5.9686703042519369</v>
+        <v>5.968670304251937</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -6381,28 +7352,28 @@
         <v>0</v>
       </c>
       <c r="AH42">
-        <v>0.16186495947445059</v>
+        <v>0.1618649594744506</v>
       </c>
       <c r="AI42">
-        <v>0.16186495947445059</v>
+        <v>0.1618649594744506</v>
       </c>
       <c r="AJ42">
-        <v>0.15470969243058241</v>
+        <v>0.1547096924305824</v>
       </c>
       <c r="AL42">
         <v>122.26998</v>
       </c>
       <c r="AM42">
-        <v>266.92226770750261</v>
+        <v>266.9222677075026</v>
       </c>
       <c r="AO42">
-        <v>79.360889197638073</v>
+        <v>79.36088919763807</v>
       </c>
       <c r="AP42">
-        <v>1761.1962906564811</v>
+        <v>1761.196290656481</v>
       </c>
       <c r="AQ42">
-        <v>754.43308972078057</v>
+        <v>754.4330897207806</v>
       </c>
       <c r="AR42">
         <v>2515.629380377261</v>
@@ -6411,13 +7382,13 @@
         <v>626.1831707214252</v>
       </c>
       <c r="AT42">
-        <v>1926.3674841769709</v>
+        <v>1926.367484176971</v>
       </c>
       <c r="AU42">
-        <v>11.827709028349419</v>
+        <v>11.82770902834942</v>
       </c>
       <c r="AV42">
-        <v>268.55653390930081</v>
+        <v>268.5565339093008</v>
       </c>
       <c r="AW42">
         <v>1.634266201798189</v>
@@ -6426,16 +7397,16 @@
         <v>203.7833</v>
       </c>
       <c r="AY42">
-        <v>3.5527136788005009E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AZ42">
-        <v>2.0085462281468329E-17</v>
+        <v>2.008546228146833E-17</v>
       </c>
       <c r="BA42">
-        <v>-61.138085366173371</v>
+        <v>-61.13808536617337</v>
       </c>
       <c r="BB42">
-        <v>52.160114482970258</v>
+        <v>52.16011448297026</v>
       </c>
       <c r="BC42">
         <v>0</v>
@@ -6444,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:56">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6452,37 +7423,37 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H43">
         <v>438</v>
       </c>
       <c r="I43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M43" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N43">
         <v>10</v>
@@ -6497,28 +7468,28 @@
         <v>0.6</v>
       </c>
       <c r="R43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V43">
-        <v>395.92724430634843</v>
+        <v>395.9272443063484</v>
       </c>
       <c r="W43">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X43">
-        <v>1470.9388825999999</v>
+        <v>1470.9388826</v>
       </c>
       <c r="Y43" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="Z43">
-        <v>395.92724430634843</v>
+        <v>395.9272443063484</v>
       </c>
       <c r="AA43">
-        <v>377.92724430634843</v>
+        <v>377.9272443063484</v>
       </c>
       <c r="AB43">
         <v>18</v>
@@ -6530,7 +7501,7 @@
         <v>438</v>
       </c>
       <c r="AE43">
-        <v>5.9686703042519369</v>
+        <v>5.968670304251937</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -6539,28 +7510,28 @@
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>0.15738695349748719</v>
+        <v>0.1573869534974872</v>
       </c>
       <c r="AI43">
-        <v>0.15738695349748719</v>
+        <v>0.1573869534974872</v>
       </c>
       <c r="AJ43">
-        <v>0.15023168645361901</v>
+        <v>0.150231686453619</v>
       </c>
       <c r="AL43">
-        <v>109.36529816610209</v>
+        <v>109.3652981661021</v>
       </c>
       <c r="AM43">
-        <v>268.56194614024622</v>
+        <v>268.5619461402462</v>
       </c>
       <c r="AO43">
-        <v>79.360889197638073</v>
+        <v>79.36088919763807</v>
       </c>
       <c r="AP43">
-        <v>1761.1962906564811</v>
+        <v>1761.196290656481</v>
       </c>
       <c r="AQ43">
-        <v>754.43308972077966</v>
+        <v>754.4330897207797</v>
       </c>
       <c r="AR43">
         <v>2515.629380377261</v>
@@ -6569,31 +7540,31 @@
         <v>626.1831707214252</v>
       </c>
       <c r="AT43">
-        <v>1925.8622622243449</v>
+        <v>1925.862262224345</v>
       </c>
       <c r="AU43">
         <v>11.83870845181618</v>
       </c>
       <c r="AV43">
-        <v>270.19883188498449</v>
+        <v>270.1988318849845</v>
       </c>
       <c r="AW43">
-        <v>1.6368857447383369</v>
+        <v>1.636885744738337</v>
       </c>
       <c r="AX43">
-        <v>182.27549694350361</v>
+        <v>182.2754969435036</v>
       </c>
       <c r="AY43">
-        <v>3.5527136788005009E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AZ43">
-        <v>2.0085462281468329E-17</v>
+        <v>2.008546228146833E-17</v>
       </c>
       <c r="BA43">
-        <v>-61.138085366173371</v>
+        <v>-61.13808536617337</v>
       </c>
       <c r="BB43">
-        <v>52.160114482970258</v>
+        <v>52.16011448297026</v>
       </c>
       <c r="BC43">
         <v>0</v>
@@ -6602,45 +7573,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:56">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>0</v>
+      <c r="B44" t="s">
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H44">
         <v>438</v>
       </c>
       <c r="I44" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="J44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N44">
         <v>10</v>
@@ -6655,13 +7626,112 @@
         <v>0.6</v>
       </c>
       <c r="R44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="V44">
+        <v>387.0368013301939</v>
+      </c>
+      <c r="W44">
+        <v>29.98958333333333</v>
+      </c>
+      <c r="X44">
+        <v>1380.2050595</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z44">
+        <v>387.0368013301939</v>
+      </c>
+      <c r="AA44">
+        <v>369.0368013301939</v>
+      </c>
+      <c r="AB44">
+        <v>18</v>
+      </c>
+      <c r="AC44">
+        <v>18</v>
+      </c>
+      <c r="AD44">
+        <v>438</v>
+      </c>
+      <c r="AE44">
+        <v>5.968670304251937</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0.1538528705178946</v>
+      </c>
+      <c r="AI44">
+        <v>0.1538528705178946</v>
+      </c>
+      <c r="AJ44">
+        <v>0.1466976034740264</v>
+      </c>
+      <c r="AL44">
+        <v>101.0670155130125</v>
+      </c>
+      <c r="AM44">
+        <v>267.9697858171814</v>
+      </c>
+      <c r="AO44">
+        <v>79.36088919763807</v>
+      </c>
+      <c r="AP44">
+        <v>1761.196290656481</v>
+      </c>
+      <c r="AQ44">
+        <v>754.4330897207791</v>
+      </c>
+      <c r="AR44">
+        <v>2515.62938037726</v>
+      </c>
+      <c r="AS44">
+        <v>626.1831707214252</v>
+      </c>
+      <c r="AT44">
+        <v>1914.615875829377</v>
+      </c>
+      <c r="AU44">
+        <v>0.9686625835503788</v>
+      </c>
+      <c r="AV44">
+        <v>268.1406578969197</v>
+      </c>
+      <c r="AW44">
+        <v>0.1708720797382862</v>
+      </c>
+      <c r="AX44">
+        <v>168.4450258550208</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>0</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:56">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6669,37 +7739,37 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H45">
         <v>438</v>
       </c>
       <c r="I45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N45">
         <v>10</v>
@@ -6714,28 +7784,28 @@
         <v>0.6</v>
       </c>
       <c r="R45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V45">
-        <v>407.20047447794212</v>
+        <v>407.2004744779421</v>
       </c>
       <c r="W45">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X45">
         <v>1458.429696800001</v>
       </c>
       <c r="Y45" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="Z45">
-        <v>407.20047447794212</v>
+        <v>407.2004744779421</v>
       </c>
       <c r="AA45">
-        <v>389.20047447794212</v>
+        <v>389.2004744779421</v>
       </c>
       <c r="AB45">
         <v>18</v>
@@ -6747,7 +7817,7 @@
         <v>438</v>
       </c>
       <c r="AE45">
-        <v>5.9686703042519369</v>
+        <v>5.968670304251937</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -6756,25 +7826,25 @@
         <v>0</v>
       </c>
       <c r="AH45">
-        <v>0.16186822973775081</v>
+        <v>0.1618682297377508</v>
       </c>
       <c r="AI45">
-        <v>0.16186822973775081</v>
+        <v>0.1618682297377508</v>
       </c>
       <c r="AJ45">
-        <v>0.15471296269388249</v>
+        <v>0.1547129626938825</v>
       </c>
       <c r="AL45">
         <v>122.26998</v>
       </c>
       <c r="AM45">
-        <v>266.93049447794209</v>
+        <v>266.9304944779421</v>
       </c>
       <c r="AO45">
-        <v>79.360889197638073</v>
+        <v>79.36088919763807</v>
       </c>
       <c r="AP45">
-        <v>1761.1962906564811</v>
+        <v>1761.196290656481</v>
       </c>
       <c r="AQ45">
         <v>754.43308972078</v>
@@ -6786,31 +7856,31 @@
         <v>626.1831707214252</v>
       </c>
       <c r="AT45">
-        <v>1926.4525322573261</v>
+        <v>1926.452532257326</v>
       </c>
       <c r="AU45">
-        <v>11.912757108703589</v>
+        <v>11.91275710870359</v>
       </c>
       <c r="AV45">
-        <v>268.57606432009351</v>
+        <v>268.5760643200935</v>
       </c>
       <c r="AW45">
-        <v>1.6455698421513441</v>
+        <v>1.645569842151344</v>
       </c>
       <c r="AX45">
         <v>203.7833</v>
       </c>
       <c r="AY45">
-        <v>3.5527136788005009E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="AZ45">
-        <v>2.0085462281468329E-17</v>
+        <v>2.008546228146833E-17</v>
       </c>
       <c r="BA45">
-        <v>-61.138085366173371</v>
+        <v>-61.13808536617337</v>
       </c>
       <c r="BB45">
-        <v>52.160114482970258</v>
+        <v>52.16011448297026</v>
       </c>
       <c r="BC45">
         <v>0</v>
@@ -6819,7 +7889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:56">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6827,37 +7897,37 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H46">
         <v>438</v>
       </c>
       <c r="I46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N46">
         <v>10</v>
@@ -6872,28 +7942,28 @@
         <v>0.6</v>
       </c>
       <c r="R46" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V46">
-        <v>344.80066645670632</v>
+        <v>344.8006664567063</v>
       </c>
       <c r="W46">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X46">
         <v>1170.1833546</v>
       </c>
       <c r="Y46" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="Z46">
-        <v>344.80066645670632</v>
+        <v>344.8006664567063</v>
       </c>
       <c r="AA46">
-        <v>326.80066645670632</v>
+        <v>326.8006664567063</v>
       </c>
       <c r="AB46">
         <v>18</v>
@@ -6905,7 +7975,7 @@
         <v>438</v>
       </c>
       <c r="AE46">
-        <v>6.9430218965175587</v>
+        <v>6.943021896517559</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -6920,43 +7990,43 @@
         <v>0.1670764269726453</v>
       </c>
       <c r="AJ46">
-        <v>0.15835435657640021</v>
+        <v>0.1583543565764002</v>
       </c>
       <c r="AL46">
         <v>106.6033800307256</v>
       </c>
       <c r="AM46">
-        <v>220.19728642598071</v>
+        <v>220.1972864259807</v>
       </c>
       <c r="AO46">
-        <v>58.687044112539077</v>
+        <v>58.68704411253908</v>
       </c>
       <c r="AP46">
-        <v>1514.0381460229221</v>
+        <v>1514.038146022922</v>
       </c>
       <c r="AQ46">
-        <v>549.69204443152728</v>
+        <v>549.6920444315273</v>
       </c>
       <c r="AR46">
-        <v>2063.7301904544502</v>
+        <v>2063.73019045445</v>
       </c>
       <c r="AS46">
-        <v>475.35458871625258</v>
+        <v>475.3545887162526</v>
       </c>
       <c r="AT46">
         <v>1648.930025132564</v>
       </c>
       <c r="AU46">
-        <v>34.941661938224748</v>
+        <v>34.94166193822475</v>
       </c>
       <c r="AV46">
-        <v>224.84165565770729</v>
+        <v>224.8416556577073</v>
       </c>
       <c r="AW46">
-        <v>4.6443692317266638</v>
+        <v>4.644369231726664</v>
       </c>
       <c r="AX46">
-        <v>177.67230005120939</v>
+        <v>177.6723000512094</v>
       </c>
       <c r="AY46">
         <v>0</v>
@@ -6965,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="BA46">
-        <v>-16.594576870801941</v>
+        <v>-16.59457687080194</v>
       </c>
       <c r="BB46">
         <v>11.74345269436844</v>
@@ -6977,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:56">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6985,37 +8055,37 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H47">
         <v>438</v>
       </c>
       <c r="I47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N47">
         <v>10</v>
@@ -7030,28 +8100,28 @@
         <v>0.6</v>
       </c>
       <c r="R47" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V47">
-        <v>344.83506710692473</v>
+        <v>344.8350671069247</v>
       </c>
       <c r="W47">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X47">
         <v>1153.9346424</v>
       </c>
       <c r="Y47" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="Z47">
-        <v>344.83506710692473</v>
+        <v>344.8350671069247</v>
       </c>
       <c r="AA47">
-        <v>326.83506710692473</v>
+        <v>326.8350671069247</v>
       </c>
       <c r="AB47">
         <v>18</v>
@@ -7063,7 +8133,7 @@
         <v>438</v>
       </c>
       <c r="AE47">
-        <v>6.9430218965175587</v>
+        <v>6.943021896517559</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -7072,49 +8142,49 @@
         <v>0</v>
       </c>
       <c r="AH47">
-        <v>0.16709309613336101</v>
+        <v>0.167093096133361</v>
       </c>
       <c r="AI47">
-        <v>0.16709309613336101</v>
+        <v>0.167093096133361</v>
       </c>
       <c r="AJ47">
-        <v>0.15837102573711589</v>
+        <v>0.1583710257371159</v>
       </c>
       <c r="AL47">
         <v>106.6033800307256</v>
       </c>
       <c r="AM47">
-        <v>220.23168707619899</v>
+        <v>220.231687076199</v>
       </c>
       <c r="AO47">
-        <v>58.687044112539077</v>
+        <v>58.68704411253908</v>
       </c>
       <c r="AP47">
-        <v>1514.0381460229221</v>
+        <v>1514.038146022922</v>
       </c>
       <c r="AQ47">
-        <v>549.69204443152728</v>
+        <v>549.6920444315273</v>
       </c>
       <c r="AR47">
-        <v>2063.7301904544502</v>
+        <v>2063.73019045445</v>
       </c>
       <c r="AS47">
-        <v>475.35458871625258</v>
+        <v>475.3545887162526</v>
       </c>
       <c r="AT47">
         <v>1648.471044517936</v>
       </c>
       <c r="AU47">
-        <v>34.492259175633293</v>
+        <v>34.49225917563329</v>
       </c>
       <c r="AV47">
-        <v>224.79317405941131</v>
+        <v>224.7931740594113</v>
       </c>
       <c r="AW47">
-        <v>4.5614869832122622</v>
+        <v>4.561486983212262</v>
       </c>
       <c r="AX47">
-        <v>177.67230005120939</v>
+        <v>177.6723000512094</v>
       </c>
       <c r="AY47">
         <v>0</v>
@@ -7123,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="BA47">
-        <v>-16.594576870801941</v>
+        <v>-16.59457687080194</v>
       </c>
       <c r="BB47">
         <v>11.74345269436844</v>
@@ -7135,45 +8205,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:56">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>0</v>
+      <c r="B48" t="s">
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H48">
         <v>438</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="J48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N48">
         <v>10</v>
@@ -7188,13 +8258,16 @@
         <v>0.6</v>
       </c>
       <c r="R48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:56">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7202,37 +8275,37 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H49">
         <v>438</v>
       </c>
       <c r="I49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N49">
         <v>10</v>
@@ -7247,28 +8320,28 @@
         <v>0.6</v>
       </c>
       <c r="R49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V49">
-        <v>344.78565031101908</v>
+        <v>344.7856503110191</v>
       </c>
       <c r="W49">
-        <v>29.989583333333329</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="X49">
         <v>1122.2175209</v>
       </c>
       <c r="Y49" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="Z49">
-        <v>344.78565031101908</v>
+        <v>344.7856503110191</v>
       </c>
       <c r="AA49">
-        <v>326.78565031101908</v>
+        <v>326.7856503110191</v>
       </c>
       <c r="AB49">
         <v>18</v>
@@ -7280,7 +8353,7 @@
         <v>438</v>
       </c>
       <c r="AE49">
-        <v>6.9430218965175587</v>
+        <v>6.943021896517559</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -7289,49 +8362,49 @@
         <v>0</v>
       </c>
       <c r="AH49">
-        <v>0.16706915075710291</v>
+        <v>0.1670691507571029</v>
       </c>
       <c r="AI49">
-        <v>0.16706915075710291</v>
+        <v>0.1670691507571029</v>
       </c>
       <c r="AJ49">
-        <v>0.15834708036085779</v>
+        <v>0.1583470803608578</v>
       </c>
       <c r="AL49">
         <v>106.6033800307256</v>
       </c>
       <c r="AM49">
-        <v>220.18227028029349</v>
+        <v>220.1822702802935</v>
       </c>
       <c r="AO49">
-        <v>58.687044112539077</v>
+        <v>58.68704411253908</v>
       </c>
       <c r="AP49">
-        <v>1514.0381460229221</v>
+        <v>1514.038146022922</v>
       </c>
       <c r="AQ49">
-        <v>549.69204443152739</v>
+        <v>549.6920444315274</v>
       </c>
       <c r="AR49">
-        <v>2063.7301904544502</v>
+        <v>2063.73019045445</v>
       </c>
       <c r="AS49">
-        <v>475.35458871625258</v>
+        <v>475.3545887162526</v>
       </c>
       <c r="AT49">
-        <v>1648.9428287892929</v>
+        <v>1648.942828789293</v>
       </c>
       <c r="AU49">
-        <v>34.960288820294927</v>
+        <v>34.96028882029493</v>
       </c>
       <c r="AV49">
-        <v>224.82805965625749</v>
+        <v>224.8280596562575</v>
       </c>
       <c r="AW49">
-        <v>4.6457893759640134</v>
+        <v>4.645789375964013</v>
       </c>
       <c r="AX49">
-        <v>177.67230005120939</v>
+        <v>177.6723000512094</v>
       </c>
       <c r="AY49">
         <v>0</v>
@@ -7340,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="BA49">
-        <v>-16.594576870801941</v>
+        <v>-16.59457687080194</v>
       </c>
       <c r="BB49">
         <v>11.74345269436844</v>
@@ -7353,10 +8426,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BD49">
-    <sortCondition ref="L2:L49"/>
-    <sortCondition ref="U2:U49"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/experiments/thesis_track_p_grid/6h-bat-Oct-track-p-grid.xlsx
+++ b/output/experiments/thesis_track_p_grid/6h-bat-Oct-track-p-grid.xlsx
@@ -271,7 +271,7 @@
     <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-08_002.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
@@ -283,7 +283,7 @@
     <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-08_002.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
@@ -295,7 +295,7 @@
     <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-03-01-04-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-08_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
@@ -307,7 +307,7 @@
     <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-05-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-08_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
@@ -319,7 +319,7 @@
     <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-05-01-06-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-08_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
@@ -331,7 +331,7 @@
     <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-06-01-07-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-08_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
@@ -343,7 +343,7 @@
     <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-08-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-08_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
@@ -355,7 +355,7 @@
     <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-01-09-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-08_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
@@ -367,7 +367,7 @@
     <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-01-10-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-08_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
@@ -379,7 +379,7 @@
     <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-01-11-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-08_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
@@ -391,7 +391,7 @@
     <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-11-01-12-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-08_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-by_execution-2023-09-07_001.xlsx</t>
@@ -403,7 +403,7 @@
     <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-by_solution-2023-09-08_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-minimize_cap-2023-09-07_001.xlsx</t>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-12-01-12-31-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-08_001.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1470,22 +1470,22 @@
         <v>81</v>
       </c>
       <c r="V5">
-        <v>378.8318358541226</v>
+        <v>381.7622842221533</v>
       </c>
       <c r="W5">
         <v>30.98958333333333</v>
       </c>
       <c r="X5">
-        <v>1350.4106248</v>
+        <v>1238.6643104</v>
       </c>
       <c r="Y5" t="s">
         <v>85</v>
       </c>
       <c r="Z5">
-        <v>378.8318358541226</v>
+        <v>381.7622842221533</v>
       </c>
       <c r="AA5">
-        <v>360.8318358541226</v>
+        <v>363.7622842221533</v>
       </c>
       <c r="AB5">
         <v>18</v>
@@ -1506,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.1588754861415848</v>
+        <v>0.1600912605362297</v>
       </c>
       <c r="AI5">
-        <v>0.1588754861415848</v>
+        <v>0.1600912605362297</v>
       </c>
       <c r="AJ5">
-        <v>0.1513265990632302</v>
+        <v>0.1525429960566111</v>
       </c>
       <c r="AL5">
-        <v>110.8939531571033</v>
+        <v>100.423363368773</v>
       </c>
       <c r="AM5">
-        <v>249.9378826970193</v>
+        <v>263.5580617332523</v>
       </c>
       <c r="AO5">
         <v>62.56941176470588</v>
@@ -1527,34 +1527,34 @@
         <v>1823.944479731092</v>
       </c>
       <c r="AQ5">
-        <v>560.5129658720628</v>
+        <v>560.7096415709138</v>
       </c>
       <c r="AR5">
-        <v>2384.457445603155</v>
+        <v>2384.654121302006</v>
       </c>
       <c r="AS5">
         <v>604.9537259916899</v>
       </c>
       <c r="AT5">
-        <v>1809.73913161248</v>
+        <v>1804.585617161007</v>
       </c>
       <c r="AU5">
-        <v>5.353587442918837</v>
+        <v>4.409614257598677</v>
       </c>
       <c r="AV5">
-        <v>250.5498647811072</v>
+        <v>264.0712239680002</v>
       </c>
       <c r="AW5">
-        <v>0.6119820840879009</v>
+        <v>0.513162234747914</v>
       </c>
       <c r="AX5">
-        <v>184.8232552618388</v>
+        <v>167.3722722812883</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>40.05415611619642</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>0.2191408798719717</v>
       </c>
       <c r="BA5">
         <v>-11.32715959849124</v>
@@ -2102,22 +2102,22 @@
         <v>81</v>
       </c>
       <c r="V9">
-        <v>371.3081322459453</v>
+        <v>378.7312921699576</v>
       </c>
       <c r="W9">
         <v>27.98958333333333</v>
       </c>
       <c r="X9">
-        <v>1295.9960972</v>
+        <v>1201.0645585</v>
       </c>
       <c r="Y9" t="s">
         <v>89</v>
       </c>
       <c r="Z9">
-        <v>371.3081322459453</v>
+        <v>378.7312921699576</v>
       </c>
       <c r="AA9">
-        <v>353.3081322459453</v>
+        <v>360.7312921699576</v>
       </c>
       <c r="AB9">
         <v>18</v>
@@ -2138,19 +2138,19 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.1483185819099385</v>
+        <v>0.151280509043063</v>
       </c>
       <c r="AI9">
-        <v>0.1483185819099385</v>
+        <v>0.151280509043063</v>
       </c>
       <c r="AJ9">
-        <v>0.1411285037981817</v>
+        <v>0.144090585160161</v>
       </c>
       <c r="AL9">
-        <v>106.5589862281232</v>
+        <v>103.8987204790237</v>
       </c>
       <c r="AM9">
-        <v>246.7491460178221</v>
+        <v>257.1597640051947</v>
       </c>
       <c r="AO9">
         <v>69.49013770003722</v>
@@ -2159,34 +2159,34 @@
         <v>1897.080720803875</v>
       </c>
       <c r="AQ9">
-        <v>606.3691333176376</v>
+        <v>606.4228340536064</v>
       </c>
       <c r="AR9">
-        <v>2503.449854121513</v>
+        <v>2503.503554857481</v>
       </c>
       <c r="AS9">
         <v>747.2553716424334</v>
       </c>
       <c r="AT9">
-        <v>1790.140456522292</v>
+        <v>1785.347397625189</v>
       </c>
       <c r="AU9">
-        <v>9.030903313973955</v>
+        <v>6.807237924860658</v>
       </c>
       <c r="AV9">
-        <v>247.8780811967644</v>
+        <v>258.0489082644798</v>
       </c>
       <c r="AW9">
-        <v>1.128935178942237</v>
+        <v>0.8891442592851279</v>
       </c>
       <c r="AX9">
-        <v>177.5983103802052</v>
+        <v>173.1645341317061</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>54.01400200883849</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>0.3271923142607898</v>
       </c>
       <c r="BA9">
         <v>-12.19819991079334</v>
@@ -2734,22 +2734,22 @@
         <v>81</v>
       </c>
       <c r="V13">
-        <v>323.5723865595441</v>
+        <v>319.8925843792476</v>
       </c>
       <c r="W13">
         <v>30.98958333333333</v>
       </c>
       <c r="X13">
-        <v>1330.0328642</v>
+        <v>1219.1102593</v>
       </c>
       <c r="Y13" t="s">
         <v>93</v>
       </c>
       <c r="Z13">
-        <v>323.5723865595441</v>
+        <v>319.8925843792476</v>
       </c>
       <c r="AA13">
-        <v>305.5723865595441</v>
+        <v>301.8925843792476</v>
       </c>
       <c r="AB13">
         <v>18</v>
@@ -2770,19 +2770,19 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0.1365784413450851</v>
+        <v>0.1350252134828842</v>
       </c>
       <c r="AI13">
-        <v>0.1365784413450851</v>
+        <v>0.1350252134828842</v>
       </c>
       <c r="AJ13">
-        <v>0.1289807227314817</v>
+        <v>0.1274274948692808</v>
       </c>
       <c r="AL13">
-        <v>108.6235597207575</v>
+        <v>94.14891521222496</v>
       </c>
       <c r="AM13">
-        <v>196.9488268387866</v>
+        <v>208.2638731769835</v>
       </c>
       <c r="AO13">
         <v>61.60134453781513</v>
@@ -2800,25 +2800,25 @@
         <v>944.9298545577608</v>
       </c>
       <c r="AT13">
-        <v>1492.582067913237</v>
+        <v>1469.804033549719</v>
       </c>
       <c r="AU13">
-        <v>42.6822232898523</v>
+        <v>22.61344177428888</v>
       </c>
       <c r="AV13">
-        <v>202.5799944505576</v>
+        <v>210.9446171702643</v>
       </c>
       <c r="AW13">
-        <v>5.631167611771006</v>
+        <v>2.680743993280815</v>
       </c>
       <c r="AX13">
-        <v>181.0392662012625</v>
+        <v>156.9148586870416</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>95.08190639471097</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>0.5202040099608033</v>
       </c>
       <c r="BA13">
         <v>-16.17920982126445</v>
@@ -3366,22 +3366,22 @@
         <v>81</v>
       </c>
       <c r="V17">
-        <v>331.1741813942341</v>
+        <v>328.3788769401734</v>
       </c>
       <c r="W17">
         <v>29.98958333333333</v>
       </c>
       <c r="X17">
-        <v>1584.2451851</v>
+        <v>1462.5820843</v>
       </c>
       <c r="Y17" t="s">
         <v>97</v>
       </c>
       <c r="Z17">
-        <v>331.1741813942341</v>
+        <v>328.3788769401734</v>
       </c>
       <c r="AA17">
-        <v>313.1741813942341</v>
+        <v>310.3788769401734</v>
       </c>
       <c r="AB17">
         <v>18</v>
@@ -3402,19 +3402,19 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>0.1276129158245017</v>
+        <v>0.1265334091252801</v>
       </c>
       <c r="AI17">
-        <v>0.1276129158245017</v>
+        <v>0.1265334091252801</v>
       </c>
       <c r="AJ17">
-        <v>0.1206768905728635</v>
+        <v>0.119597514266641</v>
       </c>
       <c r="AL17">
-        <v>108.7013935981012</v>
+        <v>93.06812538604369</v>
       </c>
       <c r="AM17">
-        <v>204.4727877961329</v>
+        <v>217.3107515541297</v>
       </c>
       <c r="AO17">
         <v>79.39423410906565</v>
@@ -3423,28 +3423,28 @@
         <v>1901.742151302541</v>
       </c>
       <c r="AQ17">
-        <v>693.404109987169</v>
+        <v>693.4528980543224</v>
       </c>
       <c r="AR17">
-        <v>2595.146261289709</v>
+        <v>2595.195049356863</v>
       </c>
       <c r="AS17">
         <v>1094.388561628032</v>
       </c>
       <c r="AT17">
-        <v>1541.462857097989</v>
+        <v>1527.011154796215</v>
       </c>
       <c r="AU17">
-        <v>14.84169061580886</v>
+        <v>6.115309273527662</v>
       </c>
       <c r="AV17">
-        <v>206.6951118256528</v>
+        <v>218.0670793198073</v>
       </c>
       <c r="AW17">
-        <v>2.222324029519883</v>
+        <v>0.7563277656775866</v>
       </c>
       <c r="AX17">
-        <v>181.1689893301687</v>
+        <v>155.1135423100728</v>
       </c>
       <c r="AY17">
         <v>0</v>
@@ -3998,22 +3998,22 @@
         <v>81</v>
       </c>
       <c r="V21">
-        <v>336.7556753716689</v>
+        <v>331.9143485514842</v>
       </c>
       <c r="W21">
         <v>30.98958333333333</v>
       </c>
       <c r="X21">
-        <v>1579.4276043</v>
+        <v>1511.2594947</v>
       </c>
       <c r="Y21" t="s">
         <v>101</v>
       </c>
       <c r="Z21">
-        <v>336.7556753716689</v>
+        <v>331.9143485514842</v>
       </c>
       <c r="AA21">
-        <v>318.7556753716689</v>
+        <v>313.9143485514842</v>
       </c>
       <c r="AB21">
         <v>18</v>
@@ -4034,19 +4034,19 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>0.1314053442531573</v>
+        <v>0.1295202985453993</v>
       </c>
       <c r="AI21">
-        <v>0.1314053442531573</v>
+        <v>0.1295202985453993</v>
       </c>
       <c r="AJ21">
-        <v>0.1243815689479711</v>
+        <v>0.1224963015895835</v>
       </c>
       <c r="AL21">
-        <v>106.4060359165518</v>
+        <v>89.44986790154844</v>
       </c>
       <c r="AM21">
-        <v>212.349639455117</v>
+        <v>224.5182362881832</v>
       </c>
       <c r="AO21">
         <v>80.73680672268908</v>
@@ -4055,34 +4055,34 @@
         <v>1862.336656134451</v>
       </c>
       <c r="AQ21">
-        <v>700.3876933630587</v>
+        <v>700.306823529412</v>
       </c>
       <c r="AR21">
-        <v>2562.724349497509</v>
+        <v>2562.643479663862</v>
       </c>
       <c r="AS21">
         <v>998.2962822620709</v>
       </c>
       <c r="AT21">
-        <v>1618.787222142834</v>
+        <v>1595.896016282618</v>
       </c>
       <c r="AU21">
-        <v>28.60521592611861</v>
+        <v>11.32613513684279</v>
       </c>
       <c r="AV21">
-        <v>216.4964892214551</v>
+        <v>225.8428845473684</v>
       </c>
       <c r="AW21">
-        <v>4.146849766338057</v>
+        <v>1.324648259185148</v>
       </c>
       <c r="AX21">
-        <v>177.343393194253</v>
+        <v>149.0831131692474</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>9.825354026807531</v>
       </c>
       <c r="AZ21">
-        <v>0</v>
+        <v>0.05375563824742705</v>
       </c>
       <c r="BA21">
         <v>-14.6629732887026</v>
@@ -4630,22 +4630,22 @@
         <v>81</v>
       </c>
       <c r="V25">
-        <v>309.6168070412068</v>
+        <v>311.1362173684662</v>
       </c>
       <c r="W25">
         <v>29.98958333333333</v>
       </c>
       <c r="X25">
-        <v>1242.084621399999</v>
+        <v>1202.5276552</v>
       </c>
       <c r="Y25" t="s">
         <v>105</v>
       </c>
       <c r="Z25">
-        <v>309.6168070412068</v>
+        <v>311.1362173684662</v>
       </c>
       <c r="AA25">
-        <v>291.6168070412068</v>
+        <v>293.1362173684662</v>
       </c>
       <c r="AB25">
         <v>18</v>
@@ -4666,19 +4666,19 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>0.1392495640639949</v>
+        <v>0.1399289434667034</v>
       </c>
       <c r="AI25">
-        <v>0.1392495640639949</v>
+        <v>0.1399289434667034</v>
       </c>
       <c r="AJ25">
-        <v>0.1311540986494887</v>
+        <v>0.1318337078695635</v>
       </c>
       <c r="AL25">
-        <v>106.0479950548862</v>
+        <v>96.84935292972744</v>
       </c>
       <c r="AM25">
-        <v>185.5688119863207</v>
+        <v>197.5573968366753</v>
       </c>
       <c r="AO25">
         <v>62.55505383813824</v>
@@ -4687,34 +4687,34 @@
         <v>1678.163552344566</v>
       </c>
       <c r="AQ25">
-        <v>545.3034230990072</v>
+        <v>545.3665455761844</v>
       </c>
       <c r="AR25">
-        <v>2223.466975443574</v>
+        <v>2223.53009792075</v>
       </c>
       <c r="AS25">
         <v>840.6148316061417</v>
       </c>
       <c r="AT25">
-        <v>1461.203479451276</v>
+        <v>1427.043869798723</v>
       </c>
       <c r="AU25">
-        <v>52.69095608971679</v>
+        <v>17.24144434714563</v>
       </c>
       <c r="AV25">
-        <v>193.4691873176189</v>
+        <v>199.9453416704439</v>
       </c>
       <c r="AW25">
-        <v>7.900375331298196</v>
+        <v>2.38794483376855</v>
       </c>
       <c r="AX25">
-        <v>176.7466584248103</v>
+        <v>161.4155882162124</v>
       </c>
       <c r="AY25">
-        <v>0</v>
+        <v>224.7315877649988</v>
       </c>
       <c r="AZ25">
-        <v>0</v>
+        <v>1.270532397936547</v>
       </c>
       <c r="BA25">
         <v>-12.67179709055496</v>
@@ -5262,22 +5262,22 @@
         <v>81</v>
       </c>
       <c r="V29">
-        <v>252.829854737865</v>
+        <v>223.2638435420032</v>
       </c>
       <c r="W29">
         <v>30.98958333333333</v>
       </c>
       <c r="X29">
-        <v>1232.2678752</v>
+        <v>1169.5332397</v>
       </c>
       <c r="Y29" t="s">
         <v>109</v>
       </c>
       <c r="Z29">
-        <v>252.829854737865</v>
+        <v>223.2638435420032</v>
       </c>
       <c r="AA29">
-        <v>234.829854737865</v>
+        <v>205.2638435420032</v>
       </c>
       <c r="AB29">
         <v>18</v>
@@ -5298,19 +5298,19 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0.1177513424974344</v>
+        <v>0.1039746882379047</v>
       </c>
       <c r="AI29">
-        <v>0.1177513424974344</v>
+        <v>0.1039746882379047</v>
       </c>
       <c r="AJ29">
-        <v>0.1093681388320629</v>
+        <v>0.09559203048826245</v>
       </c>
       <c r="AL29">
-        <v>105.8134854485876</v>
+        <v>64.44381977257362</v>
       </c>
       <c r="AM29">
-        <v>129.0163692892774</v>
+        <v>141.5501548826628</v>
       </c>
       <c r="AO29">
         <v>58.69714285714286</v>
@@ -5319,34 +5319,34 @@
         <v>1588.554786151262</v>
       </c>
       <c r="AQ29">
-        <v>558.5957208026069</v>
+        <v>558.7355527353792</v>
       </c>
       <c r="AR29">
-        <v>2147.150506953869</v>
+        <v>2147.290338886641</v>
       </c>
       <c r="AS29">
         <v>1167.710296098818</v>
       </c>
       <c r="AT29">
-        <v>1108.481389353206</v>
+        <v>1033.1591836436</v>
       </c>
       <c r="AU29">
-        <v>103.6238912631243</v>
+        <v>31.73312956314376</v>
       </c>
       <c r="AV29">
-        <v>144.7389549494254</v>
+        <v>145.0147040711629</v>
       </c>
       <c r="AW29">
-        <v>15.722585660148</v>
+        <v>3.46454918850011</v>
       </c>
       <c r="AX29">
-        <v>176.3558090809794</v>
+        <v>107.4063662876227</v>
       </c>
       <c r="AY29">
-        <v>0</v>
+        <v>133.4519858267323</v>
       </c>
       <c r="AZ29">
-        <v>0</v>
+        <v>0.7301311132331286</v>
       </c>
       <c r="BA29">
         <v>-14.06128093638941</v>
@@ -5894,22 +5894,22 @@
         <v>81</v>
       </c>
       <c r="V33">
-        <v>258.410783430172</v>
+        <v>233.3653695316492</v>
       </c>
       <c r="W33">
         <v>30.98958333333333</v>
       </c>
       <c r="X33">
-        <v>1139.655518400001</v>
+        <v>1086.3745479</v>
       </c>
       <c r="Y33" t="s">
         <v>113</v>
       </c>
       <c r="Z33">
-        <v>258.410783430172</v>
+        <v>233.3653695316492</v>
       </c>
       <c r="AA33">
-        <v>240.4107834301721</v>
+        <v>215.3653695316492</v>
       </c>
       <c r="AB33">
         <v>18</v>
@@ -5930,19 +5930,19 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>0.1204150980629855</v>
+        <v>0.1087443545646453</v>
       </c>
       <c r="AI33">
-        <v>0.1204150980629855</v>
+        <v>0.1087443545646453</v>
       </c>
       <c r="AJ33">
-        <v>0.112027399467894</v>
+        <v>0.1003566559695538</v>
       </c>
       <c r="AL33">
-        <v>104.352103293657</v>
+        <v>65.956972776347</v>
       </c>
       <c r="AM33">
-        <v>136.0586801365151</v>
+        <v>149.9350775801196</v>
       </c>
       <c r="AO33">
         <v>54.59899159663865</v>
@@ -5951,7 +5951,7 @@
         <v>1615.704738151263</v>
       </c>
       <c r="AQ33">
-        <v>530.295120562511</v>
+        <v>530.2951205625106</v>
       </c>
       <c r="AR33">
         <v>2145.999858713773</v>
@@ -5960,25 +5960,25 @@
         <v>1110.784748030245</v>
       </c>
       <c r="AT33">
-        <v>1141.090202355252</v>
+        <v>1071.905169927031</v>
       </c>
       <c r="AU33">
-        <v>79.78300271518238</v>
+        <v>15.61085430927645</v>
       </c>
       <c r="AV33">
-        <v>148.8092781058309</v>
+        <v>151.7337745682448</v>
       </c>
       <c r="AW33">
-        <v>12.75059796931574</v>
+        <v>1.798696988125188</v>
       </c>
       <c r="AX33">
-        <v>173.920172156095</v>
+        <v>109.9282879605784</v>
       </c>
       <c r="AY33">
-        <v>1.4210854715202E-14</v>
+        <v>96.26572638098139</v>
       </c>
       <c r="AZ33">
-        <v>7.774921526215518E-17</v>
+        <v>0.5266808248173875</v>
       </c>
       <c r="BA33">
         <v>-9.013058559235162</v>
@@ -6526,22 +6526,22 @@
         <v>81</v>
       </c>
       <c r="V37">
-        <v>291.7117582021184</v>
+        <v>284.9811300356272</v>
       </c>
       <c r="W37">
         <v>29.98958333333333</v>
       </c>
       <c r="X37">
-        <v>1285.328403699999</v>
+        <v>1218.0763376</v>
       </c>
       <c r="Y37" t="s">
         <v>117</v>
       </c>
       <c r="Z37">
-        <v>291.7117582021184</v>
+        <v>284.9811300356272</v>
       </c>
       <c r="AA37">
-        <v>273.7117582021184</v>
+        <v>266.9811300356272</v>
       </c>
       <c r="AB37">
         <v>18</v>
@@ -6562,19 +6562,19 @@
         <v>0</v>
       </c>
       <c r="AH37">
-        <v>0.1304802762960188</v>
+        <v>0.1274697215339408</v>
       </c>
       <c r="AI37">
-        <v>0.1304802762960188</v>
+        <v>0.1274697215339408</v>
       </c>
       <c r="AJ37">
-        <v>0.1224290239645957</v>
+        <v>0.1194184692025177</v>
       </c>
       <c r="AL37">
-        <v>106.248898163098</v>
+        <v>87.03783460116286</v>
       </c>
       <c r="AM37">
-        <v>167.4628600390203</v>
+        <v>180.1116038895606</v>
       </c>
       <c r="AO37">
         <v>64.35567905522751</v>
@@ -6583,7 +6583,7 @@
         <v>1640.910548940604</v>
       </c>
       <c r="AQ37">
-        <v>594.7664934678285</v>
+        <v>594.7664934678277</v>
       </c>
       <c r="AR37">
         <v>2235.677042408432</v>
@@ -6592,25 +6592,25 @@
         <v>987.6318419771399</v>
       </c>
       <c r="AT37">
-        <v>1303.880840012598</v>
+        <v>1275.759182717254</v>
       </c>
       <c r="AU37">
-        <v>30.00263029589359</v>
+        <v>7.246192519998683</v>
       </c>
       <c r="AV37">
-        <v>172.1694802354543</v>
+        <v>181.0260442021478</v>
       </c>
       <c r="AW37">
-        <v>4.70662019643399</v>
+        <v>0.9144403125872189</v>
       </c>
       <c r="AX37">
-        <v>177.0814969384967</v>
+        <v>145.0630576686048</v>
       </c>
       <c r="AY37">
-        <v>0</v>
+        <v>29.77037532414831</v>
       </c>
       <c r="AZ37">
-        <v>0</v>
+        <v>0.1683084550962807</v>
       </c>
       <c r="BA37">
         <v>-11.5999000202558</v>
@@ -7158,22 +7158,22 @@
         <v>81</v>
       </c>
       <c r="V41">
-        <v>371.0884886405262</v>
+        <v>359.5342253400781</v>
       </c>
       <c r="W41">
         <v>30.98958333333333</v>
       </c>
       <c r="X41">
-        <v>1749.0054482</v>
+        <v>1603.303729</v>
       </c>
       <c r="Y41" t="s">
         <v>121</v>
       </c>
       <c r="Z41">
-        <v>371.0884886405262</v>
+        <v>359.5342253400781</v>
       </c>
       <c r="AA41">
-        <v>353.0884886405262</v>
+        <v>341.5342253400781</v>
       </c>
       <c r="AB41">
         <v>18</v>
@@ -7194,19 +7194,19 @@
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>0.1377822058801722</v>
+        <v>0.1334921997668373</v>
       </c>
       <c r="AI41">
-        <v>0.1377822058801722</v>
+        <v>0.1334921997668373</v>
       </c>
       <c r="AJ41">
-        <v>0.1310989489704016</v>
+        <v>0.1268089428570668</v>
       </c>
       <c r="AL41">
-        <v>108.1378678442093</v>
+        <v>83.26105551668992</v>
       </c>
       <c r="AM41">
-        <v>244.9506207963169</v>
+        <v>258.5388161535467</v>
       </c>
       <c r="AO41">
         <v>91.74050420168068</v>
@@ -7215,7 +7215,7 @@
         <v>1861.262727529411</v>
       </c>
       <c r="AQ41">
-        <v>832.0349031040994</v>
+        <v>832.0349031040995</v>
       </c>
       <c r="AR41">
         <v>2693.29763063351</v>
@@ -7224,25 +7224,25 @@
         <v>932.8271981736434</v>
       </c>
       <c r="AT41">
-        <v>1789.717774479305</v>
+        <v>1784.609881155756</v>
       </c>
       <c r="AU41">
-        <v>3.043577363570798</v>
+        <v>1.908148349886507</v>
       </c>
       <c r="AV41">
-        <v>245.397137215943</v>
+        <v>258.8310040101808</v>
       </c>
       <c r="AW41">
-        <v>0.4465164196260386</v>
+        <v>0.2921878566340159</v>
       </c>
       <c r="AX41">
-        <v>180.2297797403488</v>
+        <v>138.7684258611499</v>
       </c>
       <c r="AY41">
-        <v>0</v>
+        <v>48.55433448145752</v>
       </c>
       <c r="AZ41">
-        <v>0</v>
+        <v>0.2656463301585349</v>
       </c>
       <c r="BA41">
         <v>-12.71181636181905</v>
@@ -7790,22 +7790,22 @@
         <v>81</v>
       </c>
       <c r="V45">
-        <v>407.2004744779421</v>
+        <v>396.2144451703995</v>
       </c>
       <c r="W45">
         <v>29.98958333333333</v>
       </c>
       <c r="X45">
-        <v>1458.429696800001</v>
+        <v>1358.5385934</v>
       </c>
       <c r="Y45" t="s">
         <v>125</v>
       </c>
       <c r="Z45">
-        <v>407.2004744779421</v>
+        <v>396.2144451703995</v>
       </c>
       <c r="AA45">
-        <v>389.2004744779421</v>
+        <v>378.2144451703995</v>
       </c>
       <c r="AB45">
         <v>18</v>
@@ -7826,19 +7826,19 @@
         <v>0</v>
       </c>
       <c r="AH45">
-        <v>0.1618682297377508</v>
+        <v>0.1575011201017935</v>
       </c>
       <c r="AI45">
-        <v>0.1618682297377508</v>
+        <v>0.1575011201017935</v>
       </c>
       <c r="AJ45">
-        <v>0.1547129626938825</v>
+        <v>0.1503458530579253</v>
       </c>
       <c r="AL45">
-        <v>122.26998</v>
+        <v>102.2603489709766</v>
       </c>
       <c r="AM45">
-        <v>266.9304944779421</v>
+        <v>276.0866970513032</v>
       </c>
       <c r="AO45">
         <v>79.36088919763807</v>
@@ -7847,7 +7847,7 @@
         <v>1761.196290656481</v>
       </c>
       <c r="AQ45">
-        <v>754.43308972078</v>
+        <v>754.4330897207806</v>
       </c>
       <c r="AR45">
         <v>2515.629380377261</v>
@@ -7856,25 +7856,25 @@
         <v>626.1831707214252</v>
       </c>
       <c r="AT45">
-        <v>1926.452532257326</v>
+        <v>1920.633769695537</v>
       </c>
       <c r="AU45">
-        <v>11.91275710870359</v>
+        <v>9.55135447016875</v>
       </c>
       <c r="AV45">
-        <v>268.5760643200935</v>
+        <v>277.4947509882299</v>
       </c>
       <c r="AW45">
-        <v>1.645569842151344</v>
+        <v>1.408053936926675</v>
       </c>
       <c r="AX45">
-        <v>203.7833</v>
+        <v>170.4339149516277</v>
       </c>
       <c r="AY45">
-        <v>3.552713678800501E-15</v>
+        <v>23.45441960430264</v>
       </c>
       <c r="AZ45">
-        <v>2.008546228146833E-17</v>
+        <v>0.1326008518803594</v>
       </c>
       <c r="BA45">
         <v>-61.13808536617337</v>
@@ -8326,22 +8326,22 @@
         <v>81</v>
       </c>
       <c r="V49">
-        <v>344.7856503110191</v>
+        <v>353.5612346795531</v>
       </c>
       <c r="W49">
         <v>29.98958333333333</v>
       </c>
       <c r="X49">
-        <v>1122.2175209</v>
+        <v>1102.9779828</v>
       </c>
       <c r="Y49" t="s">
         <v>129</v>
       </c>
       <c r="Z49">
-        <v>344.7856503110191</v>
+        <v>353.5612346795531</v>
       </c>
       <c r="AA49">
-        <v>326.7856503110191</v>
+        <v>335.5612346795531</v>
       </c>
       <c r="AB49">
         <v>18</v>
@@ -8362,19 +8362,19 @@
         <v>0</v>
       </c>
       <c r="AH49">
-        <v>0.1670691507571029</v>
+        <v>0.1713214432365774</v>
       </c>
       <c r="AI49">
-        <v>0.1670691507571029</v>
+        <v>0.1713214432365774</v>
       </c>
       <c r="AJ49">
-        <v>0.1583470803608578</v>
+        <v>0.1625993728403323</v>
       </c>
       <c r="AL49">
         <v>106.6033800307256</v>
       </c>
       <c r="AM49">
-        <v>220.1822702802935</v>
+        <v>229.4392872459554</v>
       </c>
       <c r="AO49">
         <v>58.68704411253908</v>
@@ -8392,25 +8392,25 @@
         <v>475.3545887162526</v>
       </c>
       <c r="AT49">
-        <v>1648.942828789293</v>
+        <v>1634.710088034392</v>
       </c>
       <c r="AU49">
-        <v>34.96028882029493</v>
+        <v>22.84944035846</v>
       </c>
       <c r="AV49">
-        <v>224.8280596562575</v>
+        <v>232.4805308339622</v>
       </c>
       <c r="AW49">
-        <v>4.645789375964013</v>
+        <v>3.041243588006854</v>
       </c>
       <c r="AX49">
         <v>177.6723000512094</v>
       </c>
       <c r="AY49">
-        <v>0</v>
+        <v>85.15572851986794</v>
       </c>
       <c r="AZ49">
-        <v>0</v>
+        <v>0.4814325971279066</v>
       </c>
       <c r="BA49">
         <v>-16.59457687080194</v>
